--- a/DExcel.xlsx
+++ b/DExcel.xlsx
@@ -987,130 +987,130 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>জীবদেহে জীবজ ক্রিয়াকলাপের একক কী?</t>
+          <t>নিচের কোনটি এককোষী জীব</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>জাইলেম ও কোষ</t>
+          <t>মানুষ</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>লায়ী ও সিকেভিজ</t>
+          <t>কেঁচো</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>মেসাফিল ২</t>
+          <t>চিংড়ি</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>প্যারেনকাইমা</t>
+          <t>ব্যাকটেরিয়া</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>কত সালে কোষকে সংজ্ঞায়িত করেছেন?</t>
+          <t>জাইগাট বারবার বিভাজিত হয়ে কী উৎপন্ন হয়?</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>1869 সালে</t>
+          <t>শুক্রাণু</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>1889 সালে</t>
+          <t>ডিম্বাণু</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>1996 সালে</t>
+          <t>অপত্য কোষ</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>1969 সালে</t>
+          <t>অসংখ্য কোষ</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>লোয়ী (Loey) সিকেবিজ (Siekevitz) এর মতে কোষ কী দ্বারা আবৃত?</t>
+          <t>নিচের কোনটি বহুকোষী জীব?</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>কাইটিন</t>
+          <t>প্লাজমাডিয়াম</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>সেলুলোজ</t>
+          <t>ব্যাকটেরিয়া</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>পেকটিন</t>
+          <t>অ্যামিবা</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>বৈষম্যভেদ্য পর্দা</t>
+          <t>বটগাছ</t>
         </is>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>জীবদেহে গঠন ও কাজের একক কোনটি?</t>
+          <t>প্রতিটি জীবের জীবন শুরু হয় কীভাবে?</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>টিস্যু</t>
+          <t>চারটি কোষ দিয়ে</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিওলাস</t>
+          <t>দুইটি কোষ দিয়ে</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াস</t>
+          <t>তিনটি কোষ দিয়ে</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>কোষ</t>
+          <t>একটি কোষ দিয়ে</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>যা অন্য সজীব মাধ্যম ব্যতিরেকে ৪ নিজের প্রতিরূপ তৈরি করতে সক্ষম এ তাকে কী বলে?</t>
+          <t>জীবদেহের গঠন ও কাজের একক কী?</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>প্যারেনকাইমা</t>
+          <t>মাইটোকন্ড্রিয়া</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>ভাজক টিস্যু</t>
+          <t>প্লাস্টিড</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>ট্রাকিড</t>
+          <t>গলজি বস্তু</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1122,3735 +1122,2099 @@
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াসের সংগঠনের ভিত্তিতে কোষ কয় ধরনের?</t>
+          <t>জীবদেহে কোষ বিভাজন কত প্রকার?</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
+          <t>তিন</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>চার</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>ছয়</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>কোন কোষে সুগঠিত নিউক্লিয়াস থাকে না?</t>
+          <t>কোষ বিভাজনের কোন পর্যায়ে নিউক্লিয়ার মেমব্রেন ও নিউক্লিওলাসের বিলুপ্তি ঘটতে থাকে?</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ</t>
+          <t>প্রাফেজ</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>প্রকৃতকোষে</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>জননকোষে</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষে</t>
+          <t>প্রামেটাফেজ</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>কোনটির নিউক্লিয়াস সুগঠিত?</t>
+          <t>সেন্ট্রিওল হতে কোন স্ব বিচ্ছুরিত হয়?</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষের</t>
+          <t>স্পিন্ডল</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষের</t>
+          <t>ট্রাকশন</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>জননকোষের</t>
+          <t>আকর্ষণ</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>প্রকৃতকোষের</t>
+          <t>অ্যাস্টার</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>কোনটির নিউক্লিয় বস্তু সাইটোপ্লাজমে ছড়ানা থাকে?</t>
+          <t>কোন ধাপে ক্রোমাসামের চারদিক ঘিরে নিউক্লিয়ার মেমব্রেন সৃষ্টি হয় এবং স্যাটক্রোমাসামের গৌণ কুঞ্চনে নিউক্লিওলাসের আবির্ভাব ঘটে?</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>মেসাফিলের</t>
+          <t>প্রাফেজ</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>প্রকৃতকোষের</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>কোলেনকাইমার</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষের</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>কাজের ভিত্তিতে প্রকৃত কোষ কয় প্রকার?</t>
+          <t>নিউক্লিয়ার মেমব্রেনের সৃষ্টি হয় কোন ধাপে?</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>চার প্রকার</t>
+          <t>প্রাফেজ</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>তিন প্রকার</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ প্রকার</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>দুই প্রকার</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>বহুকোষী জীবের দেহ গঠনে অংশ নেয় কোনটি?</t>
+          <t>মাতৃকোষটি দুভাগে বিভক্ত হয়ে দুটি নতুন অপত্য কোষে পরিণত হয় কোন ধাপে?</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>মেসোফিল</t>
+          <t>প্রাফেজ</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>প্যারেনকাইমা</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>কোলেনকাইমা</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>বিভিন্ন তন্ত্র ও অঙ্গ-প্রত্যঙ্গ গঠনে অংশ নেয় কোনটি?</t>
+          <t>মাইটোসিসের টেলাফে ধাপে কোনটি হয়?</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষ</t>
+          <t>স্পিন্ডল যন্ত্রের সৃষ্টি</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>জননকোষ</t>
+          <t>অ্যাস্টার অন্ততে পানির পরিমাণ কমে</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>সাইটোপ্লাজম</t>
+          <t>অ্যাস্টার তয় বিচ্ছুরিত হয়</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ</t>
+          <t>ক্রোমাসামে পানি শােষণ হয়</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>যৌন জনন ও জনুক্রম দেখা যায় এমন জীবে কোন ধরনের কোষ উৎপন্ন হয়?</t>
+          <t>অপত্য ক্রোমাসামগুলা মের কাজাকাছি পৌছালে কোষ বিশেষ কোন খালের পরিসমাপ্তি ঘটে</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ</t>
+          <t>গোফেজ 9</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>প্রকৃতকোষ</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষ</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>জননকোষ</t>
+          <t>অ্যানাফেজ ৪</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>কোন পদ্ধতিতে জনন মাতৃকোষের বিভাজন ঘটে?</t>
+          <t>কখন অ্যানাফেজ থাপের সমাপ্তি ঘটে</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>সেন্ট্রোমিয়ার সৃষ্টি হলে আকর্ষণ তন্তর সাথে</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>অ্যামাইটোসিস</t>
+          <t>ক্রোমাসামগুলা বিভাজিত হলে</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ ৫</t>
+          <t>কোমাসামগুলা সর্বাধিক মোটা হলে</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস</t>
+          <t>কেমোসোমগুলা মেরুর কাছাকাছি গেলে</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষে পাওয়া যায় কোনটি?</t>
+          <t>কোনটি সংযুক্ত হয়?</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>সেন্ট্রোসাম</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিড</t>
+          <t>রাইনাসাম</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>রেটিকুলাম</t>
+          <t>ক্রোমাসাম</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>রাইবোজোম</t>
+          <t>সেন্ট্রোমিয়ার</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোন জীবটিতে আদিকোষ রয়েছে।</t>
+          <t>ক্রোমাসাম থেকে পালি সি পেতে থাকে  মাইটোসিস কোষ বিভাজনের কোন ধাপে?</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>শৈবাল</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>ব্যাঙ</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>অ্যামিবা</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>ব্যাকটেরিয়া</t>
+          <t>প্রাফেজ</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>অধিকাংশ জীবকোষ কী ধরনের হয়?</t>
+          <t>কোনটিকে ইকুয়েশনাল বিভাজন বলে।</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষ</t>
+          <t>মিয়াসিস</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিডবিহীন</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়ার পাবেষ্টিত</t>
+          <t>অ্যামাইটোসিস</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>প্রকৃতকোষ</t>
+          <t>মাইটোসিস</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোন জীবটির নিউক্লিয়াস সুগঠিত?</t>
+          <t>প্রাফেজ পর্যায়ে ক্রোমোসাম অবস্থায় থাকে</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>কলেরার ব্যাকটেরিয়া</t>
+          <t>আনুভূমিক</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>ফায ভাইরাস</t>
+          <t>প্যাচানা</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>রুবিওয়ালা ভাইরাস</t>
+          <t>লম্বালম্বি</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>অ্যামিবা</t>
+          <t>কুণ্ডলিত</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>কোন পদ্ধতিতে জনন মাতৃকোষের বিভাজন</t>
+          <t>প্রাফেজ পর্যায়ে প্রতিটি ক্রোমোসাম কতটি ক্রোমাটিড উৎপন্ন করে?</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>পাঁচটি</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>ফিশন</t>
+          <t>দুইটি</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>অ্যামাইটোসিস</t>
+          <t>চারটি</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>মিয়োসিস</t>
+          <t>তিনটি</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষে ক্রোমােজোম সংখ্যা জননকোষের কত গুণ?</t>
+          <t>প্রাফেজ পর্যায়ে ক্রোমোসাম কয় ভাগে  বিভক্ত হয়।</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>অর্ধেক</t>
+          <t>দুই ভাগে</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>সমান</t>
+          <t>পাঁচ ভাগে</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>চার গুণ</t>
+          <t>চার ভাগে</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>দ্বিগুণ</t>
+          <t>তিন ভাগে</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>মাতৃ ও পিতৃ জননকোষ মিলিত হয়ে যে প্রথম কোষ গঠন করে তার নাম কী?</t>
+          <t>প্রাফেজ পর্যায়ে ক্রোমাসামগুলা কেমন থাকে?</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>আদিকোষ</t>
+          <t>খাটো ও পাতলা</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>জননকোষ</t>
+          <t>মাটা  ও চিকন</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>জনন মাতৃকোষ</t>
+          <t>খাটো ও চিকন</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>জাইগোট</t>
+          <t>খাটো  ও মাটা</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>কোষের প্রাচীর সৃষ্টির সময় যে ছিদ্র তৈরি হয় তাকে কী বলে?</t>
+          <t>প্রাফেজ পর্যায়ে নিউক্লিয়াসের আকার কেমন?</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>ভিলাই</t>
+          <t>খাটো</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>রঞ্জ</t>
+          <t>ছোট</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>কূপ</t>
+          <t>গালাকার</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>গহর</t>
+          <t>বড়</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>কোষপ্রাচীর কী সৃষ্টির মাধ্যমে পার্শ্ববর্তী কোষের সাথে যাগাযাগ রক্ষা করে?</t>
+          <t>প্রাফেজ মাইটোসিসের কততম পর্যায়</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>কোষর</t>
+          <t>৬</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>মাইক্রোভিলাই</t>
+          <t>৪</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>প্লাজমাডেজমাটা</t>
+          <t>৫</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>প্লাজমালেমা</t>
+          <t>৩</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>ব্যাকটেরিয়ার কোষপ্রাচীর কী দ্বারা গঠিত?</t>
+          <t>মাইটোসিস কোষ বিভাজনের শেষ পর্যায় কোনটি?</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিন  লিগনিন</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিন  লিপিড</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>কাইটিন সুবেরিন</t>
+          <t>ধাফেজ</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>চর্বি  গ্লাইকোজেন</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>কোষের প্রাটোপ্লাজমের বাইরের পর্দাকে কী বলে?</t>
+          <t>মাইটোসিস কিয়াসের বিভাজনের প্রথম ধাপ কোনটি?</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>প্লাজমাডেজমাটা</t>
+          <t>মেটাফে</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>প্লাজমাপের</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>জাইগোট</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>প্লাজমালেমা</t>
+          <t>গাফে</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>প্লাজমালেমার স্তর কয়টি?</t>
+          <t>পিঞ্জিয়াস বিভাজনের ক্ষের কোলকা</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>একটি</t>
+          <t>অ্যানাফেজ → টেলাফেজ মেটাফেজ প্রাফে</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>চারটি</t>
+          <t>মেটাফে অ্যানাফেক → টেলাফেজ ধাফেজ</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>তিনটি</t>
+          <t>টেলাফে → অ্যানাফে → মেটাফেজ → প্রাফেজ</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>দুইটি</t>
+          <t>লাফেজ → প্রামেটাফে → মেটাফেজ→ আনাফে টেলােফেজ</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>কোষঝিল্পি প্রধানত কী দ্বারা গঠিত?</t>
+          <t>নিউক্লিয়াসের বিভাজন কয়টি সম্পন্ন হয়?</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>লিপিড ও পেকটিন</t>
+          <t>দুইটি</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>কাইটিন ও প্রাটিন</t>
+          <t>তিনটি</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>বেরিন ও কাইটিন।</t>
+          <t>চারটি</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>লিপিড ও প্রাটিন</t>
+          <t>পাঁচটি</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>কোষের ভিতরের থকথকে, অশ্বচ্ছ জেলির ন্যায় কাকে কী বলে?</t>
+          <t>নিচের কোনটি মাইটোসিস কোষ বিভাজনের পর্যায়?</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>এন্ডোপ্লাজম</t>
+          <t>দেহকোষীয় বিভাজন</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>সাইটোপ্লাজম</t>
+          <t>নিউক্লিওলাসের বিভাজন</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমোজোম</t>
+          <t>ক্রোমাসাম বিভাজন</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>প্রােটোপ্লাজম</t>
+          <t>নিউক্লিয়াসের বিভাজন</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>সাইটোপ্লাজম থেকে কেম্বিকা সরিয়ে নিলে যা থাকে তা কী?</t>
+          <t>মাইটোসিস কোষ বিভাজন প্রক্রিয়ায় ক্রোমোসাম কতবার বিভক্ত হয়?</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিওপ্লাজম</t>
+          <t>চার</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>এন্ডোপ্লাজম</t>
+          <t>দুই</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমোজোম</t>
+          <t>তিন</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>সাইটোপ্লাজম</t>
+          <t>এক</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি ঝিল্লিযুক্ত সাইটোপ্লাজমীয়। | অজাণু?</t>
+          <t>নিউক্লিয়াস ও ক্রোমাসাম একবার বিভাজিত হয় কোথায়?</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>কোষকঙ্কাল</t>
+          <t>জননকোষে</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>রাইবোজোম</t>
+          <t>অপত্যকোষে</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোজোম</t>
+          <t>জায়ুকোষে</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>লাইসোজোম</t>
+          <t>দেহকোষ</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকক্রিয়া কে আবিষ্কার করেন?</t>
+          <t>কোন কোষ বিভাজনে নিউক্লিয়াস ও ক্রোমাসাম একবার বিভাজিত হয়।</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>রবার্ট হুক</t>
+          <t>মিয়াসিস</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>রবার্ট ব্রাউন</t>
+          <t>অপত্য কোষ</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>ওয়াটসন</t>
+          <t>অ্যামাইটোসিস</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>বেনডা</t>
+          <t>মাইটোসিস</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>কত সালে মাইটোকন্ড্রিয়া আবিষ্কৃত হয়?</t>
+          <t>অপত্য কোষ একই বৈশিষ্ট্যসল্প হয় কোন কোষ বিভাজনের ফলে?</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>1895 সালে</t>
+          <t>মিয়াসিস</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1896 সালে</t>
+          <t>দেহকোষ</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1897 সালে</t>
+          <t>জননকোষ</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1898 সালে</t>
+          <t>মাইটোসিস</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>কোষের পাওয়ার হাউজের ঝিল্লির স্তর কয়টি?</t>
+          <t>জীবের চারিত্রিক বৈশিষ্ট্য বহন করে কোনটি?</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>একটি</t>
+          <t>নিউক্লিয়াস</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>চারটি</t>
+          <t>মাইটোকক্রিয়া</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>তিনটি</t>
+          <t>কোষগহর</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>দুটি</t>
+          <t>ক্রোমাসাম</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়ার ভেতরের স্তরের ভাঁজকে কী বলে?</t>
+          <t>নিস্ত্রে কোন পর্যায়ে কোষটি দুগগ হয়ে যায়।</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>ভিলাই</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>ম্যাট্রিক্স</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজোম</t>
+          <t>প্রামেটাফেজ</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>ক্রিস্টি</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়ার ক্রিস্টির গায়ে যে বৃন্তযুক্ত গােলাকার বন্ধ থাকে তাকে কী বলে?</t>
+          <t>এন্ডোপ্লাজমিক আলিকার   অংশগুলামিলে কী তৈরি হয়।</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>ভিলাই</t>
+          <t>অপত্য কোষ</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>স্ট্রোমা</t>
+          <t>জননকোষ</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>গ্রানা</t>
+          <t>দেহকোষ।</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজোম</t>
+          <t>কোষপ্লেট</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়নের ভেতরে কী থাকে?</t>
+          <t>নিচের কোন পর্যায়ে ভয়ংক দৃশ্য হয়ে যায়</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>স্ট্রোমা</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>ভেসিকল</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>থানা</t>
+          <t>খেযেটফেন</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>ম্যাট্রিক্স</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়ার প্রধান কাজ কী?</t>
+          <t>টেলাকে পর্যায়ে নেমােসােমের আকার ফেনী</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>প্রজননে সাহায্য করা</t>
+          <t>পাতলা</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>কোষ বিভাজনে সাহায্য করা</t>
+          <t>মাটা ও লম্বা</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>খাদ্য সঞ্চয় করা</t>
+          <t>মোটা ও পাতলা</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>শ্বসনে সাহায্য করা।</t>
+          <t>সরু ও লম্বা</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>শ্বসনের প্রধান ধাপ কয়টি?</t>
+          <t>যেটাকে ও অ্যানারে টেলােকের ৪ শাযোফে দি কোন পর্যায়ে একেজের বলেনি অনেটে</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>একটি</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>চারটি</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>তিনটি</t>
+          <t>প্রামেটাফেজ</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>দুইটি</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>শ্বসনের ক্রেস চক্র কোষের কোন অঙ্গাণুতে সম্পন্ন হয়?</t>
+          <t>অ্যানাফে পর্যায়ে ক্রোমােসোমগুলাের আকার কেমন?</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>রাইবোজোম</t>
+          <t>V,LJঅকার</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>গলজি বস্তু</t>
+          <t>L৩N আকার</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিড</t>
+          <t>M, N ও আকার</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>V,LM আকার</t>
         </is>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>কোষের পাওয়ার হাউস কোনটি?</t>
+          <t>আনাফেইটাসিসের কততম পর্যায়</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিড</t>
+          <t>১ম</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাজোম</t>
+          <t>৩য়</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>গলজি বস্তু</t>
+          <t>২য়</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>৪র্থ</t>
         </is>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>কোনটিতে মাইটোকন্ড্রিয়া অনুপস্থিত?</t>
+          <t>কোষ বিভাজনের কোন পর্যায়ে বির্ক</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদকোষে</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>প্রাণীকোষে</t>
+          <t>প্রামেটাফেজ</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>সুকেন্দ্রিক কোষে</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>প্রাককেন্দ্রিক কোষে</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিকত ধরনের হতে পারে?</t>
+          <t>কোন পর্যায়ে নিঞ্জয়ার মেমকে ও বিলাসের সবিটি</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>এক</t>
+          <t>টেলাফেন</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>দুই</t>
+          <t>প্রামেটাফেজ</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>চার</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>তিন</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিভের কোন অংশ সূর্যালোক করে রাসায়নিক বন্ধ,ক্রিস্টি ও থানা</t>
+          <t>কোন পর্যায়ে ক্রোমাসামের আকর্ষণ কমে যায়।</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>ক্রিস্টি</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>ল্যামে</t>
+          <t>প্রামেটাফেজ</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>স্ট্রোমা</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>গ্রানা</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিজের কোন অংশ মাধ্যমে কার্বন ডাইঅকাই, সহযােগে শর্করা তৈরি করে?</t>
+          <t>কোন পর্যায়ে ক্রোমাসামগুলো</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>ক্রিস্টি</t>
+          <t>খাটো ও মাটা হয়</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>ল্যামেলি</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>গ্রানা</t>
+          <t>অ্যানাফেজ</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>স্ট্রোমা</t>
+          <t>টেলাফেজ</t>
         </is>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>লিউকোপ্লাস্টের বর্ণ কম</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>সবুজ</t>
+          <t>জীবদেহে ক্ষতস্থান পূরণ করতে কে ভূমিকা রাখে?</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>বর্ণ হীন</t>
+          <t>মিয়াসিস</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>লাল</t>
+          <t>মাইটোসিস</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>হ্লুদ</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>আমিষ সংশ্লেষ করে কোষের কোন অঙ্গানু ?</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>লাইসাজোম</t>
+          <t>ক্যাপার কেনো হয়?</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাজে</t>
+          <t>স্বাভাবিক কোষ বিভাজনের ফলে</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোজোম</t>
+          <t>কোষ বিভাজন না হলে</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>রাইবাজে</t>
+          <t>অস্বাভাবিক কোষ বিভাজনের ফলে</t>
         </is>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিনের পলিপেপটাই চেইন কোথায় হয়?</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোজোম</t>
+          <t>অনিয়জিত মাইটোসিস সৃষ্টি করে</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>লাইসাজে</t>
+          <t>কালার</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাতে</t>
+          <t>আলসার</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>রাইবাজোমে</t>
+          <t>ডায়াবেটিস</t>
         </is>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>কোষে উৎপালিত পলসমূহের পথ কোনটি?</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>গলজি বস্তু</t>
+          <t>মাইটোসিস কোষ বিগন ঘটে</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>রাইবাজাম</t>
+          <t>উক্তিকোষে ও প্রাণিকোষে</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>উক্তি ও প্রাণীর দেহকোষে</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>এন্ডাপ্লাজমিক রেটিকুলাম</t>
+          <t>উক্তি ও প্রাণীর জননকোষে।</t>
         </is>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>কোষ বিভাজনের সময় অ্যাস্টার উৎপাদন করে কোনটি?</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>লাইসাজোম</t>
+          <t>কোন কোষ হতে জন শুরু করে</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাজোম</t>
+          <t>জাইগাট</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>গলজি বস্তু</t>
+          <t>নিষেক</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোজোম</t>
+          <t>হ্যাপ্লয়েড</t>
         </is>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>জীবকোষকে জীবাণুর হাত থেকে বৃক্ষ করে কোনটি?</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাজোম</t>
+          <t>হশতের শক স্থিতিশীগৰায় থাকে কোন বিজ্ঞানের মাধ্যমে</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোজোম</t>
+          <t>অ্যামাইটোসিস</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>রাইবাজোম</t>
+          <t>মাইটোসিস</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>লাইসাজোম</t>
+          <t>মিয়াসিস</t>
         </is>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি বিল্লিবিহীন সাইটে  অঙ্গাণু?</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>ইলেসিসের ফলে কোন কোষী জীবের ও এককোষী জীবের</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>গলজি বস্তু</t>
+          <t>এককোষী</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>লাইসাজোম</t>
+          <t>বহুকোষী</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>রাইবাজোম</t>
+          <t>ব্যাকটেরিয়া</t>
         </is>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>কোষের সকল জৈবনিক ক্রিয়া-বিজিন নিয়ন্ত্রিত হয় কোনটি দ্বারা?</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>ক্রোমাসাম নৃত্য কোষ বিভাজনের কেন দশায় দেখা যায়</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>গলজি বস্তু</t>
+          <t>অ্যানাফে</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>রাইবাজোম</t>
+          <t>প্রামেটাফেজ</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াস</t>
+          <t>প্রাফেজ</t>
         </is>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>সিভকোষ ও লােহিত কণিকায় কোন থাকে না?</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>কোন ধাপে নিউক্লিয়াসের আকার ভুয়া</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>রাইবাজোম</t>
+          <t>প্রাফেল</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াস</t>
+          <t>মেটাফেজ</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>সাইটোপ্লাজম</t>
+          <t>অ্যানাফে</t>
         </is>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াস ঝিল্লি কয় স্তর বিশিষ্ট</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>এক</t>
+          <t>মিয়াসিস পদ্ধতিতে মাতৃ-নিউক্লিয়াসের | বিভাজন কৰাৰ ঘটা</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>চার</t>
+          <t>এক বার</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>তিন</t>
+          <t>দুই বার</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>দুই</t>
+          <t>তিন বার</t>
         </is>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়ার ঝিল্লি কী দিয়ে গঠিত?</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিন ও লিগনিন</t>
+          <t>বংশপরম্পরায় জীবের ক্রোমোসাম সংখ্যা নির্দিষ্ট থাকে কোন বিজনে?</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>লিপিড় ও কাইটিন</t>
+          <t>মাইটোসিস</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিন ও লিপিড়</t>
+          <t>দেহকোষ</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>কাইটিন ও সুবেরিন</t>
+          <t>অ্যামাইটোসিস</t>
         </is>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াসের ভেতরে জেলির মতাে যে কন্তু ৰা রস থাকে তাকে কী বলে?</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>এন্ডোপ্লাজম</t>
+          <t>মিয়াসিস বিভাজনের এক চক্রে | নিউক্লিয়াস কৰাৱ বিভাজিত হয়?</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>প্রােটোপ্লাজম</t>
+          <t>একবার</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিওপ্লাজম</t>
+          <t>দুইবার</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>সাইটোপ্লাজম</t>
+          <t>তিনবার</t>
         </is>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিওপ্লাজমের মধ্যে ক্রোমােজোমের সাথে লাগানাে গােলাকার বস্তুকে কী বলে?</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়ার রন্ধ্র</t>
+          <t>মিয়াসিস বিভাজনে প্রথমবারে অর্ধেক হয় ও দ্বিগুণ হয়।</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাটিন</t>
+          <t>তিনগুণ হয়</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিওলাস</t>
+          <t>চারগুণ হয়</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোজোম</t>
+          <t>পাঁচ গুন হয়</t>
         </is>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>হাঁটাচলা ও নড়াচড়ায় সাহায্য করে কোন কোষ ?</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>যকৃৎকোষ</t>
+          <t>যিলাসিস বিভাজনে একটি মাতৃকোষ থেকে কতটি অপত্য কোষ পাওয়া যায়।</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>অায়ুকোষ</t>
+          <t>দুইটি</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>রক্ত কোষ</t>
+          <t>তিনটি</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>পেশিকোষ</t>
+          <t>চারটি</t>
         </is>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>কোনটি দেহের রােগ প্রতিরােধ ক্ষমতা জন্মায়?</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>লােহিতকণিকা</t>
+          <t>মিয়াসিস পদ্ধতিতে মাতৃকোষে কে</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>লসিকা</t>
+          <t>ক্ষণ পঠন ও স্বপের বর্ধন</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>অনুচক্রিকা</t>
+          <t>শুক্রাণু, ডিম্বাণু</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>শ্বেতকণিকা</t>
+          <t>পরাগ</t>
         </is>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>দেহের কোনাে অংশ কেটে গেলে রক্তক্ষরণ হয়। এই ক্ষরণ বন্ধ করে কোনটি?</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>লােহিত কণিকা</t>
+          <t>কোষের আকার আয়তন সিরাসিস কোষ বিভাজনে ক্রোমাসাম সংখ্যা মাতৃকোষে</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>শ্বেতকণিকা</t>
+          <t>সমান</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>লসিকা</t>
+          <t>দ্বিগুণ</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>অনুচক্রিকা</t>
+          <t>চারপুণ</t>
         </is>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>দেহের আকার, গঠন ও অস্থির বৃদ্ধি করে কোন কোষ?</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>রক্তকোষ</t>
+          <t>মিয়োসিসের পুরুত্ব কি?</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>পেশিকোষ।</t>
+          <t>জননকোষ সৃষ্টি</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>স্নায়ুকোষ</t>
+          <t>দেহ কোষ সৃষ্টি</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>অস্থিকোষ</t>
+          <t>প্রাণীর দৈহিক বৃদ্ধি</t>
         </is>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>আকার, আকৃতি ও গঠনে কোষগুলাে একই হলে ঐ স্থায়ী টিস্যুকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>ক্ষরণকারী টিস্যু</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>জটিল টিস্যু।</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>জাইলেম টিস্যু</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>সরল টিস্যু</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr"/>
+      <c r="C63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>বিভাজনে অক্ষম টিস্যুগুলাে কত প্রকার?</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>ছয়</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="2" t="n"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>টিস্যু কয় ধরনের?</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
+      <c r="C65" s="2" t="n"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>কোষের প্রকৃতির ওপর ভিত্তি করে সরল টিস্যু কত প্রকার?</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>ছয়</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
+      <c r="C66" s="2" t="n"/>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="2" t="n"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>প্যারেনকাইমা কোষে যখন ক্লোরােপ্লাস্ট থাকে তখন এদেরকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লেরেনকাইমা</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>প্যারেনকাইমা।</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>কোলেনকাইমা</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>ক্লোরেনকাইমা</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
+      <c r="C67" s="2" t="n"/>
+      <c r="D67" s="2" t="n"/>
+      <c r="E67" s="2" t="n"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>প্যারেনকাইমা কোষগুলাে বায়ুকুইরির পার্শ্বে অবস্থান করলে তাকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>কোলেনকাইমা</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>ক্লোরেনকাইমা।</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লেরেনকাইমা</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>অ্যারেনকাইমা</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="2" t="n"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>কোলেনকাইমা টিস্যু কোথায় দেখা যায়? .</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>পাতার শীর্ষে</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>মূলের শীর্ষে</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>কাণ্ডের শিরায়</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>পাতার শিরায়</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
+      <c r="B69" s="2" t="n"/>
+      <c r="C69" s="2" t="n"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>কোলেনকাইমা কোষের প্রাচীরে কী জমা হয়ে পুরু হয়?</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>লিগনিন ও প্রাটিন</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>পেকটিন ও প্রাটিন</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>লিগনিন ও সেলুলাজ</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>সেলুলাজ ও পেকটিন</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>প্রাটোপ্লাজমবিহীন, লিগনিনযুক্ত ও যান্ত্রিক কাজের জন্য নির্দিষ্ট কোষ দ্বারা গঠিত টিস্যু কোনটি?</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>প্যারেনকাইমা</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>কোলেনকাইমা</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>অ্যারেনকাইমা</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>প্লেরেনকাইমা</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
+      <c r="C71" s="2" t="n"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>ক্লেরেনকাইমা কোষগুলাে কয় ধরনের?</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
+      <c r="C72" s="2" t="n"/>
+      <c r="D72" s="2" t="n"/>
+      <c r="E72" s="2" t="n"/>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>ফাইবার এর গায়ে যে স্ট্রি থাকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>পাের</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>বান্ডল সিথ</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>পেরিসাইকেল</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>কূপ</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
+      <c r="C73" s="2" t="n"/>
+      <c r="D73" s="2" t="n"/>
+      <c r="E73" s="2" t="n"/>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>ক্লেরাইডকে কী বলা হয়?</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>পেরিসাইকেল</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>কর্টেক্স</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>সেল</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>স্টোন</t>
-        </is>
-      </c>
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="2" t="n"/>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="2" t="n"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>সিভনল ফ্লুরাইডের গৌণপ্রাচীরে কী থাকে?</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>প্রাটিন</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>মাম</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>কাইটিন</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>লিগনিন</t>
-        </is>
-      </c>
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="2" t="n"/>
+      <c r="C75" s="2" t="n"/>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="2" t="n"/>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>নগ্নবীজী ও দ্বিবীজপত্রী উদ্ভিদের কর্টেক্স, ফল ও বীতে কোন টিস্যু দেখা যায়?</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>ফাইবার</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>জাইলেম</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লোয়েম</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লুরাইড</t>
-        </is>
-      </c>
+      <c r="A76" s="2" t="n"/>
+      <c r="B76" s="2" t="n"/>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="2" t="n"/>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>বিভিন্ন প্রকার কোষ নিয়ে যে স্থায়ী টিস্যু গঠিত হয় তাকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>কোলেনকাইমা টিস্যু</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>প্লেরেনকাইমা টিস্যু</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>ফাইবার</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>জটিল টিস্যু</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
+      <c r="C77" s="2" t="n"/>
+      <c r="D77" s="2" t="n"/>
+      <c r="E77" s="2" t="n"/>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>জটিল টিস্যুকে কী বলা হয়?</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>দৃঢ়তা</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>সঞ্চয়ী টিস্যু</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>পরিবহন টিস্যু</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>দানকারী টিস্যু</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
+      <c r="C78" s="2" t="n"/>
+      <c r="D78" s="2" t="n"/>
+      <c r="E78" s="2" t="n"/>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>উৎপাদনকারী টিস্যু জটিল টিস্যু কয় প্রকার?</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
+      <c r="C79" s="2" t="n"/>
+      <c r="D79" s="2" t="n"/>
+      <c r="E79" s="2" t="n"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>জাইলেম টিস্যু কত প্রকার?</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
+      <c r="C80" s="2" t="n"/>
+      <c r="D80" s="2" t="n"/>
+      <c r="E80" s="2" t="n"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>প্রাথমিক জাইলেম কোথা হতে উৎপন্ন হয়?</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>পেরিসাইকেল</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লেরেনকাইমা</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>বান্ডল সিথ</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>প্রাক্যাম্বিয়াম</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
+      <c r="C81" s="2" t="n"/>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="2" t="n"/>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>প্রাথমিক জাইলেম কয় ধরনের?</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
+      <c r="C82" s="2" t="n"/>
+      <c r="D82" s="2" t="n"/>
+      <c r="E82" s="2" t="n"/>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>ট্রাকিড কোষের প্রাচীরে কী জমা হয়?</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>পেকটিন</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>কাইটিন</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>সুবেরিন</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>লিগনিন</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
+      <c r="C83" s="2" t="n"/>
+      <c r="D83" s="2" t="n"/>
+      <c r="E83" s="2" t="n"/>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>কোন কোষগুলাে প্রাথমিক অবস্থায় প্রােটোপ্লাজমপূর্ণ কিন্তু পরিণত বয়সে মৃত?</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>ট্রাকিড</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লোয়েম</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লুেরাইড</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>ভেসেল</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n"/>
+      <c r="E84" s="2" t="n"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>গুপ্তবীজী উদ্ভিদের সকল অঙ্গে কোনগুলাে দেখা যায়?</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>ফাইবার</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>ক্লেরাইড</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>ট্রাকিড</t>
-        </is>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>ভেসেল</t>
-        </is>
-      </c>
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="2" t="n"/>
+      <c r="C85" s="2" t="n"/>
+      <c r="D85" s="2" t="n"/>
+      <c r="E85" s="2" t="n"/>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>কোন উদ্ভিদে প্রাথমিক পর্যায়ের ছেলে থাকে</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>খুট</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>সেবদক</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>পাইন</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>নেটাম</t>
-        </is>
-      </c>
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>আইলেমে অবস্থিত প্যারেনকাইমা কোষকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>জাইলেম ফাইবার</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>সিভনল</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>সঙ্গীকোষ</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>প্যারেনকাইমা</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
+      <c r="C87" s="2" t="n"/>
+      <c r="D87" s="2" t="n"/>
+      <c r="E87" s="2" t="n"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>জাইলেমে অবস্থিত স্লেরেনকাইমা কোষকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>প্যারেনকাইমা</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>সঙ্গীকোষ</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>সিভনল</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>জাইলেম ফাইবার</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
+      <c r="C88" s="2" t="n"/>
+      <c r="D88" s="2" t="n"/>
+      <c r="E88" s="2" t="n"/>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লোয়েম টিস্যর কাজ কী?</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>পাতায় খাদ্য সঞ্চয়</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>মূল দিয়ে পানি শােষণ</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>মূল থেকে কাঁচামাল পাতায় পরিবহন</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>পাতায় প্রস্তুত খান্য অন্যান্য অঙ্গে পরিবহন</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
+      <c r="C89" s="2" t="n"/>
+      <c r="D89" s="2" t="n"/>
+      <c r="E89" s="2" t="n"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>সিনলের প্রাচীর কী দিয়ে তৈরি?</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>সুবেরিন</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>কাইটিন</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr">
-        <is>
-          <t>পেকটিন</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>লিগনিন</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+      <c r="E90" s="2" t="n"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>নিচের কোনটিতে সঙ্গীকোষ অনুপস্থিত</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>মরিচ গাছ</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>বটগাছ</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>আমগাছ</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>ফার্ন</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
+      <c r="C91" s="2" t="n"/>
+      <c r="D91" s="2" t="n"/>
+      <c r="E91" s="2" t="n"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>নিচের কোনটিকে বাস্ট ফাইবার বলে?</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>বাঁশ</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>নারকেল</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>বেত</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>পাটের আঁশ</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
+      <c r="C92" s="2" t="n"/>
+      <c r="D92" s="2" t="n"/>
+      <c r="E92" s="2" t="n"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>প্রাণিটিস্যু কয় প্রকার?</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
+      <c r="C93" s="2" t="n"/>
+      <c r="D93" s="2" t="n"/>
+      <c r="E93" s="2" t="n"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>টিস্যুর গঠন ও কাজের একক কোনটি?</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>প্রাটোপ্লাজম</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>অঙ্গ</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>সাইটোপ্লাজম</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>কোষ</t>
-        </is>
-      </c>
+      <c r="A94" s="2" t="n"/>
+      <c r="B94" s="2" t="n"/>
+      <c r="C94" s="2" t="n"/>
+      <c r="D94" s="2" t="n"/>
+      <c r="E94" s="2" t="n"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>একই কাজ সম্পাদনকারী একই জ্বণীয় কোষ থেকে উৎপন্ন কোষগুলাে নিয়ে আলােচনা করে কোনটি?</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>মরফোলজি</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>সাইটোলজি</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>জেনেটিক্স</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>হিস্টোলজি</t>
-        </is>
-      </c>
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
+      <c r="C95" s="2" t="n"/>
+      <c r="D95" s="2" t="n"/>
+      <c r="E95" s="2" t="n"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>কোষের আকৃতি, অবস্থান ও কাজের ভিত্তিতে আবরণী টিস্যু কয় ধরনের?</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
+      <c r="C96" s="2" t="n"/>
+      <c r="D96" s="2" t="n"/>
+      <c r="E96" s="2" t="n"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>বৃকের বােম্যানস ক্যাপসুলের প্রাচীর কোন ধরনের টিস্য?</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>কিউবয়ডাল আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>কলামনার আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>স্ট্রাটিফাইড আবরণী টিস্য</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>স্কোয়ামাস আবরণী টিস্যু।</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
+      <c r="C97" s="2" t="n"/>
+      <c r="D97" s="2" t="n"/>
+      <c r="E97" s="2" t="n"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>বৃক্তের সংগ্রাহক নালিকার টিস্যু কোন ধরনের</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>স্কোয়ামাস আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>কিউবয়ড়াল আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>স্ট্রাটিফাইড আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>কলামনার আবরণী টিস্যু</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n"/>
+      <c r="E98" s="2" t="n"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>প্রাণীদের অস্ত্রের অন্তর্গীরের কোষগুলােতে কোন ধরনের টিস্যু দেখা যায়?</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>তস্কোয়ামাস আবরণী টিস্য</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>কিউবয়জাল আবরণী টিস্য</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr">
-        <is>
-          <t>স্থাটিফাইড আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>কলামনার আবরণী</t>
-        </is>
-      </c>
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
+      <c r="C99" s="2" t="n"/>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="2" t="n"/>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>এশীদেহে ভিত্তিপর্ণার উপর সজ্জিত কোষগুলোর সংখ্যার ভিত্তিতে এপিথেলিয়াল টিস্যু</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n"/>
+      <c r="E100" s="2" t="n"/>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>মেসেঞ্জী প্রাণীদের ত্বকে কোন ধরনের টিস্যু থাকো।</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>কলামনার আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>সাধারণ আবরণী টি</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr">
-        <is>
-          <t>সিউডাে টিফাইড আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>টিফাইড আবরণী টিস্যু</t>
-        </is>
-      </c>
+      <c r="A101" s="2" t="n"/>
+      <c r="B101" s="2" t="n"/>
+      <c r="C101" s="2" t="n"/>
+      <c r="D101" s="2" t="n"/>
+      <c r="E101" s="2" t="n"/>
     </row>
     <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>ট্রাকিয়ার টিস্যগুলাে কোন ধরনের?</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>সাধারণ আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>কিউয়াল আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr">
-        <is>
-          <t>টিফাইড আবরণী টিস্যু</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>সিউডাে স্ট্রাটিফাইড আবরণী টিসু</t>
-        </is>
-      </c>
+      <c r="A102" s="2" t="n"/>
+      <c r="B102" s="2" t="n"/>
+      <c r="C102" s="2" t="n"/>
+      <c r="D102" s="2" t="n"/>
+      <c r="E102" s="2" t="n"/>
     </row>
     <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>মেরুদণ্ডী প্রাণীদের শ্বাসনালির প্রাচীরের আবরণী টিস্যু কী ধরনের?</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>সাধারণ</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লাজেলাযুক্ত</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="inlineStr">
-        <is>
-          <t>ঋণপদযুক্ত</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>সিলিয়াযুক্ত</t>
-        </is>
-      </c>
+      <c r="A103" s="2" t="n"/>
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="2" t="n"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="2" t="n"/>
     </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>হাইড্রার এভােডার্মের আবরণী টিস্যুগুলাে কী ধরনের?</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>সিলিয়াযুক্ত</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>সাধারণ</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>ক্ষণপদযুক্ত</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লাজেলাযুক্ত</t>
-        </is>
-      </c>
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="2" t="n"/>
+      <c r="C104" s="2" t="n"/>
+      <c r="D104" s="2" t="n"/>
+      <c r="E104" s="2" t="n"/>
     </row>
     <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>রক্তের তরল অংশৈ কত ভাগ পানি থাকে?</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>84-86</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>৪6-২৪%</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>88-90%</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>9-92%</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
+      <c r="C105" s="2" t="n"/>
+      <c r="D105" s="2" t="n"/>
+      <c r="E105" s="2" t="n"/>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>রক্সে ঈষৎ হলুদাভ রঙের তরল অংশে কত ভাগ জৈব ও অজৈব পদার্থ থাকে?</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>5-6%</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>6-7%</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>৩7-৪%</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>৪-9%</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
+      <c r="C106" s="2" t="n"/>
+      <c r="D106" s="2" t="n"/>
+      <c r="E106" s="2" t="n"/>
     </row>
     <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>দেহের অভ্যন্তরীণ কাঠামো গঠন করে কোন ধরনের  কলা?</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>ফাইব্রাস</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>নন ফাইব্রাস</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>নন ফাইব্রাস</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>ফাইব্রাস</t>
-        </is>
-      </c>
+      <c r="A107" s="2" t="n"/>
+      <c r="B107" s="2" t="n"/>
+      <c r="C107" s="2" t="n"/>
+      <c r="D107" s="2" t="n"/>
+      <c r="E107" s="2" t="n"/>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>রক্তকণিকা কয় ধরনের?</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
+      <c r="C108" s="2" t="n"/>
+      <c r="D108" s="2" t="n"/>
+      <c r="E108" s="2" t="n"/>
     </row>
     <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>সোহিত কণিকা লাল হয় কোনটির জন্য?</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>ফিটকোজেছিন</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>প্লাজমা</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>প্রেম্বিন</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>হিমােগ্লোবিন</t>
-        </is>
-      </c>
+      <c r="A109" s="2" t="n"/>
+      <c r="B109" s="2" t="n"/>
+      <c r="C109" s="2" t="n"/>
+      <c r="D109" s="2" t="n"/>
+      <c r="E109" s="2" t="n"/>
     </row>
     <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>কোনটি দেহের আত্মরক্ষায় অংশ নেয়?</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>লোহিতকণিকা</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>রক্তরস</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>অনুচক্রিকা</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>শ্বেতকণিকা</t>
-        </is>
-      </c>
+      <c r="A110" s="2" t="n"/>
+      <c r="B110" s="2" t="n"/>
+      <c r="C110" s="2" t="n"/>
+      <c r="D110" s="2" t="n"/>
+      <c r="E110" s="2" t="n"/>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>রক্ত জমাট বাঁধায় অংশ নেয় কোনটি?</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>লােহিতকণিকা</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>শ্বেতকণিকা</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>রক্তরস</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>অনুচক্রিকা</t>
-        </is>
-      </c>
+      <c r="A111" s="2" t="n"/>
+      <c r="B111" s="2" t="n"/>
+      <c r="C111" s="2" t="n"/>
+      <c r="D111" s="2" t="n"/>
+      <c r="E111" s="2" t="n"/>
     </row>
     <row r="112" ht="15" customHeight="1">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>এশীয় মেসােডার্ম থেকে তৈরি সংকোচন-এসারণশীল টিস্যুকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>আবরণী কলা</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>যােজক কলা</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>অায়ুকলা</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>পেশি কলা</t>
-        </is>
-      </c>
+      <c r="A112" s="2" t="n"/>
+      <c r="B112" s="2" t="n"/>
+      <c r="C112" s="2" t="n"/>
+      <c r="D112" s="2" t="n"/>
+      <c r="E112" s="2" t="n"/>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>অবস্থান, গঠন ও কাজের খিঝিতে পেশি টিস্যু কয় ধরনের</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
+      <c r="C113" s="2" t="n"/>
+      <c r="D113" s="2" t="n"/>
+      <c r="E113" s="2" t="n"/>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>অনৈতিক পেশিগুলাের আকৃতি কিরূপ?</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>ডিম্বাকৃতির</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>গােলাকৃতির</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>লম্বাকৃতির</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>মাকু আকৃতির</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
+      <c r="C114" s="2" t="n"/>
+      <c r="D114" s="2" t="n"/>
+      <c r="E114" s="2" t="n"/>
     </row>
     <row r="115" ht="15" customHeight="1">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>ইন্টার্যালটেড ডিস্ক কোথায় পাওয়া যায়?</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>ঐচ্ছিক পেশিকোষে</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr">
-        <is>
-          <t>অনৈচ্ছিক পেশিকোষে</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t>স্নায়ুকোষে</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>হৃদপেশি কোষে</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
+      <c r="C115" s="2" t="n"/>
+      <c r="D115" s="2" t="n"/>
+      <c r="E115" s="2" t="n"/>
     </row>
     <row r="116" ht="15" customHeight="1">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>একটি আদর্শ নিউরনের কয়টি অংশ?</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
+      <c r="A116" s="2" t="n"/>
+      <c r="B116" s="2" t="n"/>
+      <c r="C116" s="2" t="n"/>
+      <c r="D116" s="2" t="n"/>
+      <c r="E116" s="2" t="n"/>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>নিচের কোনটি অনুপস্থিত বলে নিউরন বিভাজিত হয় না?</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>মাইটোকন্ড্রিয়া</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>গলজি বস্তু</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>রাইবােসােম</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>সেন্ট্রিওল</t>
-        </is>
-      </c>
+      <c r="A117" s="2" t="n"/>
+      <c r="B117" s="2" t="n"/>
+      <c r="C117" s="2" t="n"/>
+      <c r="D117" s="2" t="n"/>
+      <c r="E117" s="2" t="n"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>একটি নিউরনে কয়টি অ্যাক্সন থাকে?</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>দুটি।</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>একটি</t>
-        </is>
-      </c>
+      <c r="A118" s="2" t="n"/>
+      <c r="B118" s="2" t="n"/>
+      <c r="C118" s="2" t="n"/>
+      <c r="D118" s="2" t="n"/>
+      <c r="E118" s="2" t="n"/>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>পর পর দুটো নিউরন যে আয়ুসন্ধি গঠন। করে তাকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>জয়েন্ট</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>ক্লিভেজ</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>পোল</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>সিনাপস</t>
-        </is>
-      </c>
+      <c r="A119" s="2" t="n"/>
+      <c r="B119" s="2" t="n"/>
+      <c r="C119" s="2" t="n"/>
+      <c r="D119" s="2" t="n"/>
+      <c r="E119" s="2" t="n"/>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>নিউরন থেকে নিউরনে উদ্দীপনা বাহিত হতে কোনটি অপরিহার্য?</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>অ্যাক্সন</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>কোষদেহ</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>ডেনড্রন</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>সিনাপস</t>
-        </is>
-      </c>
+      <c r="A120" s="2" t="n"/>
+      <c r="B120" s="2" t="n"/>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="2" t="n"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>মেরুদণ্ডী প্রাণীদের অন্ত্রে কোন ধরনের আবরণী টিস্যু পাওয়া যায়?</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>সিলিয়াযুক্ত</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লাজেলাযুক্ত</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>সাধারণ গ্রপ</t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>ক্ষণপদযুক্ত</t>
-        </is>
-      </c>
+      <c r="A121" s="2" t="n"/>
+      <c r="B121" s="2" t="n"/>
+      <c r="C121" s="2" t="n"/>
+      <c r="D121" s="2" t="n"/>
+      <c r="E121" s="2" t="n"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>কোন ধরনের আবরণী টিস্যু থেকে শুক্রাণু ও ডিম্বাণু তৈরি হয়?</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>সিলিয়াযুক্ত</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>ফ্লাজেলাযুক্ত</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>ঋণপদযুক্ত</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>জনন কোষের</t>
-        </is>
-      </c>
+      <c r="A122" s="2" t="n"/>
+      <c r="B122" s="2" t="n"/>
+      <c r="C122" s="2" t="n"/>
+      <c r="D122" s="2" t="n"/>
+      <c r="E122" s="2" t="n"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>কানেকটিভ টিস্যু গঠন ও কাজের ভিত্তিতে কয় প্রকার?</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>তিন।</t>
-        </is>
-      </c>
+      <c r="A123" s="2" t="n"/>
+      <c r="B123" s="2" t="n"/>
+      <c r="C123" s="2" t="n"/>
+      <c r="D123" s="2" t="n"/>
+      <c r="E123" s="2" t="n"/>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>দেহত্বকের নিচে ও পেশির মধ্যে কোন ধরনের যােজক টিস্যু থাকে?</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>তরল</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>নন ফাইব্রাস</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="inlineStr">
-        <is>
-          <t>স্কেলেটাল</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>ফাইব্রাস</t>
-        </is>
-      </c>
+      <c r="A124" s="2" t="n"/>
+      <c r="B124" s="2" t="n"/>
+      <c r="C124" s="2" t="n"/>
+      <c r="D124" s="2" t="n"/>
+      <c r="E124" s="2" t="n"/>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>বিভিন্ন ধরনের রক্তকণিকা উৎপাদন করে কোন কানেকটিভ টিস্য?</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>ফাইব্রাস</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>নন ফাইব্রাস</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="inlineStr">
-        <is>
-          <t>তরল</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>স্কেলেটাল</t>
-        </is>
-      </c>
+      <c r="A125" s="2" t="n"/>
+      <c r="B125" s="2" t="n"/>
+      <c r="C125" s="2" t="n"/>
+      <c r="D125" s="2" t="n"/>
+      <c r="E125" s="2" t="n"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>মস্তিষ্ক, পাইনাল বপিণ্ডকে রক্ষা করে কোন যােজক</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>ফাইব্রাস</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>নন কাজ</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t>তরল</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>স্কেলেটাল</t>
-        </is>
-      </c>
+      <c r="A126" s="2" t="n"/>
+      <c r="B126" s="2" t="n"/>
+      <c r="C126" s="2" t="n"/>
+      <c r="D126" s="2" t="n"/>
+      <c r="E126" s="2" t="n"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>গঠনের ভিত্তিতে স্কেলেটাল সে কয় ধরনের হয়?</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচ</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
+      <c r="A127" s="2" t="n"/>
+      <c r="B127" s="2" t="n"/>
+      <c r="C127" s="2" t="n"/>
+      <c r="D127" s="2" t="n"/>
+      <c r="E127" s="2" t="n"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>অস্থিকে পৃঢ়তা প্রদান করে কোন টি?</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>ক্যাডমিয়াম</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>ক্যালসিয়া</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>সােডিয়াম</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>পটাসিয়াম</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
+      <c r="B128" s="2" t="n"/>
+      <c r="C128" s="2" t="n"/>
+      <c r="D128" s="2" t="n"/>
+      <c r="E128" s="2" t="n"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>রক্তের প্রধান উপাদান কয়টি?</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>একটি</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>দুইটি</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
+      <c r="A129" s="2" t="n"/>
+      <c r="B129" s="2" t="n"/>
+      <c r="C129" s="2" t="n"/>
+      <c r="D129" s="2" t="n"/>
+      <c r="E129" s="2" t="n"/>
     </row>
     <row r="130" ht="15" customHeight="1">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>পরিপাকতন্ত্রের প্রধান অংশ কয়টি?</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>পাঁচটি</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>দুইটি</t>
-        </is>
-      </c>
+      <c r="A130" s="2" t="n"/>
+      <c r="B130" s="2" t="n"/>
+      <c r="C130" s="2" t="n"/>
+      <c r="D130" s="2" t="n"/>
+      <c r="E130" s="2" t="n"/>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>জীববিজ্ঞানের কোন শাখায় অস নিয়ে আলােচনা করা হয়?</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>টিস্যতত্ত্ব</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>কোষবিদ্যা</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="inlineStr">
-        <is>
-          <t>বংশগতিবিদ্যা</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>অঙ্গসংস্থানবিদ্যা</t>
-        </is>
-      </c>
+      <c r="A131" s="2" t="n"/>
+      <c r="B131" s="2" t="n"/>
+      <c r="C131" s="2" t="n"/>
+      <c r="D131" s="2" t="n"/>
+      <c r="E131" s="2" t="n"/>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>অবস্থানভেদে মানবদেহে কয় কমে অঙ্গ আছে?</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>একটি</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>দুইটি</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
+      <c r="C132" s="2" t="n"/>
+      <c r="D132" s="2" t="n"/>
+      <c r="E132" s="2" t="n"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>একাধিক টিস্যু নির্দিষ্ট কাজ না করলে তাকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>সেহ</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>অঙ্গ</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr">
-        <is>
-          <t>তন্ত্র</t>
-        </is>
-      </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>কোষ</t>
-        </is>
-      </c>
+      <c r="A133" s="2" t="n"/>
+      <c r="B133" s="2" t="n"/>
+      <c r="C133" s="2" t="n"/>
+      <c r="D133" s="2" t="n"/>
+      <c r="E133" s="2" t="n"/>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>সঞ্চিত খাদ্য শসনের মাধ্যমে কােন রাসায়নিক প্রক্রিয়ায় শক্তিতে রূপান্তরিত হয়</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>প্রতিস্থাপন</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>বিজারণ</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>প্রশমন</t>
-        </is>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>জারণ</t>
-        </is>
-      </c>
+      <c r="A134" s="2" t="n"/>
+      <c r="B134" s="2" t="n"/>
+      <c r="C134" s="2" t="n"/>
+      <c r="D134" s="2" t="n"/>
+      <c r="E134" s="2" t="n"/>
     </row>
     <row r="135" ht="15" customHeight="1">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>অনৈচ্ছিক পেশির কাজগুলাে নিয়ছ করে নিচের কোনটি?</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>মস্তিষ্ক</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>সুষুম্নাকাও</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>করাটিক স্নায়ু</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>স্বয়ংক্রিয় স্নায়ুতন্ত্র</t>
-        </is>
-      </c>
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
+      <c r="C135" s="2" t="n"/>
+      <c r="D135" s="2" t="n"/>
+      <c r="E135" s="2" t="n"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>দেহ থেকে প্রয়াজনীয় বর্জ্য নিষ্কাশনকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>শ্বসন</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>ব্যাপন</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>প্রস্বেদন</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>রেচন</t>
-        </is>
-      </c>
+      <c r="A136" s="2" t="n"/>
+      <c r="B136" s="2" t="n"/>
+      <c r="C136" s="2" t="n"/>
+      <c r="D136" s="2" t="n"/>
+      <c r="E136" s="2" t="n"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>অন্তঃক্ষরা গ্রন্থি থেকে নিঃসৃত বসকে বলে</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>লসিকা</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>এনজাইম</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>রক্ত রস</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>হরমান</t>
-        </is>
-      </c>
+      <c r="A137" s="2" t="n"/>
+      <c r="B137" s="2" t="n"/>
+      <c r="C137" s="2" t="n"/>
+      <c r="D137" s="2" t="n"/>
+      <c r="E137" s="2" t="n"/>
     </row>
     <row r="138" ht="15" customHeight="1">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>হরমান এক স্থান থেকে আৱে কিসের মাধ্যমে পরিবাহিত হয়।</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>হাড়</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>স্নায়ু</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="inlineStr">
-        <is>
-          <t>মেরুদও</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr">
-        <is>
-          <t>রক্ত</t>
-        </is>
-      </c>
+      <c r="A138" s="2" t="n"/>
+      <c r="B138" s="2" t="n"/>
+      <c r="C138" s="2" t="n"/>
+      <c r="D138" s="2" t="n"/>
+      <c r="E138" s="2" t="n"/>
     </row>
     <row r="139" ht="15" customHeight="1">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>অণুবীক্ষণ যন্ত্র ফুটের যে আগে ৰাট লাগানাে থাকে তাকে কী বলাে।</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>স্টেজ</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>নাসপিস।</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="inlineStr">
-        <is>
-          <t>ড্র টিউব</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>গুপ্ত</t>
-        </is>
-      </c>
+      <c r="A139" s="2" t="n"/>
+      <c r="B139" s="2" t="n"/>
+      <c r="C139" s="2" t="n"/>
+      <c r="D139" s="2" t="n"/>
+      <c r="E139" s="2" t="n"/>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>আলাক অণুবীক্ষণ যন্ত্র কত ধরনের?</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>চার</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="inlineStr">
-        <is>
-          <t>তিন</t>
-        </is>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
+      <c r="A140" s="2" t="n"/>
+      <c r="B140" s="2" t="n"/>
+      <c r="C140" s="2" t="n"/>
+      <c r="D140" s="2" t="n"/>
+      <c r="E140" s="2" t="n"/>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>আমিকে অণুবীক্ষণ যয়ে দেখলে নিচের কোনটি অনুপস্থিত থাকবে</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>গহবর</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>ক্ষণপণ ।</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr">
-        <is>
-          <t>প্লাজমালেমা</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>প্লাস্টিড</t>
-        </is>
-      </c>
+      <c r="A141" s="2" t="n"/>
+      <c r="B141" s="2" t="n"/>
+      <c r="C141" s="2" t="n"/>
+      <c r="D141" s="2" t="n"/>
+      <c r="E141" s="2" t="n"/>
     </row>
     <row r="142" ht="15" customHeight="1">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>যৌগিক অনুবীক্ষণ যন্ত্রের আইপিস (লেল) এর বিবর্ধন ক্ষমতা কত?</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>4x -5x</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>100x</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>40x = 45x</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>10x - 12x</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
+      <c r="C142" s="2" t="n"/>
+      <c r="D142" s="2" t="n"/>
+      <c r="E142" s="2" t="n"/>
     </row>
     <row r="143" ht="15" customHeight="1">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>দৃশ্যমান আলাের তরঙ্গদৈর্ঘ্য কত ন্যানােমিটারের মধ্যে?</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>200 – 300</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>100 - 400</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>70 - 1000</t>
-        </is>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>400 = 700</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
+      <c r="C143" s="2" t="n"/>
+      <c r="D143" s="2" t="n"/>
+      <c r="E143" s="2" t="n"/>
     </row>
     <row r="144" ht="15" customHeight="1">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>যে অনুবীক্ষণ যন্ত্রে ইলেকট্রন তরলকে ব্যবহার করে বিবর্ধন করা হয় তাকে কী বলে?</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>সরল অনুবীক্ষণ যন্ত্র</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>যৌগিক অনুবীক্ষণ যন্ত্র</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t>বাইনােকুলার</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>ইলেকট্রন অনুবীক্ষণ যন্ত্র</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
+      <c r="C144" s="2" t="n"/>
+      <c r="D144" s="2" t="n"/>
+      <c r="E144" s="2" t="n"/>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" s="2" t="inlineStr"/>
-      <c r="B145" s="2" t="inlineStr"/>
-      <c r="C145" s="2" t="inlineStr"/>
-      <c r="D145" s="2" t="inlineStr"/>
-      <c r="E145" s="2" t="inlineStr"/>
+      <c r="A145" s="2" t="n"/>
+      <c r="B145" s="2" t="n"/>
+      <c r="C145" s="2" t="n"/>
+      <c r="D145" s="2" t="n"/>
+      <c r="E145" s="2" t="n"/>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" s="2" t="n"/>

--- a/DExcel.xlsx
+++ b/DExcel.xlsx
@@ -987,2312 +987,5788 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি এককোষী জীব</t>
+          <t>নিচের কোনটি ম্যাক্রো উপাদান?</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>মানুষ</t>
+          <t>ক্লোরিন</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>কেঁচো</t>
+          <t>ম্যাঙ্গানিজ</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>চিংড়ি</t>
+          <t>মলিবডেনাম</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>ব্যাকটেরিয়া</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>জাইগাট বারবার বিভাজিত হয়ে কী উৎপন্ন হয়?</t>
+          <t>উদ্ভিদের ম্যাক্রো উপাদানের সংখ্যা কত?</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>শুক্রাণু</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>ডিম্বাণু</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>অপত্য কোষ</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>অসংখ্য কোষ</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি বহুকোষী জীব?</t>
+          <t>অত্যাবশ্যকীয় পুষ্টি উপাদান কয়টি?</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>প্লাজমাডিয়াম</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>ব্যাকটেরিয়া</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>অ্যামিবা</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>বটগাছ</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>প্রতিটি জীবের জীবন শুরু হয় কীভাবে?</t>
+          <t>উদ্ভিদের কয়টি অজৈব উপাদান শনাক্ত করা হয়েছে?</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>চারটি কোষ দিয়ে</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>দুইটি কোষ দিয়ে</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>তিনটি কোষ দিয়ে</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>একটি কোষ দিয়ে</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>জীবদেহের গঠন ও কাজের একক কী?</t>
+          <t>উদ্ভিদের মাইক্রো উপাদানের সংখ্যা কয়টি?</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকন্ড্রিয়া</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>প্লাস্টিড</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>গলজি বস্তু</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>কোষ</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>জীবদেহে কোষ বিভাজন কত প্রকার?</t>
+          <t>নিচের কোনটি মাইক্রো উপাদান?</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>তিন</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>চার</t>
+          <t>অক্সিজেন</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>ছয়</t>
+          <t>সালফার</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ</t>
+          <t>দস্তা</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>কোষ বিভাজনের কোন পর্যায়ে নিউক্লিয়ার মেমব্রেন ও নিউক্লিওলাসের বিলুপ্তি ঘটতে থাকে?</t>
+          <t>পরিমাণের ওপর ভিত্তি করে অত্যাবশ্যকীয় খনিজ পুষ্টি কয় ভাগে বিভক্ত।</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ</t>
+          <t>তিন ভাগে</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>চার ভাগে</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>এক ভাগে</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>প্রামেটাফেজ</t>
+          <t>দুই ভাগে</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রিওল হতে কোন স্ব বিচ্ছুরিত হয়?</t>
+          <t>নিচের কোনটি ম্যাক্রো উপাদান?</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>স্পিন্ডল</t>
+          <t>ম্যাংগানিজ (Mn)</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>ট্রাকশন</t>
+          <t>বারন (B</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>আকর্ষণ</t>
+          <t>ক্লোরিন (Cl)</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>অ্যাস্টার</t>
+          <t>সালফার (S)</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>কোন ধাপে ক্রোমাসামের চারদিক ঘিরে নিউক্লিয়ার মেমব্রেন সৃষ্টি হয় এবং স্যাটক্রোমাসামের গৌণ কুঞ্চনে নিউক্লিওলাসের আবির্ভাব ঘটে?</t>
+          <t>উদ্ভিদের স্বাভাবিক বৃদ্ধির জন্য যেসব উপাদান বেশি পরিমাণে দরকার হয় তাকে কী বলে?</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ</t>
+          <t>মিলিনিউট্রিয়েন্ট</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>মাইক্রোনিউট্রিয়েন্ট</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>ন্যানানিউট্রিয়েন্ট</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>ম্যাক্রোনিউট্রিয়েন্ট</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়ার মেমব্রেনের সৃষ্টি হয় কোন ধাপে?</t>
+          <t>নিচের কোনটি মাইক্রো-উপাদান?</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ</t>
+          <t>নাইট্রোজেন (N)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>অক্সিজেন (O)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>পটাসিয়াম (K)</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>ক্লোরিন (Cl)</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>মাতৃকোষটি দুভাগে বিভক্ত হয়ে দুটি নতুন অপত্য কোষে পরিণত হয় কোন ধাপে?</t>
+          <t>উদ্ভিদের স্বাভাবিক বৃদ্ধির জন্য অত্যন্ত সামান্য পরিমাণে প্রয়াজন</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ</t>
+          <t>ন্যানানিউট্রিয়েন্ট</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>ম্যাক্রোনিউট্রিয়েন্ট</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>মিলিনিউট্রিয়েন্ট</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>মাইক্রোনিউট্রিয়েন্ট</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিসের টেলাফে ধাপে কোনটি হয়?</t>
+          <t>কোনটি উদ্ভিদের মাইক্রো উপাদান?</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>স্পিন্ডল যন্ত্রের সৃষ্টি</t>
+          <t>ম্যাঙ্গানিজ</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>অ্যাস্টার অন্ততে পানির পরিমাণ কমে</t>
+          <t>সালফার</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>অ্যাস্টার তয় বিচ্ছুরিত হয়</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাসামে পানি শােষণ হয়</t>
+          <t>কার্বন</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>অপত্য ক্রোমাসামগুলা মের কাজাকাছি পৌছালে কোষ বিশেষ কোন খালের পরিসমাপ্তি ঘটে</t>
+          <t>কোনটির অভাবে ক্লোরাফিল সৃষ্টি ব্যাহত হয়?</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>গোফেজ 9</t>
+          <t>হাইড্রোজেন</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>অক্সিজেন</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ ৪</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>কখন অ্যানাফেজ থাপের সমাপ্তি ঘটে</t>
+          <t>উদ্ভিদ মাটি থেকে কী হিসেবে পুষ্টি উপাদান শাষণ করে?</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোমিয়ার সৃষ্টি হলে আকর্ষণ তন্তর সাথে</t>
+          <t>লবণ</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাসামগুলা বিভাজিত হলে</t>
+          <t>অজৈব সার</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>কোমাসামগুলা সর্বাধিক মোটা হলে</t>
+          <t>জৈব সার</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>কেমোসোমগুলা মেরুর কাছাকাছি গেলে</t>
+          <t>আয়ন</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>কোনটি সংযুক্ত হয়?</t>
+          <t>নিচের কোনটি উদ্ভিদ পানি থেকে গ্রহণ করে?</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোসাম</t>
+          <t>কার্বন</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>রাইনাসাম</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাসাম</t>
+          <t>ক্লোরিন</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>সেন্ট্রোমিয়ার</t>
+          <t>হাইড্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাসাম থেকে পালি সি পেতে থাকে  মাইটোসিস কোষ বিভাজনের কোন ধাপে?</t>
+          <t>উদ্ভিদ কোনটি বায়ুমল হতে গ্রহণ করে?</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>সালফার</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>হাইড্রোজেন</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ</t>
+          <t>কার্বন</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>কোনটিকে ইকুয়েশনাল বিভাজন বলে।</t>
+          <t>কোনটি কোষ বিভাজনের মাধ্যমে উদ্ভিদের বৃদ্ধি নিয়ন্ত্রণ করে?</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস</t>
+          <t>অক্সিজেন</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>অ্যামাইটোসিস</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ পর্যায়ে ক্রোমোসাম অবস্থায় থাকে</t>
+          <t>উদ্ভিদের মূল, ফুল ও ফল উৎপাদন ও বর্ধনে কোনটির ভূমিকা রয়েছে?</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>আনুভূমিক</t>
+          <t>সাডিয়াম</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>প্যাচানা</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>লম্বালম্বি</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>কুণ্ডলিত</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ পর্যায়ে প্রতিটি ক্রোমোসাম কতটি ক্রোমাটিড উৎপন্ন করে?</t>
+          <t>DNA, RNA, ATP প্রভৃতির গাঠনিক উপাদান কোনটি?</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>পাঁচটি</t>
+          <t>সালফার</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>দুইটি</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>চারটি</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>তিনটি</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ পর্যায়ে ক্রোমোসাম কয় ভাগে  বিভক্ত হয়।</t>
+          <t>উদ্ভিদ বায়ুমণ্ডল থেকে গ্রহণ করে।</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>দুই ভাগে</t>
+          <t>পটাসিয়াম ও ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ ভাগে</t>
+          <t>অক্সিজেন,হাইড্রোজেন</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>চার ভাগে</t>
+          <t>কার্বন ও নাইট্রোজেন</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>তিন ভাগে</t>
+          <t>কার্বন,অক্সিজেন</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ পর্যায়ে ক্রোমাসামগুলা কেমন থাকে?</t>
+          <t>উদ্ভিদ অক্সিজেন, হাইড্রোজেন ও কার্বন ব্যতীত অন্যসব উপাদান কোথা থেকে শাষণ করে?</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>খাটো ও পাতলা</t>
+          <t>প্রাণী</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>মাটা  ও চিকন</t>
+          <t>পানি</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>খাটো ও চিকন</t>
+          <t>বায়ু</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>খাটো  ও মাটা</t>
+          <t>মাটি</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ পর্যায়ে নিউক্লিয়াসের আকার কেমন?</t>
+          <t>উদ্ভিদের পানি থেকে গ্রহণকৃত পুষ্টি উপাদান হল</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>খাটো</t>
+          <t>কার্বন ও অক্সিজেন</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>ছোট</t>
+          <t>হাইড্রোজেন ও নাইট্রোজেন</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>গালাকার</t>
+          <t>পটাসিয়াম ও ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>বড়</t>
+          <t>হাইড্রোজেন ও অক্সিজেন</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ মাইটোসিসের কততম পর্যায়</t>
+          <t>খাদ্য প্রস্তুতে বাধাপ্রাপ্ত হলে কোন  প্রক্রিয়ার বিঘ্ন ঘটে?</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>৬</t>
+          <t>ব্যাপন</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>৪</t>
+          <t>প্রস্বেদন</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>৫</t>
+          <t>অভিস্রবণ</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>৩</t>
+          <t>শ্বসন</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস কোষ বিভাজনের শেষ পর্যায় কোনটি?</t>
+          <t>কোনটি ক্লোরােফিল অণুর একটি উপাদান?</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>ধাফেজ</t>
+          <t>বারন</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস কিয়াসের বিভাজনের প্রথম ধাপ কোনটি?</t>
+          <t>উদ্ভিদের পত্ররন্ধ খােলা ও বন্ধ করতে সাহায্য করে কোনটি?</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>মেটাফে</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>পারন</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>কার্বন</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>গাফে</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>পিঞ্জিয়াস বিভাজনের ক্ষের কোলকা</t>
+          <t>উদ্ভিসের বহু জৈবিক ক্রিয়া বিক্রিয়ায় কোন উপাদানটি সহায়ক হিসেবে কাজ করে?</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ → টেলাফেজ মেটাফেজ প্রাফে</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>মেটাফে অ্যানাফেক → টেলাফেজ ধাফেজ</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>টেলাফে → অ্যানাফে → মেটাফেজ → প্রাফেজ</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>লাফেজ → প্রামেটাফে → মেটাফেজ→ আনাফে টেলােফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াসের বিভাজন কয়টি সম্পন্ন হয়?</t>
+          <t>কোষ বিভাজনের মাধ্যমে উদ্ভিদের বৃদ্ধি নিয়ন্ত্রণ করে?</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>দুইটি</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>তিনটি</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>চারটি</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>পাঁচটি</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি মাইটোসিস কোষ বিভাজনের পর্যায়?</t>
+          <t>কোনটি ছাড়া উদ্ভিদের পুষ্টি একেবারেই সম্ভব নয়</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষীয় বিভাজন</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিওলাসের বিভাজন</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাসাম বিভাজন</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াসের বিভাজন</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস কোষ বিভাজন প্রক্রিয়ায় ক্রোমোসাম কতবার বিভক্ত হয়?</t>
+          <t>উদ্ভিদ মাটি থেকে কয়টি পুষ্টি উপাদান পেয়ে থাকে?</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>চার</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>দুই</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>তিন</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>এক</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াস ও ক্রোমাসাম একবার বিভাজিত হয় কোথায়?</t>
+          <t>দ্ভিদের পুষ্টি উপাদানের সবগুলা উপাদান পাওয়া যায় কীসে?</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>জননকোষে</t>
+          <t>বায়ুতে</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>অপত্যকোষে</t>
+          <t>রাসায়নিক সারে</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>জায়ুকোষে</t>
+          <t>মাটিতে</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ</t>
+          <t>জৈব সারে</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>কোন কোষ বিভাজনে নিউক্লিয়াস ও ক্রোমাসাম একবার বিভাজিত হয়।</t>
+          <t>উদ্ভিদের সাধারণ দৈহিক বৃদ্ধিতে কোনটি গুরুত্বপূর্ণ ভূমিকা পালন করে?</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস</t>
+          <t>প্রাটিন ও ক্লোরাফিলের</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>অপত্য কোষ</t>
+          <t>কার্বন,ডাইঅক্সাইড</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>অ্যামাইটোসিস</t>
+          <t>পটাসিয়াম,নিউক্লিক এসিড</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>নাইট্রোজেন,হাইড্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>অপত্য কোষ একই বৈশিষ্ট্যসল্প হয় কোন কোষ বিভাজনের ফলে?</t>
+          <t>অত্যাবশ্যকীয় উপাদান কোনটি?</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস</t>
+          <t>বারন</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ</t>
+          <t>হাইড্রোজেন</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>জননকোষ</t>
+          <t>অক্সিজেন</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>জীবের চারিত্রিক বৈশিষ্ট্য বহন করে কোনটি?</t>
+          <t>নিজের কোন খাদ্য উপাদানটি রাগ প্রতিরাধ করে?</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>নিউক্লিয়াস</t>
+          <t>আমিষ</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>মাইটোকক্রিয়া</t>
+          <t>শর্করা</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>কোষগহর</t>
+          <t>খনিজ লবণ</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাসাম</t>
+          <t>ভিটামিন</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>নিস্ত্রে কোন পর্যায়ে কোষটি দুগগ হয়ে যায়।</t>
+          <t>উদ্ভিদের কোষ কলার পানির পরিমাণ বৃদ্ধি করে কোনটি?</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>সালফার</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>প্রামেটাফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>এন্ডোপ্লাজমিক আলিকার   অংশগুলামিলে কী তৈরি হয়।</t>
+          <t>প্রাটিন ক্লোরাফিলের অত্যাবশ্যকীয় উপাদান কোনটি?</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>অপত্য কোষ</t>
+          <t>ক্লোরিন</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>জননকোষ</t>
+          <t>সালফার</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ।</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>কোষপ্লেট</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোন পর্যায়ে ভয়ংক দৃশ্য হয়ে যায়</t>
+          <t>উদ্ভিদের শ্বসন প্রক্রিয়ায় সাহায্য করে কোনটি</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>মলিবডেনাম</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>খেযেটফেন</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>টেলাকে পর্যায়ে নেমােসােমের আকার ফেনী</t>
+          <t>বায়বীয় শ্বসনের অত্যাবশ্যকীয় উপাদান কোনটি?</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>পাতলা</t>
+          <t>বারন</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>মাটা ও লম্বা</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>মোটা ও পাতলা</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>সরু ও লম্বা</t>
+          <t>আয়রন</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>যেটাকে ও অ্যানারে টেলােকের ৪ শাযোফে দি কোন পর্যায়ে একেজের বলেনি অনেটে</t>
+          <t>নিচের কোনটি ক্লোরোপ্লাস্ট গঠন ও সংরক্ষণে প্রয়োজন?</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>প্রামেটাফেজ</t>
+          <t>ক্যাডমিয়াম</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>ম্যাংগানিজ</t>
         </is>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফে পর্যায়ে ক্রোমােসোমগুলাের আকার কেমন?</t>
+          <t>নিচের কোনটির উস্তিসের চিনি পরিবহনে পরাক্ষ প্রস্তাব রয়েছে</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>V,LJঅকার</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>L৩N আকার</t>
+          <t>আয়রন</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>M, N ও আকার</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>V,LM আকার</t>
+          <t>পারন</t>
         </is>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>আনাফেইটাসিসের কততম পর্যায়</t>
+          <t>কোনটির সুগাৱৰীট এর মূল ও কাস্তের বৃদ্ধিতে ভূমিকা রয়েছে?</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>১ম</t>
+          <t>মলিবডেনাম</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>৩য়</t>
+          <t>দস্তা</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>২য়</t>
+          <t>তামা</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>৪র্থ</t>
+          <t>ক্লোরিন</t>
         </is>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>কোষ বিভাজনের কোন পর্যায়ে বির্ক</t>
+          <t>ক্লোরাফিল অণুর গুরুত্বপূর্ণ উপাদান কোনটি?</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>প্রামেটাফেজ</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>কোন পর্যায়ে নিঞ্জয়ার মেমকে ও বিলাসের সবিটি</t>
+          <t>সাইটোক্রোমের সাংগঠনিক উপাদান কোনটি?</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেন</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>প্রামেটাফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>আয়রন</t>
         </is>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>কোন পর্যায়ে ক্রোমাসামের আকর্ষণ কমে যায়।</t>
+          <t>অ্যামাইনা এসিড সংশ্লেষণের জন্য কী প্রয়োজন?</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>ইউরিয়া</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>প্রামেটাফেজ</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>দস্তা</t>
         </is>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>কোন পর্যায়ে ক্রোমাসামগুলো</t>
+          <t>কোন প্রক্রিয়ার ওপর তার উল্লেখযাগ্য প্রভাব রয়েছে?</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>খাটো ও মাটা হয়</t>
+          <t>প্রস্বেদন</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>ব্যাপন</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফেজ</t>
+          <t>অভিস্রবণ</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>টেলাফেজ</t>
+          <t>শসন</t>
         </is>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>অণুজীব দ্বারা বায়বীয় নাইট্রোজেন সংবন্ধনের জন্য আবশ্যক</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>জীবদেহে ক্ষতস্থান পূরণ করতে কে ভূমিকা রাখে?</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>মলিবডেনাম</t>
         </is>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>পাতায় মৃত অঞ্চল সৃষ্টির জন্য দায়ী কোনটি?</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>ক্যাপার কেনো হয়?</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>স্বাভাবিক কোষ বিভাজনের ফলে</t>
+          <t>বারন</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>কোষ বিভাজন না হলে</t>
+          <t>লেীহ</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>অস্বাভাবিক কোষ বিভাজনের ফলে</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>নিচের কোনটির অভাবে উদ্ভিদের পাতা বেগুনি রং ধারণ করে?</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>অনিয়জিত মাইটোসিস সৃষ্টি করে</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>কালার</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>আলসার</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>ডায়াবেটিস</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>কোনটির অভাবে উদ্ভিদের কোষের বৃদ্ধি ও বিভাজন হ্রাস পায়?</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস কোষ বিগন ঘটে</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>উক্তিকোষে ও প্রাণিকোষে</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>উক্তি ও প্রাণীর দেহকোষে</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>উক্তি ও প্রাণীর জননকোষে।</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>উদ্ভিদের পাতা হলুদ হয়ে যাওয়ার প্রক্রিয়াকে কী বলে?</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>কোন কোষ হতে জন শুরু করে</t>
+          <t>ডাইব্যাক</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>জাইগাট</t>
+          <t>প্রাটিন ট্রাফিডিং</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>নিষেক</t>
+          <t>ফ্লোরাকিল</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>হ্যাপ্লয়েড</t>
+          <t>ক্লোরাসিস</t>
         </is>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ক্লোরাসিস রাগের জন্য দায়ী কোনটি?</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>হশতের শক স্থিতিশীগৰায় থাকে কোন বিজ্ঞানের মাধ্যমে</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>অ্যামাইটোসিস</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>উঞ্জিলে নাইট্রাজেনের অভাব হলে কোনটির সৃষ্টি বিঘ্ন ঘটে?</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>ইলেসিসের ফলে কোন কোষী জীবের ও এককোষী জীবের</t>
+          <t>ক্লোরাসিস</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>এককোষী</t>
+          <t>মেসাফিল</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>বহুকোষী</t>
+          <t>জাহেফিল</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>ব্যাকটেরিয়া</t>
+          <t>ক্লোরাফিল</t>
         </is>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>পাতার শীর্ষ ও কিনারা হলুদ হওয়ার</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>ক্রোমাসাম নৃত্য কোষ বিভাজনের কেন দশায় দেখা যায়</t>
+          <t>ফসফরাসের অভাব</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফে</t>
+          <t>সালফারের অভাব</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>প্রামেটাফেজ</t>
+          <t>ম্যাগনেসিয়ামের অভাব</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেজ</t>
+          <t>পটাসিয়ামের অভাব</t>
         </is>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>কোন উপাদানটির অভাবে উদ্ভিদের পাতা, ফুল ও ফল ঝরে যেতে পারে?</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>কোন ধাপে নিউক্লিয়াসের আকার ভুয়া</t>
+          <t>লৌহ</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>প্রাফেল</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>মেটাফেজ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>অ্যানাফে</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>কোন উপাদানটির অভাব হলে উদ্ভিদের বৃদ্ধি বন্ধ ও উদ্ভিদ খর্বাকার হয়?</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস পদ্ধতিতে মাতৃ-নিউক্লিয়াসের | বিভাজন কৰাৰ ঘটা</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>এক বার</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>দুই বার</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>তিন বার</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>কোনটির অভাবে উদ্ভিদের কচি পাতায় ক্লোরাসিস হয়?</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>বংশপরম্পরায় জীবের ক্রোমোসাম সংখ্যা নির্দিষ্ট থাকে কোন বিজনে?</t>
+          <t>বারন</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>মাইটোসিস</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>দেহকোষ</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>অ্যামাইটোসিস</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>কীসের অভাবে উদ্ভিদ হঠাৎ নেতিয়ে</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস বিভাজনের এক চক্রে | নিউক্লিয়াস কৰাৱ বিভাজিত হয়?</t>
+          <t>ম্যাগনেসিয়ামের</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>একবার</t>
+          <t>ফসফরাসের</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>দুইবার</t>
+          <t>বারনের</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>তিনবার</t>
+          <t>ক্যালসিয়ামের</t>
         </is>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>উদ্ভিদের সালাকসংশ্লেষণের হার কমে যাওয়ার জন্য কোনটি দায়ী?</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস বিভাজনে প্রথমবারে অর্ধেক হয় ও দ্বিগুণ হয়।</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>তিনগুণ হয়</t>
+          <t>লৌহ</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>চারগুণ হয়</t>
+          <t>নাইট্রোজেন</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ গুন হয়</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>নিচের কোনটির অভাবে উদ্ভিদের কাণ্ড দুর্বল ও ছাট হয়?</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>যিলাসিস বিভাজনে একটি মাতৃকোষ থেকে কতটি অপত্য কোষ পাওয়া যায়।</t>
+          <t>ৰারন</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>দুইটি</t>
+          <t>সালফার</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>তিনটি</t>
+          <t>পটাসিয়াম</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>চারটি</t>
+          <t>লৌহ</t>
         </is>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>উদ্ভিদের বর্ধনশীল শীর্ষ অঞ্চল মরে যাওয়ার কারণ কী?</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>মিয়াসিস পদ্ধতিতে মাতৃকোষে কে</t>
+          <t>লৌহের অভাব</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>ক্ষণ পঠন ও স্বপের বর্ধন</t>
+          <t>নাইট্রোজেনের অভাব</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>শুক্রাণু, ডিম্বাণু</t>
+          <t>ম্যাগনেসিয়ামের অভাব</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>পরাগ</t>
+          <t>ক্যালসিয়ামের অভাব</t>
         </is>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>নিচের কোনটির অভাবে পাতায় লাল ও বেগুনি দাগ দেখা যায়?</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>কোষের আকার আয়তন সিরাসিস কোষ বিভাজনে ক্রোমাসাম সংখ্যা মাতৃকোষে</t>
+          <t>লৌহ</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>সমান</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>দ্বিগুণ</t>
+          <t>বারন</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>চারপুণ</t>
+          <t>সালফার</t>
         </is>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ডাইব্যাক রাগ সৃষ্টির জন্য দায়ী কোনটি?</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>মিয়োসিসের পুরুত্ব কি?</t>
+          <t>লৌহ</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>জননকোষ সৃষ্টি</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>দেহ কোষ সৃষ্টি</t>
+          <t>বারন</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>প্রাণীর দৈহিক বৃদ্ধি</t>
+          <t>সালফার</t>
         </is>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr"/>
-      <c r="C63" s="2" t="inlineStr"/>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
+          <t>উদ্ভিদের বর্ধনশীল অগ্রভাগ মরে যাওয়ার কারণ কোনটি?</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>লৌহের অভাব</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>ফসফরাসের অভাব</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়ামের অভাব</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>বারনের অভাব।</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
-      <c r="C64" s="2" t="n"/>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>উক্তিদের বারনের অভাব হলে কোনটি ঘটে?</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>শীর্ষ ও পার্শমুকুল মরে যায়</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>কাণ্ডের মধ্যপর্ব ছাট হয়</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>ডাইব্যাক রাগের সৃষ্টি হয়</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>ফুলের কুঁড়ির জন্ম ব্যাহত হয়</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
-      <c r="C65" s="2" t="n"/>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>সালফারের অভাবজনিত লক্ষণ কোনটি?</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>পাতায় মৃত অঞ্চল সৃষ্টি হয়</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>ফুল ফোটার সময় উদ্ভিদের কাণ্ড শুকিয়ে যায়</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>কাও খসখসে হয়ে ফেটে যায়</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>কচি পাতায় বেশি এবং বয়াবৃদ্ধ পাতায় কম ক্লোরাসিস হয়</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
-      <c r="C66" s="2" t="n"/>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>পটাসিয়ামের অভাবজনিত লক্ষণ কোনটি?</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>উদ্ভিদ হঠাৎ নেতিয়ে পড়ে পাতা বিকৃত হয়</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>বিভাজন হ্রাস পায়</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>উদ্ভিদের শীর্ষ ও পার্শমুকুল মরে যায়</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>কোষের বৃদ্ধি</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
-      <c r="C67" s="2" t="n"/>
-      <c r="D67" s="2" t="n"/>
-      <c r="E67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>উদ্ভিদে ফসফরাসের অভাব হলে কোনটি ঘটবে?</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>বিকৃত পাতা</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>ক্লোরাসিস।</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>ডাইব্যাক</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>খর্বকায় উদ্ভিদ</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="2" t="n"/>
-      <c r="B68" s="2" t="n"/>
-      <c r="C68" s="2" t="n"/>
-      <c r="D68" s="2" t="n"/>
-      <c r="E68" s="2" t="n"/>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>উদ্ভিদে কোনটির অভাব হলে শীর্ষ ও পার্শ্ব মুকুল মারা যায়?</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>সালফার</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>ফসফরাস।</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>লৌহ</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>পটাসিয়াম</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
-      <c r="C69" s="2" t="n"/>
-      <c r="D69" s="2" t="n"/>
-      <c r="E69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>কচি পাতায় ক্লোরাসিসের জন্য নিচের কোনটি দায়ী?</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>নাইট্রোজেন</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>ফসফরাস</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>ম্যাগনেসিয়াম</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়াম</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
-      <c r="C70" s="2" t="n"/>
-      <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>ফুল ফোটার সময় উদ্ভিদের কাণ্ড শুকিয় যায় কোনটির অভাবে?</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>ম্যাগনেসিয়াম</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>লৌহ</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>সালফার</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়াম</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
-      <c r="C71" s="2" t="n"/>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>কোনটির অভাবে উদ্ভিদের সালাকসংশ্লেষণের হার কমে যায়?</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>ফসফরাস</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>পটাসিয়াম</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>লৌহ</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>ম্যাগনেসিয়াম</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
-      <c r="C72" s="2" t="n"/>
-      <c r="D72" s="2" t="n"/>
-      <c r="E72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>পাতার সরু শিরাসমূহের মধ্যবর্তী স্থানে ক্লোরাসিসের জন্য কোনটি দায়ী?</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>ফসফরাস</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>পটাসিয়াম।</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়াম</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>ম্যাগনেসিয়াম</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
-      <c r="C73" s="2" t="n"/>
-      <c r="D73" s="2" t="n"/>
-      <c r="E73" s="2" t="n"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>উৎস অনুযায়ী আমিষ কত প্রকার?</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>পাঁচ</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>তিন</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>চার</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>দুই</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="2" t="n"/>
-      <c r="C74" s="2" t="n"/>
-      <c r="D74" s="2" t="n"/>
-      <c r="E74" s="2" t="n"/>
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>কোনটিতে নাইট্রাজেন রয়েছে</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>শর্করা</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>আমিষে</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>আমিষ</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
-      <c r="C75" s="2" t="n"/>
-      <c r="D75" s="2" t="n"/>
-      <c r="E75" s="2" t="n"/>
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>শতকরা কতভাগ নাইট্রোজেন থাকে</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
-      <c r="C76" s="2" t="n"/>
-      <c r="D76" s="2" t="n"/>
-      <c r="E76" s="2" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>গঠন পদ্ধতি অনুসারে শর্করা কত প্রকার?</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>দুই প্রকার</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>চার প্রকার।</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>পাঁচ প্রকার</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>তিন প্রকার</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
-      <c r="C77" s="2" t="n"/>
-      <c r="D77" s="2" t="n"/>
-      <c r="E77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>কোন জাতীয় খাদ্য উপাদান কাজ করার শক্তি যাগায়?</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>খনিজ লবণ</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>পানি</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>শর্করা</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
-      <c r="C78" s="2" t="n"/>
-      <c r="D78" s="2" t="n"/>
-      <c r="E78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>শর্করার মৌলিক উপাদান কোনগুলা?</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>কার্বন, ফসফরাস, অক্সিজেন</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>কার্বন, নাইট্রোজেন, অক্সিজেন</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>অক্সিজেন, হাইড্রোজেন, ফসফরাস</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>কার্বন, হাইড্রোজেন, অক্সিজেন</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
-      <c r="C79" s="2" t="n"/>
-      <c r="D79" s="2" t="n"/>
-      <c r="E79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>কোনটি এক অপুবিশিষ্ট শর্করা?</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>গুকোজ</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>গ্লাইকোজেন</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>ল্যাকটোজ</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>শ্বেতসার</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
-      <c r="C80" s="2" t="n"/>
-      <c r="D80" s="2" t="n"/>
-      <c r="E80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>নিচের কোনটি ফি-শর্করা?</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>গুকোজ</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>শ্বেতসার</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>গ্লাইকোজেন</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>ল্যাকটোজ</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
-      <c r="C81" s="2" t="n"/>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>মানবদেহে শাষণক্ষম শর্করা কোনটি?</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>শ্বেতসার</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>ল্যাকটোজ</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>সুক্রোজ</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>গ্লুকোজ</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
-      <c r="C82" s="2" t="n"/>
-      <c r="D82" s="2" t="n"/>
-      <c r="E82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>কোন জাতীয় খাদ্য পাকস্থলীতে , অনেকক্ষণ থাকে?</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>আমিষ</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>শর্করা</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>স্নেহ</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
-      <c r="C83" s="2" t="n"/>
-      <c r="D83" s="2" t="n"/>
-      <c r="E83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>চর্বি প্রধানত দেহের কোথায় জমা থাকে।</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>রক্তে</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>চুলে</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>হাড়ে</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>ত্বকের নিচে</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
-      <c r="C84" s="2" t="n"/>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>চর্বিতে শর্করা ও আমিষের প্রায় কতগু ক্যালরি থাকে?</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>তিন গুণ</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>চার গুণ</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>পাঁচ গুণ</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>দুই গুণ</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
-      <c r="C85" s="2" t="n"/>
-      <c r="D85" s="2" t="n"/>
-      <c r="E85" s="2" t="n"/>
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>উৎস অনুযায়ী স্নেহ জাতীয় পদার্থ কয় ধরনের?</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>তিন ধরনের</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>পাঁচ ধরনের</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>চার ধরনের</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>দুই ধরনের</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="2" t="n"/>
-      <c r="D86" s="2" t="n"/>
-      <c r="E86" s="2" t="n"/>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>কোনটি প্রাণিদেহে শক্তি মাপার একক।</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>বিএমআই</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>মিলিগ্রাম</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>লিটার</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালরি</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="2" t="n"/>
-      <c r="D87" s="2" t="n"/>
-      <c r="E87" s="2" t="n"/>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>একজন সুস্থসবল পূর্ণবয়স্ক লােকের জন্য প্রতিদিন কতটুকু চর্বির প্রয়াজন?</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>30-40 গ্রাম</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>40-50 গ্রাম</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>60-70 গ্রাম</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>50-60 গ্রাম</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
-      <c r="C88" s="2" t="n"/>
-      <c r="D88" s="2" t="n"/>
-      <c r="E88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিনকে কয় শ্রেণিতে বিভক্ত করা</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>৩ শ্রেণিতে</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>৪ শ্রেণিতে</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>৫ শ্রেণিতে</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>২ শ্রেণিতে</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
-      <c r="C89" s="2" t="n"/>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>পানিতে দ্রবণীয় ভিটামিন কোনটি</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>এ</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>কে</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>ডি</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>সি</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
-      <c r="C90" s="2" t="n"/>
-      <c r="D90" s="2" t="n"/>
-      <c r="E90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>কোনটি চর্বিতে দ্রবণীয় ভিটামিন</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
-      <c r="C91" s="2" t="n"/>
-      <c r="D91" s="2" t="n"/>
-      <c r="E91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়ামের প্রধান উৎস নিচের কোনটি?</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>গাজর</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>মাংশ</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>বাদাম</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>লাল শাক</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
-      <c r="C92" s="2" t="n"/>
-      <c r="D92" s="2" t="n"/>
-      <c r="E92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>লৌহ সমৃদ্ধ খাদ্য কোনটি?</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>ছাট মাছ</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>নানতা খাবার</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>শেওলা</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>শাক</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
-      <c r="C93" s="2" t="n"/>
-      <c r="D93" s="2" t="n"/>
-      <c r="E93" s="2" t="n"/>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>কোনটি হতে ফসফরাস পাওয়া যায়?</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>তাল</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>আলু</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>ঢেড়স</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>বাদাম</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
-      <c r="C94" s="2" t="n"/>
-      <c r="D94" s="2" t="n"/>
-      <c r="E94" s="2" t="n"/>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>সাডিয়ামের প্রধান উৎস নিচের কোনটি?</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>দই</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>তাল</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>আপেল</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>পনির</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
-      <c r="C95" s="2" t="n"/>
-      <c r="D95" s="2" t="n"/>
-      <c r="E95" s="2" t="n"/>
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>নিচের কোনটিতে পটাসিয়াম পাওয়া যায়?</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>পনির</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>খাবার লবণ</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>চিপস</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>কলা</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
-      <c r="C96" s="2" t="n"/>
-      <c r="D96" s="2" t="n"/>
-      <c r="E96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>কোনটি হতে ক্লোরিন পাওয়া যায়?</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>দই</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>ডাল</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>আপেল</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>মাছ</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
-      <c r="C97" s="2" t="n"/>
-      <c r="D97" s="2" t="n"/>
-      <c r="E97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>কোনটি আয়াডিনের উৎস?</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>ডিমের কুসুম</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>হানা</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>বাদাম</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>মাংস</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
-      <c r="C98" s="2" t="n"/>
-      <c r="D98" s="2" t="n"/>
-      <c r="E98" s="2" t="n"/>
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>জীবন রক্ষায় অক্সিজেনের পর কোনটির অবস্থান?</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>মাটি</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>বায়ু</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>লবণ</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>পানি</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
-      <c r="C99" s="2" t="n"/>
-      <c r="D99" s="2" t="n"/>
-      <c r="E99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>একজন প্রাপ্তবয়স্ক ব্যক্তি দৈনিক কত লিটার পানি পান করা প্রয়াজন?</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>1লিটার</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>6 লিটার</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>4 লিটার</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>2 লিটার</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
-      <c r="C100" s="2" t="n"/>
-      <c r="D100" s="2" t="n"/>
-      <c r="E100" s="2" t="n"/>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>অক্সিজেনকে দেহকোষে পৌছানোর কাজে সাহায্য করে কোনটি?</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>তরল খাবার</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>খনিজ লবণ</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>পানি</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
-      <c r="C101" s="2" t="n"/>
-      <c r="D101" s="2" t="n"/>
-      <c r="E101" s="2" t="n"/>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>একজন পূর্ণবয়স্ক ব্যক্তির দেহের ওজনের কতভাগ পানি?</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>75-95 ভাগ</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>60-70 ভাগ</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>80-9) ভাগ</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>50-65 ভাগ</t>
+        </is>
+      </c>
     </row>
     <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="2" t="n"/>
-      <c r="B102" s="2" t="n"/>
-      <c r="C102" s="2" t="n"/>
-      <c r="D102" s="2" t="n"/>
-      <c r="E102" s="2" t="n"/>
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>মানবদেহে পানির কাজগুলাকে কয়ভাগে ভাগ করা যায়?</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>ছয় ভাগ</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>চার ভাগ</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>পাঁচ ভাগ</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>তিন ভাগ</t>
+        </is>
+      </c>
     </row>
     <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
-      <c r="C103" s="2" t="n"/>
-      <c r="D103" s="2" t="n"/>
-      <c r="E103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>পানি মানবদেহে কিরপে কাজ করে?</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>দ্রব</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>ক্ষার</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>দ্রবণ</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>দ্রাবক</t>
+        </is>
+      </c>
     </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
-      <c r="C104" s="2" t="n"/>
-      <c r="D104" s="2" t="n"/>
-      <c r="E104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>নিচের কোনটি আঁশ জাতীয় খাদ্য?</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>ডিমের কুসুম</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>দুধ</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>গরুর মাংস</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>ইসুবগুল</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
-      <c r="C105" s="2" t="n"/>
-      <c r="D105" s="2" t="n"/>
-      <c r="E105" s="2" t="n"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>রাফেজযুক্ত খাবার বিষাক্ত বস্তুকে খাদ্যনালি থেকে কী করে?</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>পরিবহন করে</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>পরিচলন করে</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>গ্রহণ করে</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>পরিশােষণ করে</t>
+        </is>
+      </c>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="2" t="n"/>
-      <c r="B106" s="2" t="n"/>
-      <c r="C106" s="2" t="n"/>
-      <c r="D106" s="2" t="n"/>
-      <c r="E106" s="2" t="n"/>
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>আঁশযুক্ত খাবার আমাদের কোন  উপকারটি করে।</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>ক্যান্সার সৃষ্টি করে</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>ওজন বৃদ্ধি করে।</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>চর্বি জমাতে সাহায্য করে</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>স্কুলতা হ্রাস করে</t>
+        </is>
+      </c>
     </row>
     <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
-      <c r="C107" s="2" t="n"/>
-      <c r="D107" s="2" t="n"/>
-      <c r="E107" s="2" t="n"/>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>খাদ্য আঁশ উদ্ভিদের কী তৈরি করে?</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>খাদ্য</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>বৃদ্ধি হরমান</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>ফুল</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>কাঠামো</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
-      <c r="C108" s="2" t="n"/>
-      <c r="D108" s="2" t="n"/>
-      <c r="E108" s="2" t="n"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>সেলুলাজ ও রাষ্ণেকী ধরনের শর্করা?</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>সরল</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>সহজপাচ্য</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>এক অণু বিশিষ্ট</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>জটিল</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
-      <c r="C109" s="2" t="n"/>
-      <c r="D109" s="2" t="n"/>
-      <c r="E109" s="2" t="n"/>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>বাফেজ মানবদেহের কোন রোগের আশঙ্কা কমায় বলে ধারণা করা হয়</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>ডায়াবেটিস</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>ডায়রিয়া</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>উচ্চরক্তচাপ</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>ক্যান্সার</t>
+        </is>
+      </c>
     </row>
     <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
-      <c r="C110" s="2" t="n"/>
-      <c r="D110" s="2" t="n"/>
-      <c r="E110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>সুষম খাদ্য তালিকায় কোন খাবারের পরিমাণ সবচেয়ে বেশি উল্লেখ আছে</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>আমিষ</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>স্নেহ</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>শর্করা</t>
+        </is>
+      </c>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
-      <c r="C111" s="2" t="n"/>
-      <c r="D111" s="2" t="n"/>
-      <c r="E111" s="2" t="n"/>
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>আদর্শ খাদ্য পিরামিডের সর্বোত্তরে কোনটি থাকা উচিত?</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>আমিষ</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>শর্করা</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>খনিজ লবণ</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>স্নেহ</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="15" customHeight="1">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
-      <c r="C112" s="2" t="n"/>
-      <c r="D112" s="2" t="n"/>
-      <c r="E112" s="2" t="n"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>একজন পূর্ণবয়স্ক পরিশ্রমহীন পুরুষের। দৈনিক কত গ্রাম মাছ বা মাংস খাওয়া উচিত?</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>20 গ্রাম</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>25 গ্রাম</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>35 গ্রাম</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>30 গ্রাম</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
-      <c r="C113" s="2" t="n"/>
-      <c r="D113" s="2" t="n"/>
-      <c r="E113" s="2" t="n"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>একজন পূর্ণবয়স্ক পরিশ্রমী মহিলার প্রতিদিনের সুষম খাদ্য তালিকায় কত গ্রাম পরিমাণ দুধ থাকা দরকার?</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>100 গ্রাম</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>150 গ্রাম</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>250 গ্রাম</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>200 গ্রাম</t>
+        </is>
+      </c>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
-      <c r="C114" s="2" t="n"/>
-      <c r="D114" s="2" t="n"/>
-      <c r="E114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>কয়টি দিক বিবেচনা করে সুষম খাদ্যের  তালিকা করতে হবে?</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>ছয়টি</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>চারটি</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>পাঁচটি</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>তিনটি</t>
+        </is>
+      </c>
     </row>
     <row r="115" ht="15" customHeight="1">
-      <c r="A115" s="2" t="n"/>
-      <c r="B115" s="2" t="n"/>
-      <c r="C115" s="2" t="n"/>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>প্রতি 100 গ্রাম চালে কত কিলাক্যালরি শক্তি পাওয়া যায়?</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>320 কিলাক্যালরি</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>310 কিলাক্যালরি</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>300 কিলাক্যালরি</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>346 কিলাক্যালরি</t>
+        </is>
+      </c>
     </row>
     <row r="116" ht="15" customHeight="1">
-      <c r="A116" s="2" t="n"/>
-      <c r="B116" s="2" t="n"/>
-      <c r="C116" s="2" t="n"/>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>একজন পরিশ্রমী পূর্ণবয়স্ক পুরুষের দৈনিক কত গ্রাম দুধ খাওয়া উচিত?</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>200 গ্রাম</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>18০ গ্রাম</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>220 গ্রাম</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>250 গ্রাম</t>
+        </is>
+      </c>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" s="2" t="n"/>
-      <c r="B117" s="2" t="n"/>
-      <c r="C117" s="2" t="n"/>
-      <c r="D117" s="2" t="n"/>
-      <c r="E117" s="2" t="n"/>
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>কিছু বিশেষ ধরনের চিকিৎসা বিজ্ঞানে | গলগণ্ডকে কী নামে ডাকা হয়?</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>টিউমার</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>গলাফুলা</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>টাইফয়েড</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>গয়টার</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="2" t="n"/>
-      <c r="B118" s="2" t="n"/>
-      <c r="C118" s="2" t="n"/>
-      <c r="D118" s="2" t="n"/>
-      <c r="E118" s="2" t="n"/>
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>গলগণ্ড মানুষের কোন গ্রন্থিতে হয়?</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>পিটুইটারি</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>লালাগ্রন্থি</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>থ্যালামাস</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>থাইরয়েড</t>
+        </is>
+      </c>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="2" t="n"/>
-      <c r="B119" s="2" t="n"/>
-      <c r="C119" s="2" t="n"/>
-      <c r="D119" s="2" t="n"/>
-      <c r="E119" s="2" t="n"/>
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>কীসের অভাবে গলগণ্ড রাগ হয়?</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>অক্সিজেন</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>হাইড্রোজেন</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়াম</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>আয়াডিন</t>
+        </is>
+      </c>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="2" t="n"/>
-      <c r="B120" s="2" t="n"/>
-      <c r="C120" s="2" t="n"/>
-      <c r="D120" s="2" t="n"/>
-      <c r="E120" s="2" t="n"/>
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>কোন ভিটামিনের অভাবে রাতকানা রোগ হয়?</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন ‘ডি’</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন ‘বি’</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন ‘সি’</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন ‘এ’</t>
+        </is>
+      </c>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="2" t="n"/>
-      <c r="B121" s="2" t="n"/>
-      <c r="C121" s="2" t="n"/>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="2" t="n"/>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>জোফথ্যালমিয়ার সর্বনিন্ম মাত্র কোনটি?</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>গয়টার</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>রাতকানা</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>রক্তশূন্যতা</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>রিকেটস</t>
+        </is>
+      </c>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="2" t="n"/>
-      <c r="B122" s="2" t="n"/>
-      <c r="C122" s="2" t="n"/>
-      <c r="D122" s="2" t="n"/>
-      <c r="E122" s="2" t="n"/>
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>জেরাঞ্চৰ্যালমিয়ার মাত্রা কয়টি?</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>এক থেকে দুইটি</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>চার থেকে পাঁচটি</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>চৌদ্দটি</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>সাত থেকে আটটি</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="2" t="n"/>
-      <c r="B123" s="2" t="n"/>
-      <c r="C123" s="2" t="n"/>
-      <c r="D123" s="2" t="n"/>
-      <c r="E123" s="2" t="n"/>
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>কোন বয়সের শিশুদের মধ্যে রাতকানা রাগ বেশি দেখা যায়?</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>2-3 বছর</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>4-3 বছর</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>3-5 বছর</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>2-3 বছর</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" s="2" t="n"/>
-      <c r="B124" s="2" t="n"/>
-      <c r="C124" s="2" t="n"/>
-      <c r="D124" s="2" t="n"/>
-      <c r="E124" s="2" t="n"/>
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>রিকেটস কিসের অতজনিত রাগ?</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন 'এ'</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন বি</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন 'সি'</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন ডি</t>
+        </is>
+      </c>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" s="2" t="n"/>
-      <c r="B125" s="2" t="n"/>
-      <c r="C125" s="2" t="n"/>
-      <c r="D125" s="2" t="n"/>
-      <c r="E125" s="2" t="n"/>
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>সূর্যের বেগুনি রশ্মির প্রভাবে মানুষের ত্বকে কোনটি তৈরি হয়?</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>কালচে দাগ</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>তৈলাক্ত ভাব</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন 'ই'</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন ডি</t>
+        </is>
+      </c>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="2" t="n"/>
-      <c r="B126" s="2" t="n"/>
-      <c r="C126" s="2" t="n"/>
-      <c r="D126" s="2" t="n"/>
-      <c r="E126" s="2" t="n"/>
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>কোন ভিটামিনের অভাবে রক্তশূন্যতা দেখা দেয়?</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>বি 12</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন ডি</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিন 'ই'</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>তৈলাক্ত ভাব</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="2" t="n"/>
-      <c r="B127" s="2" t="n"/>
-      <c r="C127" s="2" t="n"/>
-      <c r="D127" s="2" t="n"/>
-      <c r="E127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>কোনটির অভাবে রক্তশূন্যতা হতে পারে?</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>পটাসিয়াম</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>ফসফরাস</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়াম</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>আয়রন</t>
+        </is>
+      </c>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
-      <c r="C128" s="2" t="n"/>
-      <c r="D128" s="2" t="n"/>
-      <c r="E128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>নিচের কোন রাগটি আয়াডিনের অভাবে হয়?</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>চোখের ঝাপসা দেখা</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>পা বেঁকে যাওয়া</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>পেট ফুলে যাওয়া</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>গয়টার</t>
+        </is>
+      </c>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="2" t="n"/>
-      <c r="B129" s="2" t="n"/>
-      <c r="C129" s="2" t="n"/>
-      <c r="D129" s="2" t="n"/>
-      <c r="E129" s="2" t="n"/>
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>থ্যালাসেমিয়া কেন হয়</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>পানির অভাবে</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>আয়াডিনের অভাবে</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>ভিটামিনের অভাবে</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>রক্তস্বল্পতার কারণে</t>
+        </is>
+      </c>
     </row>
     <row r="130" ht="15" customHeight="1">
-      <c r="A130" s="2" t="n"/>
-      <c r="B130" s="2" t="n"/>
-      <c r="C130" s="2" t="n"/>
-      <c r="D130" s="2" t="n"/>
-      <c r="E130" s="2" t="n"/>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>পুষ্টি উপাদান থেকে নির্গত শক্তি একক কী?</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>মিটার</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>গ্রাম</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>ওয়াট</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>ক্যালরি</t>
+        </is>
+      </c>
     </row>
     <row r="131" ht="15" customHeight="1">
-      <c r="A131" s="2" t="n"/>
-      <c r="B131" s="2" t="n"/>
-      <c r="C131" s="2" t="n"/>
-      <c r="D131" s="2" t="n"/>
-      <c r="E131" s="2" t="n"/>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>এক কিলাগ্রাম পানির উচ্চতা।°cযুক্তি করতে কতটুকু তাপের প্রয়াজন</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>এক জুল</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>2 ফুল</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>2800 কিলাক্যালরি</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>এক কিলাক্যালরি</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="15" customHeight="1">
-      <c r="A132" s="2" t="n"/>
-      <c r="B132" s="2" t="n"/>
-      <c r="C132" s="2" t="n"/>
-      <c r="D132" s="2" t="n"/>
-      <c r="E132" s="2" t="n"/>
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>বিশ্রামরত অবস্থায় যে শক্তি ব্যয় হয় তাকে কী বলে?</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>যান্ত্রিক শক্তি</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>যৌগিক শক্তি</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>পেশি শক্তি</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>মৌলবিপাক শক্তি</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="A133" s="2" t="n"/>
-      <c r="B133" s="2" t="n"/>
-      <c r="C133" s="2" t="n"/>
-      <c r="D133" s="2" t="n"/>
-      <c r="E133" s="2" t="n"/>
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>1000 ক্যালরি =?</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>10 জুল</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>4.2 জুল</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>10 জুল</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>কিলাজুল</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="2" t="n"/>
-      <c r="B134" s="2" t="n"/>
-      <c r="C134" s="2" t="n"/>
-      <c r="D134" s="2" t="n"/>
-      <c r="E134" s="2" t="n"/>
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>নিচের কোনটিতে শুধুমাত্র শর্করা পাওয়া</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>দুধ</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>ডিম</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>খিচুরি</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>চিনি</t>
+        </is>
+      </c>
     </row>
     <row r="135" ht="15" customHeight="1">
-      <c r="A135" s="2" t="n"/>
-      <c r="B135" s="2" t="n"/>
-      <c r="C135" s="2" t="n"/>
-      <c r="D135" s="2" t="n"/>
-      <c r="E135" s="2" t="n"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>একজন পূর্ণবয়স্ক মানুষে দিনে কত ক্যালরি অশ্য কান</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>220-250  ক্যালরি</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Noish) ক্যালরি</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>প্রায় ৭০ ক্যালরি</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>20NN)-25X) ক্যালরি</t>
+        </is>
+      </c>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="A136" s="2" t="n"/>
-      <c r="B136" s="2" t="n"/>
-      <c r="C136" s="2" t="n"/>
-      <c r="D136" s="2" t="n"/>
-      <c r="E136" s="2" t="n"/>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>15 থাম শর্করায় খাদ্য ক্যালরি</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>30খাদ্য ক্যালরি</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>150ক্যালরি</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>135খাদ্য ক্যালরি</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>60খাদ্য ক্যালরি</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="A137" s="2" t="n"/>
-      <c r="B137" s="2" t="n"/>
-      <c r="C137" s="2" t="n"/>
-      <c r="D137" s="2" t="n"/>
-      <c r="E137" s="2" t="n"/>
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>পূর্ণ বিধামরত অবস্থায় মানব শরীরের ব্যবহৃত শনি পরিমাণ নির্দেশ করে</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>ও বিএমআই</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>জুল</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>ক্যলরি</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>ও বিএমআর</t>
+        </is>
+      </c>
     </row>
     <row r="138" ht="15" customHeight="1">
-      <c r="A138" s="2" t="n"/>
-      <c r="B138" s="2" t="n"/>
-      <c r="C138" s="2" t="n"/>
-      <c r="D138" s="2" t="n"/>
-      <c r="E138" s="2" t="n"/>
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>মানবদেহের গড়ন ও চর্বির সূচক কোনটা</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>বিএসআর</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>বিএসটিআই</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>ডিএমপি</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>বিএমআই</t>
+        </is>
+      </c>
     </row>
     <row r="139" ht="15" customHeight="1">
-      <c r="A139" s="2" t="n"/>
-      <c r="B139" s="2" t="n"/>
-      <c r="C139" s="2" t="n"/>
-      <c r="D139" s="2" t="n"/>
-      <c r="E139" s="2" t="n"/>
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>আমাদের শরীরের কতজগ শক্তি উৎপাদন বিএমআর নিয়ন্ত্রণ করে</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>30-45 ভাগ</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>40-55 ভাগ</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>50-65 ভাগ</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>60-75 ভাগ</t>
+        </is>
+      </c>
     </row>
     <row r="140" ht="15" customHeight="1">
-      <c r="A140" s="2" t="n"/>
-      <c r="B140" s="2" t="n"/>
-      <c r="C140" s="2" t="n"/>
-      <c r="D140" s="2" t="n"/>
-      <c r="E140" s="2" t="n"/>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>খাদ্য গ্রহণে আমাদের শরীর কত শতাংশ শক্তি পায়?</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>40-50%</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>20-30%</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>30-40%</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>১0-20%</t>
+        </is>
+      </c>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
-      <c r="C141" s="2" t="n"/>
-      <c r="D141" s="2" t="n"/>
-      <c r="E141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>বিএমআই =?</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>দৈনিক খাদ্য গ্রহণ / ও দেহের উচ্চতা (m)}</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>দৈহিক উচ্চতা (m)./দৈনিক খাদ্য গ্রহণ (kg)</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>দৈহিক ওজন (kg)/দৈহিক উচ্চতা (m)</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>দৈহিক উচ্চতা (kg) /দৈহিক ওজন (m))</t>
+        </is>
+      </c>
     </row>
     <row r="142" ht="15" customHeight="1">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
-      <c r="C142" s="2" t="n"/>
-      <c r="D142" s="2" t="n"/>
-      <c r="E142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>25 মিটার উচ্চতা এবং ৫ কেজি ওজনের একজন ব্যক্তি বিএমআই</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="15" customHeight="1">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
-      <c r="C143" s="2" t="n"/>
-      <c r="D143" s="2" t="n"/>
-      <c r="E143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>মেগা =?</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>100জুল</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>1000জুল</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>100 কিলাজুল</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>1000কিলাজুল</t>
+        </is>
+      </c>
     </row>
     <row r="144" ht="15" customHeight="1">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
-      <c r="C144" s="2" t="n"/>
-      <c r="D144" s="2" t="n"/>
-      <c r="E144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>আতিক সংস্থার মতে, খাদ্যের ব্যবহার করা উচিত</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>কিলাক্যালরি</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>জুল</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>মেগাজুল</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>কিলাজুল</t>
+        </is>
+      </c>
     </row>
     <row r="145" ht="15" customHeight="1">
-      <c r="A145" s="2" t="n"/>
-      <c r="B145" s="2" t="n"/>
-      <c r="C145" s="2" t="n"/>
-      <c r="D145" s="2" t="n"/>
-      <c r="E145" s="2" t="n"/>
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>শরীরের কর্মক্ষম অষ্ট রাখতে সাহায্য।</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>অতিরিক্ত খাদ্য</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>নিয়মিত বিনাদন</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>বসে কাজ করা</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>পরিমিত শরীরচর্চা</t>
+        </is>
+      </c>
     </row>
     <row r="146" ht="15" customHeight="1">
-      <c r="A146" s="2" t="n"/>
-      <c r="B146" s="2" t="n"/>
-      <c r="C146" s="2" t="n"/>
-      <c r="D146" s="2" t="n"/>
-      <c r="E146" s="2" t="n"/>
-    </row>
-    <row r="147" ht="15" customHeight="1"/>
-    <row r="148" ht="15" customHeight="1"/>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="15" customHeight="1"/>
-    <row r="156" ht="15" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="163" ht="15" customHeight="1"/>
-    <row r="164" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
-    <row r="166" ht="15" customHeight="1"/>
-    <row r="167" ht="15" customHeight="1"/>
-    <row r="168" ht="15" customHeight="1"/>
-    <row r="169" ht="15" customHeight="1"/>
-    <row r="170" ht="15" customHeight="1"/>
-    <row r="171" ht="15" customHeight="1"/>
-    <row r="172" ht="15" customHeight="1"/>
-    <row r="173" ht="15" customHeight="1"/>
-    <row r="174" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
-    <row r="176" ht="15" customHeight="1"/>
-    <row r="177" ht="15" customHeight="1"/>
-    <row r="178" ht="15" customHeight="1"/>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="180" ht="15" customHeight="1"/>
-    <row r="181" ht="15" customHeight="1"/>
-    <row r="182" ht="15" customHeight="1"/>
-    <row r="183" ht="15" customHeight="1"/>
-    <row r="184" ht="15" customHeight="1"/>
-    <row r="185" ht="15" customHeight="1"/>
-    <row r="186" ht="15" customHeight="1"/>
-    <row r="187" ht="15" customHeight="1"/>
-    <row r="188" ht="15" customHeight="1"/>
-    <row r="189" ht="15" customHeight="1"/>
-    <row r="190" ht="15" customHeight="1"/>
-    <row r="191" ht="15" customHeight="1"/>
-    <row r="192" ht="15" customHeight="1"/>
-    <row r="193" ht="15" customHeight="1"/>
-    <row r="194" ht="15" customHeight="1"/>
-    <row r="195" ht="15" customHeight="1"/>
-    <row r="196" ht="15" customHeight="1"/>
-    <row r="197" ht="15" customHeight="1"/>
-    <row r="198" ht="15" customHeight="1"/>
-    <row r="199" ht="15" customHeight="1"/>
-    <row r="200" ht="15" customHeight="1"/>
-    <row r="201" ht="15" customHeight="1"/>
-    <row r="202" ht="15" customHeight="1"/>
-    <row r="203" ht="15" customHeight="1"/>
-    <row r="204" ht="15" customHeight="1"/>
-    <row r="205" ht="15" customHeight="1"/>
-    <row r="206" ht="15" customHeight="1"/>
-    <row r="207" ht="15" customHeight="1"/>
-    <row r="208" ht="15" customHeight="1"/>
-    <row r="209" ht="15" customHeight="1"/>
-    <row r="210" ht="15" customHeight="1"/>
-    <row r="211" ht="15" customHeight="1"/>
-    <row r="212" ht="15" customHeight="1"/>
-    <row r="213" ht="15" customHeight="1"/>
-    <row r="214" ht="15" customHeight="1"/>
-    <row r="215" ht="15" customHeight="1"/>
-    <row r="216" ht="15" customHeight="1"/>
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>যে সব প্রাণী দিনে বিশ্রাম নেয় কিন্তু বাতে কর্মক্ষম থাকে তাদের কী বলে?</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>কর্মী</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>দিবাচর।</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>শ্রমিক</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>নিশাচর</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>শরীরচর্চার মাধ্যমে নিচের কোন রাগটি থেকে পরিত্রাণ পাওয়া যায়?</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>জন্ডিস</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>হাঁপানি।</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>বাতজ্বর</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>ডায়াবেটিস</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>নিচের কোন পদার্থটি খাদ্য সংরক্ষণে অনুমাদিতভাবে ব্যবহার করা হয়?</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ফরমালিন</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>রঞ্জক পদার্থ</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>ডিডিটি</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>সালফার ডাইঅক্সাইড</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>বাণিজ্যিক রঙ কোন অঙ্গের কার্যকারিতা। নষ্ট করে দেয়?</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>পাকস্থলী</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>হৃৎপিণ্ড</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>কিডনি</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ফরমালিন কোন রাগ সৃষ্টি করতে পারে?</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>হৃদরাগ</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>স্ট্রোক</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>উচ্চরক্তচাপ</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>ক্যান্সার</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>কোনটি শিশুর মনের বিকাশ বৃদ্ধিতে প্রভাব রাখে?</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ফরমালিন</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>কীটনাশক</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>হেভিমেটাল</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>রঙিন জিনিস</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>কোনটি মৎস্য ও পশু খাদ্যে ব্যবহারের ফলে প্রাণীর দেহে জমা হয়?</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>কীটনাশক</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>হেভিমেটাল</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ফরমালিন</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>এন্টিবায়ােটিক</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>কাচা ফল পাকাতে ব্যবহার করা হয়?</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>সরবেট ও ডিডিটি</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>কারবাইড</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>সফট</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>ফরমালিন</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>এনার্জি পানীয় জলে ব্যবহার করা হয় কোনটি?</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ফরমালিন</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ডিডিটি</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>কারবাইড</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>সরবেট</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ফল পাকাতে কোন পদার্থ ব্যবহার করা। যায়?</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>চুন</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>সরবেট</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>এসিটিক এসিড</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>কার্বাইড</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>শুটকি সংরক্ষণে কোন পদার্থটি ব্যবহার। করা হয়?</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>কার্বাইড</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>সরবেট</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>চুন</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>ডিডিটি</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>কোন পদার্থটখাদ্য সংরক্ষণে অনুমোদিত ব্যবহার করা হয়?</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ওভিটি</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়াম এপারনেট</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>সাডিয়াম বাইকার্বনেট</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ক্যালসিয়াম কার্বনেট</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>বাণিজ্যিক রং দেহের কোন অঙ্গ কার্যকারিতা নষ্ট করে</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>পাকস্থলী</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>হপিণ্ড</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>অনালি</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>যকৃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>নিচের কোনটি মাছের কোষের সাথে কাল তৈরি করে?</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>হেভিমেটাল</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>কীটনাশক</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>এন্টিবায়াটিক</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>ফরমালিন</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>যে তন্ত্রের সাহায্যে খাদ্যদ্রব্য হে দেহের গ্রহণ উপযােগী উপাদানে পরিণত ও শাষিত হয় তাকে কী বলে</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>পৌষ্টিকনালি</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>শ্বসনতন্ত্র</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>পৌষ্টিকতন্ত্র</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>পৌষ্টিকনালির শেষ কোথায়?</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>হৎপিণ্ডে</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>পাকস্থলীতে</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>পায়ে</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>পায়ুতে</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>দেহের খাদ্য করবে শাষিত হওয়ার উপযাগী হয়?</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>তিনভাবে</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>চারভাবে</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>পাঁচভাবে</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>দুইভাবে</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="15" customHeight="1">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>রাসায়নিক প্রক্রিয়া পরিপাকের কততম ধাপ?</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>প্রথম</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>চতুর্থ</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>তৃতীয়</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>দ্বিতীয়</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>স্বাদ গ্রহণের জন্য কোন অঙ্গটি ব্যবহৃত।</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>হাত</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>জিহ্বা</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>গহ্বরের</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>মুখ</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>লাঙ্খছি থেকে কোনট ক্ষরিত হয়?</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>রক্তরস</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>হরমান।</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>প্লাজমা</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>এনজাইম</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>কোনটি খাদ্যকে পিচ্ছিল করে। গলধঃকরণের সাহায্যে করে?</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>মলটেজ</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>টায়নি।</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>ট্রিপসিন</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>মিউসিন</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>লালারসে কোন এনজাইম থাকে?</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ট্রিপসিন</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>লাইপেজ</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>টায়ালিন</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>মিউসিন</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>মানবদেহে দাঁত কয়বার গলায়</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>একবার</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>দুবার</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>চারবার</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>তিনবার</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>মানুষের মুখে মাট কতটি দীক থাকে।</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>35টি</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>34টি</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>33টি</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>32টি</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>মানুষের স্থায়ী দাত কত প্রকার</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>২</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>৩</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>৫</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>৪</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>খাদ্য বস্তুকে ছেড়ার কাজ করে কোন দাত ?</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>কর্তন দাঁত</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>পেষণ দাঁত</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>অপেষণ দাঁত</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>ছেদন দাঁত</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>সাতের ভেষ্টিনকে আবৃতকারী পাতলা আরশের নাম কী?</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ডেন্টিন</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>এনামেল</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>দন্তমজ্জা</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>সিমেন্ট</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>মানবদেহের সবচেয়ে শক্ত অংশ কোনটি?</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>কান।</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>জিহ্বা</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>দাঁত</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>দাঁতের কয়টি অংশ থাকে?</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>দুইটি</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>পাঁচটি</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>চারটি</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>তিনটি</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>কীসের মাধ্যমে ডেন্টিন অংশে পুষ্টি ও অক্সিজেন সরবরাহ হয়?</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ডেন্টিন</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>এনামেল</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>সিমেন্ট</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>দন্তমজ্জা</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>মুখগহ্বরের পরের অংশ কোনটি?</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>অন্ননালি</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>পাকস্থলী</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>অন্ত্র</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>গলবিল</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>মুখগহ্বর থেকে খাদ্যবস্তু কিসের মাধ্যমে নালিতে পেীছে</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>বৃহদান্ত্রের</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>পাকস্থলীর</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>অন্ত্রের</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>গলবিলের</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>গলবিল থেকে পাকস্থলী পর্যন্ত বিস্তৃত নালিটির নাম কী?</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>অন্ত্রক</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>গলবিল</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>পাকস্থলী</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>অন্ননালি</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>গ্যাস্ট্রিগ্রন্থি থেকে নিঃসৃত রস কীসে সহায়তা করে?</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>কোষ গঠনে</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>খাদ্য পরিবহনে</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>দৈহিক বৃদ্ধিতে</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>খাদ্য পরিপাকে</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>অন্ত্রের প্রধান অংশ কয়টি?</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>চারটি</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>পাঁচটি</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>তিনটি</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>দুইটি</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ক্ষুদ্রান্ত্রের অন্তঃপ্রাচীরে অবস্থিত। আঙুলের মতা প্রক্ষেপিত অংশকে কী। বলে?</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>অন্ত্র</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>এনামেল</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>সিমেন্ট</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>ভিলাস</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>কোনটি পরিপাককৃত খাদ্য উপাদান শাষণ করে।</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>মুকুট</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>শুল</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>গ্রীবা</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>ভিলাস</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>পাকস্থলীর পরের অংশের নাম কী?</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ফুসফুস</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>গলবিল</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>অন্ত্র</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ভ্রা কয়টি অংশে বিভক্ত</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>এক</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>দুই</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>চারটি</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>তিনটি</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="15" customHeight="1">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>সিকাম কোন অঙ্গের অংশ?</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>যকৃত</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>হৃৎপিও</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>ক্ষুদ্রান্ত</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>বৃহদন্ত্র।</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="15" customHeight="1">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ইলিয়ামের পর থেকে পা পর্যন্ত বিশ্ব মাটা নলাকৃতির অংশটি কী</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>খুদ্রান্ত</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>পায়</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>গলবিল</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>ব্রিহদান্ত</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="15" customHeight="1">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>কোনটি বৃহপত্রের অন্তর্ভুক্ত</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>লালছি</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>পাকস্থলী</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>কোলন</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="15" customHeight="1">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>যেসৰ স্থির রস খাদ্য পরিপাকে অংশ নেয় তাদেরকে বলো</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>লালাগ্রন্থি</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>ইলিয়াম</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>পৌষ্টিক গ্রন্থি</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="15" customHeight="1">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>মানুষের কয় জোড়া লালাগ্রহি রয়েছে</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>পাঁচ জোড়া</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>চার জোড়া</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>দুই জোড়া</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>তিন জোড়া</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="15" customHeight="1">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>টায়ালিন এনজাইমের সাথে কোন উপাদানটি লালারসে উপস্থিত থাকে</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>কোলেস্টেরল</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>লবণ</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>গুকোজ</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>পানি</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="15" customHeight="1">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>মানবদেহের সবচেয়ে গ্রন্থি কোনটি?</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>হৃদপিণ্ড</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয়</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ফুসফুস</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="15" customHeight="1">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>যকৃতের রং কেমন?</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>নীল</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>সবুজ</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>গাঢ় লাল</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>লালচে-খয়েরি</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="15" customHeight="1">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>যকৃতের নিচের অংশে কোনটি থাকে।</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>পিত্তনালি</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>পিত্তথলি</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয়</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>লালাগ্রন্থি</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="15" customHeight="1">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>যকৃৎকয়টি অসম্পূর্ণ খণ্ড নিয়ে গঠিত?</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>দুইটি</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>তিনটি</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>পাঁচটি</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>চারটি</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="15" customHeight="1">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>যকৃতের প্রতিটি খণ্ড কী আরা তৈরি?</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>সিমেন্ট</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ডেন্টিন</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>এনামেল</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>লাবিউল</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="15" customHeight="1">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>যকৃৎকী তৈরি করে?</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>হরমান</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয় রস</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>পিত্তলবণ</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>পিত্তরস</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="15" customHeight="1">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>পিত্তরসের স্বাদ কেমন?</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>স্বাদহীন</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>মিষ্টি</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>লবণাক্ত</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>তিক্ত</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="15" customHeight="1">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>পিত্তরসের উপাদান কোনটি?</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>হাইড্রোক্লোরিক এসিড</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ইউরিক এসিড</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>অজৈব লবণ</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>কোলেস্টেরল</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="15" customHeight="1">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>যকৃতের উতৃত্ত গুকোজ কীরূপে সঞ্চয় করে রাখে?</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ল্যাকটোজ রূপে</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>তরল আকারে</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>এনজাইম রূপে</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>গ্লাইকোজেন রূপে</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="15" customHeight="1">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>যকৃতের সঞ্চিত গ্লাইকোজেন রক্তে কোনটির মাত্রা ঠিক রাখে</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>অণুচক্রিকার</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>লাহিত কণিকার</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>শ্বেত কণিকার</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>গ্লুকোজের</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="15" customHeight="1">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>পিত্তরসের রং কেমন?</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>গাঢ় লাল</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>হালকা হলুদ</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>হলুদ</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>গাঢ় সবুজ</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="15" customHeight="1">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>কোনটি খাদ্যের অতৰ প্ৰশমিত করে</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>লালারস</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>যকৃৎ</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ইলিয়াম</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>পিত্তরস</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="15" customHeight="1">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>পিওস কোথায় জমা থাকো</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>যকৃতে</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>পাকস্থলিতে</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>খুদ্রান্তে</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>পিত্তথলিতে</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="15" customHeight="1">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>যকৃতে অ্যামাইনা এসিড কী জাতীয় পপ শাষণে সাহায্য করে</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>আমিষ</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>শর্করা</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>ভিটামিন</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>স্নেহ</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="15" customHeight="1">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>অগ্নাশয় থেকে নিচের কোটি কি</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>টায়নি</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ট্রিপসিন</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>রেনিন</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>ইনসুলিন</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="15" customHeight="1">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>অগ্নাশয় কোথায় অস্থান করে?</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>যকৃতের নিচে</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>পাকস্থলীর সামনে</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>যকৃতের উপরে</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>পাকস্থলীর পেছনে</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="15" customHeight="1">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>অগ্নাশয় রস যকৃ-অগ্নাশয় লিলে।</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ফুসফুসে</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>যকৃতে</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ডিওডেনামে</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>সকামে</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="15" customHeight="1">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয় থেকে নিসৃত রসের নাম</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>পিত্তরস</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>যকৃৎ রস</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>আন্ত্রিক রস</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয় রস</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="15" customHeight="1">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>গ্যাস্ট্রিক এস্থি কোথায় অবস্থান করে?</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>যকৃতের গায়ে</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয়ে</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>ক্ষুদ্রান্ত্রের ভিলাই-এ</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>পাকস্থলীর প্রাচীরে</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="15" customHeight="1">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>গ্যাস্ট্রিক রসের অপর নাম কী?</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>এনজাইম</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>আন্ত্রিক রস</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয় রস</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>পাচক রস</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="15" customHeight="1">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>আন্ত্রিক গ্রন্থি থেকে নিঃসৃত রসের নাম কী?</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>পিত্তরস</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>অগ্ন্যাশয় রস।</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>পাচক রস</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>আন্ত্রিক রস</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="15" customHeight="1">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>টায়ালিন শ্বেতসারকে কোনটিতে পরিণত করে?</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ফুক্টোজ</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>গ্ল্যাকটোজ</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>গুকোজ</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>মলটোজ</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="15" customHeight="1">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>কোন প্রক্রিয়ায় খাদ্যদ্রব্য মুখগহ্বর থেকে প্রনালির মধ্যদিয়ে পাকস্থলীতে যায়?</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>মেটালাইসিস</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>হেপাটাইটিস</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>পেপসিনাজনেসিস</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>পেরিস্টানসিস</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="15" customHeight="1">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>হাইড্রোক্লোরিক এসিড নিচের কোনটিকে মেরে ফেলে</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ভাইরাস</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ছত্রাক</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>কৃমি</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>ব্যাকটেরিয়া।</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="15" customHeight="1">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>পেপসিন কী?</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>হরমান</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>গ্লাইকোজেন</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>শর্করা</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>এনজাইম</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="15" customHeight="1">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+    </row>
     <row r="217" ht="15" customHeight="1"/>
     <row r="218" ht="15" customHeight="1"/>
     <row r="219" ht="15" customHeight="1"/>

--- a/DExcel.xlsx
+++ b/DExcel.xlsx
@@ -987,5788 +987,4020 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি ম্যাক্রো উপাদান?</t>
+          <t>কৃত্রিম উপায়ে ফল পাকাতে কোন হরমোন সাহায্য করে?</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরিন</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>ম্যাঙ্গানিজ</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>মলিবডেনাম</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের ম্যাক্রো উপাদানের সংখ্যা কত?</t>
+          <t>উদ্ভিদের বৃদ্ধি প্রতিবন্ধক হরমান কোনটি?</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>অ্যাবসিসিক এসিড</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>অত্যাবশ্যকীয় পুষ্টি উপাদান কয়টি?</t>
+          <t>ইথিলিন কী জাতীয় পদার্থ?</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>কঠিন</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>তরল</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>উদ্বায়ী</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>গ্যাসীয়</t>
         </is>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের কয়টি অজৈব উপাদান শনাক্ত করা হয়েছে?</t>
+          <t>ডাবের পানিতে পাওয়া যায় কোন হরমান?</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের মাইক্রো উপাদানের সংখ্যা কয়টি?</t>
+          <t>উদ্ভিদের প্রতিটি কোষই কী উৎপাদনে সক্ষম?</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>পানি</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>অক্সিজেন</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>খাদ্য</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>হরমান</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি মাইক্রো উপাদান?</t>
+          <t>অঙ্কুরাদগমে কার্যকারিতা কোন হরমোনের?</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>দস্তা</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>পরিমাণের ওপর ভিত্তি করে অত্যাবশ্যকীয় খনিজ পুষ্টি কয় ভাগে বিভক্ত।</t>
+          <t>কোন হরমোন সর্বপ্রথম ছত্রাক থেকে  নিষ্কাশন করা হয়?</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>তিন ভাগে</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>চার ভাগে</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>এক ভাগে</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>দুই ভাগে</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি ম্যাক্রো উপাদান?</t>
+          <t>মুক্তির চলনকে কয় ভাগে ভাগ করা যায়</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>ম্যাংগানিজ (Mn)</t>
+          <t>তিনভাগে</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>বারন (B</t>
+          <t>চারভাগে</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরিন (Cl)</t>
+          <t>পাঁচভাগে</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>সালফার (S)</t>
+          <t>দুভাগে</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের স্বাভাবিক বৃদ্ধির জন্য যেসব উপাদান বেশি পরিমাণে দরকার হয় তাকে কী বলে?</t>
+          <t>ঢারিজেন উৎপন্ন হয় গাছের কোন | অংশে</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>মিলিনিউট্রিয়েন্ট</t>
+          <t>ফুলে</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>মাইক্রোনিউট্রিয়েন্ট</t>
+          <t>মূলে</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>ন্যানানিউট্রিয়েন্ট</t>
+          <t>কাছে</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>ম্যাক্রোনিউট্রিয়েন্ট</t>
+          <t>পাতায়</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি মাইক্রো-উপাদান?</t>
+          <t>অক্সিন-এর নামকরণ করেন কোন বিজ্ঞানী</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন (N)</t>
+          <t>চার্লস ডারউইন</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন (O)</t>
+          <t>ফ্যারাডে স্যাক্স</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম (K)</t>
+          <t>কোল হ্যাগেন</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরিন (Cl)</t>
+          <t>সিষ্ট</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের স্বাভাবিক বৃদ্ধির জন্য অত্যন্ত সামান্য পরিমাণে প্রয়াজন</t>
+          <t>উদ্ভিদের যেসকল হরমান এখনা আলাদা করা যায়নি তাদের কী বলে?</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>ন্যানানিউট্রিয়েন্ট</t>
+          <t>স্টিমুলেটেড হরমান</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>ম্যাক্রোনিউট্রিয়েন্ট</t>
+          <t>আইসালেটেড হরমান</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>মিলিনিউট্রিয়েন্ট</t>
+          <t>নন-আইসালেটেড হরমান</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>মাইক্রোনিউট্রিয়েন্ট</t>
+          <t>পস্টুলেটেড হরমান</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>কোনটি উদ্ভিদের মাইক্রো উপাদান?</t>
+          <t>উদ্ভিদের বৃদ্ধি ও বিকাশ উদ্ভিদ দেহে বিশেষ বস্তুর প্রভাবে হয়ে থাকে, কোন বিজ্ঞানী এ মত প্রকাশ করেন?</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>ম্যাঙ্গানিজ</t>
+          <t>বিজ্ঞানী বেলিস</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>বিজ্ঞানী স্টারলিং</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>বিজ্ঞানী ডারউইন</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>কার্বন</t>
+          <t>বিজ্ঞানী স্যাক্স</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>কোনটির অভাবে ক্লোরাফিল সৃষ্টি ব্যাহত হয়?</t>
+          <t>কোনটির প্রভাবে উদ্ভিদের বিভিন্ন কাজের মধ্যে সমন্বয় সাধিত হয়?</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>হাইড্রোজেন</t>
+          <t>এনজাইম</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন</t>
+          <t>সূর্যালাক</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>খনিজ পদার্থ</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>হরমান</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদ মাটি থেকে কী হিসেবে পুষ্টি উপাদান শাষণ করে?</t>
+          <t>কোনটি উদ্ভিদের জীবনচক্রে জটিল ও। চলমান প্রক্রিয়া?</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>লবণ</t>
+          <t>উদ্ভিদের খাদ্য সঞ্চয়</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>অজৈব সার</t>
+          <t>চলন</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>জৈব সার</t>
+          <t>উদ্ভিদের খাদ্য গ্রহণ</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>আয়ন</t>
+          <t>উদ্ভিদের বৃদ্ধি</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি উদ্ভিদ পানি থেকে গ্রহণ করে?</t>
+          <t>সালাকসংশ্লেষণ কোনটির প্রভাবে ক্যারিয়ামের কার্যকারিতা বৃদ্ধি পায়?</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>কার্বন</t>
+          <t>AIA</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>IDR</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরিন</t>
+          <t>TAA</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>হাইড্রোজেন</t>
+          <t>RIAA</t>
         </is>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদ কোনটি বায়ুমল হতে গ্রহণ করে?</t>
+          <t>ফলের মাচন বিলম্বিত করে কোনটি?</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>ক্লারিজেন</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>হাইড্রোজেন</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>কার্বন</t>
+          <t>অক্সিন</t>
         </is>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>কোনটি কোষ বিভাজনের মাধ্যমে উদ্ভিদের বৃদ্ধি নিয়ন্ত্রণ করে?</t>
+          <t>ফারিজেন নিচের কোন কাজটি করে?</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন</t>
+          <t>খাদ্য গ্রহণ প্রক্রিয়ায় অংশ নেয়</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>উদ্ভিদে ফুল ফোটাতে সাহায্য করে</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>উদ্ভিদে কোষ ও কলার সামঞ্জস্যতা রক্ষা করে</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>উদ্ভিদের বৃদ্ধিতে সাহায্য করে</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের মূল, ফুল ও ফল উৎপাদন ও বর্ধনে কোনটির ভূমিকা রয়েছে?</t>
+          <t>তার্নালাইজেশন পদ্ধতির আবিষ্কারক কে?</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>সাডিয়াম</t>
+          <t>সাৱলিং</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>বেলিস</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>স্যাকস</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>লাইসেনকে</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>DNA, RNA, ATP প্রভৃতির গাঠনিক উপাদান কোনটি?</t>
+          <t>অজিন হরমানটি কে আবিষ্কার করেন?</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>স্যাল</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>বেলিস</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>স্টারলিং</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>চার্লস ডারউইন</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদ বায়ুমণ্ডল থেকে গ্রহণ করে।</t>
+          <t>এককোষী উদ্ভিদের চলন অব্দ কোনটি?</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম ও ক্যালসিয়াম</t>
+          <t>ফাজেলা</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন,হাইড্রোজেন</t>
+          <t>পাখনা</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>কার্বন ও নাইট্রোজেন</t>
+          <t>ফুল</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>কার্বন,অক্সিজেন</t>
+          <t>উঞ্জিলে</t>
         </is>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদ অক্সিজেন, হাইড্রোজেন ও কার্বন ব্যতীত অন্যসব উপাদান কোথা থেকে শাষণ করে?</t>
+          <t>ফোটাতে সাহায্য করে নিচের কোন হৱমান?</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>প্রাণী</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>পানি</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>বায়ু</t>
+          <t>অ্যাসিসিক এসিড</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>মাটি</t>
+          <t>ফ্লোরিজেন</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের পানি থেকে গ্রহণকৃত পুষ্টি উপাদান হল</t>
+          <t>কোন হরমানটি গ্যাসীয় পদার্থ?</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>কার্বন ও অক্সিজেন</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>হাইড্রোজেন ও নাইট্রোজেন</t>
+          <t>জিৰেৱেলিন</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম ও ক্যালসিয়াম</t>
+          <t>সাইটোকাইনন</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>হাইড্রোজেন ও অক্সিজেন</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>খাদ্য প্রস্তুতে বাধাপ্রাপ্ত হলে কোন  প্রক্রিয়ার বিঘ্ন ঘটে?</t>
+          <t>অক্সিন-এর প্রভাবে অভিস্রবণ ও শ্বসন | ক্রিয়ার কী হয়?</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>ব্যাপন</t>
+          <t>হার কমে</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>প্রস্বেদন</t>
+          <t>হার স্বাভাবিক থাকে</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>অভিস্রবণ</t>
+          <t>অতিরিক্ত কমে</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>শ্বসন</t>
+          <t>হার বৃদ্ধি পায়</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>কোনটি ক্লোরােফিল অণুর একটি উপাদান?</t>
+          <t>মূলে পানি অভিমুখী চলনকে কী বলে?</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>এনট্রপিক চলন</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>ফটোট্রপিক চলন</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>বারন</t>
+          <t>ট্রপিক চলন</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>হাইড্রোট্রপিক চলন</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের পত্ররন্ধ খােলা ও বন্ধ করতে সাহায্য করে কোনটি?</t>
+          <t>বীজহীন ফল উৎপাদনে কোনটি ব্যবহার হয়?</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>পারন</t>
+          <t>সাইটোকাইনন</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>কার্বন</t>
+          <t>ফ্লারিজেন</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>অক্সিন</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিসের বহু জৈবিক ক্রিয়া বিক্রিয়ায় কোন উপাদানটি সহায়ক হিসেবে কাজ করে?</t>
+          <t>IMA এর পূর্ণনাম ?</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>ইন্ডাল অ্যাকরবিক এসিড</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>কার্বক্সিলিক এসিড</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>ইন্ডাল অ্যাসকরাবিক কার্বনিক এসিড</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>ইন্ডাল অ্যাসেটিক এসিড</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>কোষ বিভাজনের মাধ্যমে উদ্ভিদের বৃদ্ধি নিয়ন্ত্রণ করে?</t>
+          <t>জিৰেৱেলিনকে কোথা থেকে নিষ্কাশন করা হয়?</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>ব্যাকটেরিয়া থেকে</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>শৈবাল থেকে</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>ভাইরাস থেকে</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>ভাইরাস থেকে</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>কোনটি ছাড়া উদ্ভিদের পুষ্টি একেবারেই সম্ভব নয়</t>
+          <t>উক্তিদের বিভিন্ন অঙ্গবিকাশে কোনটির প্ৰতাৰ লক্ষণীয়।</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>বায়ু</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>পানি</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>মাটি</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>আলা ও উষ্ণতা</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদ মাটি থেকে কয়টি পুষ্টি উপাদান পেয়ে থাকে?</t>
+          <t>চন্দ্রমল্লিকা কোন ধরনের অভিলা</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>এ-দিবা গুলি</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>দীর্থ অন্ধকার জল</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>নাতিশীতোষ্ণ ফ্রি</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>অন্ধকারের দিকে</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>দ্ভিদের পুষ্টি উপাদানের সবগুলা উপাদান পাওয়া যায় কীসে?</t>
+          <t>ঘনত্ব বাড়ায় কোনটি?</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>বায়ুতে</t>
+          <t>জিৰেৱেলিন</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>রাসায়নিক সারে</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>মাটিতে</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>জৈব সারে</t>
+          <t>ইপিলিন অতিকরে</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের সাধারণ দৈহিক বৃদ্ধিতে কোনটি গুরুত্বপূর্ণ ভূমিকা পালন করে?</t>
+          <t>মীপৰ অনুৰ করে কে?</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিন ও ক্লোরাফিলের</t>
+          <t>কাণ্ডের অগ্রভাগ</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>কার্বন,ডাইঅক্সাইড</t>
+          <t>মূলের অগ্রভাগ</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম,নিউক্লিক এসিড</t>
+          <t>পাতা</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন,হাইড্রোজেন</t>
+          <t>অণমূল</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>অত্যাবশ্যকীয় উপাদান কোনটি?</t>
+          <t>শীতের গম গৱমকালে কত ডিগ্রি সে, উষ্ণতা বাড়ালে তা স্বাভাবিক পুশ প্রস্ফুটন ঘটে?</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>বারন</t>
+          <t>2 ডিগ্রি</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>হাইড্রোজেন</t>
+          <t>2-4 ডিগ্রি</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন</t>
+          <t>3-4 ডিগ্রি</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>2-3 ডিগ্রি</t>
         </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>নিজের কোন খাদ্য উপাদানটি রাগ প্রতিরাধ করে?</t>
+          <t>অধিকাংশ জিৰেৱেলিন উক্তিদের কোথায় পাওয়া যায়?</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>আমিষ</t>
+          <t>পত্রের বর্ধিষ্ণু অঞ্চল</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>শর্করা</t>
+          <t>চারাগাছ</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>খনিজ লবণ</t>
+          <t>বীজপত্র।</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন</t>
+          <t>পাকা বীজ</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের কোষ কলার পানির পরিমাণ বৃদ্ধি করে কোনটি?</t>
+          <t>জিবেরেলিনের প্রভাবে কোনটি হয়?</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>বীজহীন ফল</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>মূল সৃষ্টি</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>কোষ বিভাজন</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>ফুল ফোটা</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিন ক্লোরাফিলের অত্যাবশ্যকীয় উপাদান কোনটি?</t>
+          <t>কোনটির প্রভাবে উক্তি কাজের অতি বৃদ্ধি ঘটে?</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরিন</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>ভার্নালিন</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের শ্বসন প্রক্রিয়ায় সাহায্য করে কোনটি</t>
+          <t>পাতা ঝরার জন্য দায়ী কোনটি?</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>মলিবডেনাম</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>অ্যাসিসিক এসিড</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>বায়বীয় শ্বসনের অত্যাবশ্যকীয় উপাদান কোনটি?</t>
+          <t>দ্রুত কোষ বিভাজন করাতে হলে কোনটি ব্যবহার করতে হবে?</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>বারন</t>
+          <t>অ্যাসিসিক এসিড</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>জিৰেৱেলিন</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>আয়রন</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি ক্লোরোপ্লাস্ট গঠন ও সংরক্ষণে প্রয়োজন?</t>
+          <t>কোন রােগের জীবাণু ধান গাছের অতি বৃদ্ধি ঘটায়?</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>ধানের ব্লাস্ট রাগ</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>খানের স্মার্ট রাগ</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>ক্যাডমিয়াম</t>
+          <t>খানের ব্লাইট লাগ</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>ম্যাংগানিজ</t>
+          <t>ব্যাকনি রাগ</t>
         </is>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটির উস্তিসের চিনি পরিবহনে পরাক্ষ প্রস্তাব রয়েছে</t>
+          <t>উদ্ভিদ হরমানকে কী বলা হয়?</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>হরমান</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>আয়রন</t>
+          <t>ফাইটোহরমোন</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>লসিকা</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>পারন</t>
+          <t>ভার্মালিন</t>
         </is>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>কোনটির সুগাৱৰীট এর মূল ও কাস্তের বৃদ্ধিতে ভূমিকা রয়েছে?</t>
+          <t>অধিকাংশ জিৰেৱেলিন উদ্ভিদের কোন অংশে পাওয়া যায়?</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>মলিবডেনাম</t>
+          <t>উদ্ভিদের মূলে</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>দস্তা</t>
+          <t>উদ্ভিদের কাছে</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>তামা</t>
+          <t>উদ্ভিদের কাও শীর্ষে</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরিন</t>
+          <t>উদ্ভিদের বীজে</t>
         </is>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরাফিল অণুর গুরুত্বপূর্ণ উপাদান কোনটি?</t>
+          <t>আগাছা দমনে কোন হরমান ব্যবহার করা হয়?</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>অ্যাসিসিক এসি</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>জিৰেৱেলিন</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>অক্সিন</t>
         </is>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>সাইটোক্রোমের সাংগঠনিক উপাদান কোনটি?</t>
+          <t>জিবেরেলিনের প্রভাবে উদ্ভিদের কোন অংশ দৈর্ঘ্যে বৃদ্ধি পায়</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>উদ্ভিদের পাতা</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>উদ্ভিদের মূল</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>উদ্ভিদের শাখা</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>আয়রন</t>
+          <t>উদ্ভিদের পর্বমধ্যগুলা</t>
         </is>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>অ্যামাইনা এসিড সংশ্লেষণের জন্য কী প্রয়োজন?</t>
+          <t>কোন হরমান উদ্ভিদের কক্ষমূলের বৃদ্ধি হবাহিত করে</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>ইউরিয়া</t>
+          <t>ডরমিন</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>থাইরক্সিন</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>দস্তা</t>
+          <t>অক্সিন</t>
         </is>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>কোন প্রক্রিয়ার ওপর তার উল্লেখযাগ্য প্রভাব রয়েছে?</t>
+          <t>ফুল ফোটাতে এবং বীজের সুপ্তাবস্থা কাটাতে কোন হরমান ব্যবহার করা হয়?</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>প্রস্বেদন</t>
+          <t>সাইটোকাইনিন</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>ব্যাপন</t>
+          <t>অকিন</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>অভিস্রবণ</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>শসন</t>
+          <t>জিবেরেলিন</t>
         </is>
       </c>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>অণুজীব দ্বারা বায়বীয় নাইট্রোজেন সংবন্ধনের জন্য আবশ্যক</t>
+          <t>হরমানকে কখনা কখনা কী হিসেবে অভিহিত করা হয়?</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>উত্তেজক পদার্থ</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>নিস্তেজক পদার্থ</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>রাসায়নিক কারখানা</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>মলিবডেনাম</t>
+          <t>রাসায়নিক দূত</t>
         </is>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>পাতায় মৃত অঞ্চল সৃষ্টির জন্য দায়ী কোনটি?</t>
+          <t>দর্শন ও শ্রবণে ভূমিকা নিচের কোনটি?</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>অথমস্তিষ্ক</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>বারন</t>
+          <t>করাটি</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>লেীহ</t>
+          <t>পশ্চাত্মস্তিষ্ক</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>মধ্যমস্তিষ্ক</t>
         </is>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটির অভাবে উদ্ভিদের পাতা বেগুনি রং ধারণ করে?</t>
+          <t>হরমান কোথা থেকে নিঃসৃত হয়?</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>নালিবিহীন গ্রন্থি থেকে</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>নালিবিহীন</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>পৌষ্টিকতন্ত্র থেকে</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>স্নায়ুতন্ত্র থেকে</t>
         </is>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>কোনটির অভাবে উদ্ভিদের কোষের বৃদ্ধি ও বিভাজন হ্রাস পায়?</t>
+          <t>গ্রন্থির কার্যকলাপ নিয়ন্ত্রণ করে কে?</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>পৌষ্টিকতন্ত্র</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>পৌষ্টিক নালি</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>অগ্ন্যাশয়</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>স্নায়ুতন্ত্র</t>
         </is>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের পাতা হলুদ হয়ে যাওয়ার প্রক্রিয়াকে কী বলে?</t>
+          <t>গ্রন্থি খাদ্য শেষ হলে পিপড়া কী নিঃসরণ বন্ধ করে?</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>ডাইব্যাক</t>
+          <t>অক্সিন হরমান</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>প্রাটিন ট্রাফিডিং</t>
+          <t>জিবেরেলিন হরমান</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>ফ্লোরাকিল</t>
+          <t>সাইটোকাইনিন হরমান</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরাসিস</t>
+          <t>ফেরামন হরমান</t>
         </is>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরাসিস রাগের জন্য দায়ী কোনটি?</t>
+          <t>বাতাসে ফেরামন নিঃসৃত হলে কত দূর পর্যন্ত ছড়িয়ে পড়ে?</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>।-2 কিলামিটার</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>4 s কিলামিটার</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>2-3 কিলামিটার</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>2.4 কিলামিটার</t>
         </is>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>উঞ্জিলে নাইট্রাজেনের অভাব হলে কোনটির সৃষ্টি বিঘ্ন ঘটে?</t>
+          <t>বাহ্যিক পরিবেশের উদ্দীপক কোনটি?</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরাসিস</t>
+          <t>পানি, CO</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>মেসাফিল</t>
+          <t>চাপ, তাপ</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>জাহেফিল</t>
+          <t>বায়ু, মাটি</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরাফিল</t>
+          <t>আলা, গন্ধ</t>
         </is>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>পাতার শীর্ষ ও কিনারা হলুদ হওয়ার</t>
+          <t>অভ্যন্তরীণ পরিবেশের উদ্দীপক কোনটি?</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাসের অভাব</t>
+          <t>আলা, গন্ধ</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>সালফারের অভাব</t>
+          <t>পানি, CO</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়ামের অভাব</t>
+          <t>বায়ু, মাটি</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়ামের অভাব</t>
+          <t>চাপ, তাপ</t>
         </is>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>কোন উপাদানটির অভাবে উদ্ভিদের পাতা, ফুল ও ফল ঝরে যেতে পারে?</t>
+          <t>কোনটি দেহের সমম্বয়ে অংশ নেয়?</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>এনজাইম</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>রক্ত</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>লসিকা</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>হরমান</t>
         </is>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>কোন উপাদানটির অভাব হলে উদ্ভিদের বৃদ্ধি বন্ধ ও উদ্ভিদ খর্বাকার হয়?</t>
+          <t>কোনটির মাধ্যমে হরমান পরিবাহিত হয়?</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>লসিকার মাধ্যমে</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>এনজাইমের মাধ্যমে</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>নালির মাধ্যমে</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>রক্তের মাধ্যমে</t>
         </is>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>কোনটির অভাবে উদ্ভিদের কচি পাতায় ক্লোরাসিস হয়?</t>
+          <t>স্নায়ুতন্ত্রের প্রধান কাজ কী</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>বারন</t>
+          <t>রক্ত পরিবহন করা</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>দেহের সাড়া প্রদান করা</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>মস্তিষ্ককে কর্মক্ষম করা</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>দেহের বিভিন্ন অংশে উন্দীপনা বহন করা</t>
         </is>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>কীসের অভাবে উদ্ভিদ হঠাৎ নেতিয়ে</t>
+          <t>কিসের কারণে প্রাণী তার কার্যকলাপ বা আচরণের পরিবর্তন করে থাকে?</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়ামের</t>
+          <t>এনজাইম</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাসের</t>
+          <t>লসিকা</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>বারনের</t>
+          <t>প্রাটিন</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়ামের</t>
+          <t>হরমান</t>
         </is>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের সালাকসংশ্লেষণের হার কমে যাওয়ার জন্য কোনটি দায়ী?</t>
+          <t>হরমানের কাজ নিয়ন্ত্রণ করে কে?</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>এনজাইম</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>দেহ</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>নালিহীন গ্রন্থি</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>স্নায়ুতন্ত্র</t>
         </is>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটির অভাবে উদ্ভিদের কাণ্ড দুর্বল ও ছাট হয়?</t>
+          <t>পিপড়া খাদ্যের খোঁজ পেলে খাদ্য উৎস থেকে বাসায় আসার পথে কী নিঃসৃত করে?</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>ৰারন</t>
+          <t>অক্সিন</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>ইথিলিন</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>ফ্লোরিজেন</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>ফেরামন</t>
         </is>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের বর্ধনশীল শীর্ষ অঞ্চল মরে যাওয়ার কারণ কী?</t>
+          <t>কর্টেক্সের রঙ কী?</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>লৌহের অভাব</t>
+          <t>লাল</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেনের অভাব</t>
+          <t>কালা</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়ামের অভাব</t>
+          <t>সাদা</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়ামের অভাব</t>
+          <t>ধূসর</t>
         </is>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটির অভাবে পাতায় লাল ও বেগুনি দাগ দেখা যায়?</t>
+          <t>স্নার রক?</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>লাল</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>কালা</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>বারন</t>
+          <t>ধূসর</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>সাদা</t>
         </is>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ডাইব্যাক রাগ সৃষ্টির জন্য দায়ী কোনটি?</t>
+          <t>মধ্যমপ্তিকের পেছনের অংশের নাম কী?</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>মেডুলা</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>মেডুলা অলংগাটা</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>বারন</t>
+          <t>মেনেনজেস</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>পনস পশ্চাৎ</t>
         </is>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের বর্ধনশীল অগ্রভাগ মরে যাওয়ার কারণ কোনটি?</t>
+          <t>মস্তিষ্ক কয়টি অংশে গঠিত?</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>লৌহের অভাব</t>
+          <t>একটি</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাসের অভাব</t>
+          <t>দুইটি</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়ামের অভাব</t>
+          <t>চারটি</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>বারনের অভাব।</t>
+          <t>তিনটি</t>
         </is>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>উক্তিদের বারনের অভাব হলে কোনটি ঘটে?</t>
+          <t>পনসের পৃষ্ঠীয় দেশে অবস্থিত অঙ্গী</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>শীর্ষ ও পার্শমুকুল মরে যায়</t>
+          <t>মেনেনজেস</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>কাণ্ডের মধ্যপর্ব ছাট হয়</t>
+          <t>সেরিবেলাম</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>ডাইব্যাক রাগের সৃষ্টি হয়</t>
+          <t>সেরিব্রাল</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>ফুলের কুঁড়ির জন্ম ব্যাহত হয়</t>
+          <t>মেডুলা</t>
         </is>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>সালফারের অভাবজনিত লক্ষণ কোনটি?</t>
+          <t>দেহে সঞ্চালন তথা প্রত্যেক  অনুভূতির কেন্দ্র কোনটি?</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>পাতায় মৃত অঞ্চল সৃষ্টি হয়</t>
+          <t>মেডুলা অলংগাটা</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>ফুল ফোটার সময় উদ্ভিদের কাণ্ড শুকিয়ে যায়</t>
+          <t>সেরেবেলাম</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>কাও খসখসে হয়ে ফেটে যায়</t>
+          <t>পনস</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>কচি পাতায় বেশি এবং বয়াবৃদ্ধ পাতায় কম ক্লোরাসিস হয়</t>
+          <t>সেরিব্রাম</t>
         </is>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়ামের অভাবজনিত লক্ষণ কোনটি?</t>
+          <t>পনসের অবস্থান কোথায়?</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদ হঠাৎ নেতিয়ে পড়ে পাতা বিকৃত হয়</t>
+          <t>অমস্তিষ্কের মাঝে</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>বিভাজন হ্রাস পায়</t>
+          <t>পশ্চাৎ মস্তিষ্কের পেছনে</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদের শীর্ষ ও পার্শমুকুল মরে যায়</t>
+          <t>মধ্যমস্তিষ্কের অভাগে</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>কোষের বৃদ্ধি</t>
+          <t>মধ্যমস্তিষ্কের পেছনে</t>
         </is>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদে ফসফরাসের অভাব হলে কোনটি ঘটবে?</t>
+          <t>সেরিবেলাম ও মেলা অবস ভেতর সংযোগ স্থাপন করে কে?</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>বিকৃত পাতা</t>
+          <t>অগ্র মস্তিষ্ক</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>ক্লোরাসিস।</t>
+          <t>সুধুমাকাও</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>ডাইব্যাক</t>
+          <t>পশ্চাৎ মস্তিষ্ক</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>খর্বকায় উদ্ভিদ</t>
+          <t>পনস</t>
         </is>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>উদ্ভিদে কোনটির অভাব হলে শীর্ষ ও পার্শ্ব মুকুল মারা যায়?</t>
+          <t>মস্তিষ্কের মধ্যে বড় অংশ কোনটি?</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>নিউরন</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস।</t>
+          <t>কার্টে</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>মেনেনজেস</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>সেরিব্রাম</t>
         </is>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>কচি পাতায় ক্লোরাসিসের জন্য নিচের কোনটি দায়ী?</t>
+          <t>সেরিব্রামের মাঝখানের খাঁজটি কী?</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>নাইট্রোজেন</t>
+          <t>মেননজেস</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>সেরিব্রাল</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>নিউরন</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>প্রামটার</t>
         </is>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>ফুল ফোটার সময় উদ্ভিদের কাণ্ড শুকিয় যায় কোনটির অভাবে?</t>
+          <t>হেমিস্ফিয়ার সেরিব্রামকে কী বলা হয়?</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>নিম্ন মস্তিষ্ক</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>মধ্য মস্তিষ্ক</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>সালফার</t>
+          <t>লঘু মস্তিষ্ক</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>গুরুমস্তিষ্ক</t>
         </is>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>কোনটির অভাবে উদ্ভিদের সালাকসংশ্লেষণের হার কমে যায়?</t>
+          <t>সেরিব্রাম কোন পর্দা বারা আবৃত থাকে।</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>মেনেনজেস</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>নিউরন</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>লৌহ</t>
+          <t>সেরিব্রাম কর্টেক্স</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>সেরিব্রাল হেমিক্রিয়ার</t>
         </is>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>পাতার সরু শিরাসমূহের মধ্যবর্তী স্থানে ক্লোরাসিসের জন্য কোনটি দায়ী?</t>
+          <t>সেরিবেলামের অবস্থান কোথায়?</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>অগ্রমস্তিষ্কে</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম।</t>
+          <t>পনসের পৃষ্ঠীয় দেশে</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>মধ্য মস্তিষ্কে</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>ম্যাগনেসিয়াম</t>
+          <t>পনসের অঙ্কীয় দেশে</t>
         </is>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>উৎস অনুযায়ী আমিষ কত প্রকার?</t>
+          <t>মাপ্তকের সব থেকে পেছনের অংশ কোন</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ</t>
+          <t>সেরেবেলাম</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>তিন</t>
+          <t>মেডুলা অবসংগতি</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>চার</t>
+          <t>পনস</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>দুই</t>
+          <t>সেরিব্রাম</t>
         </is>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>কোনটিতে নাইট্রাজেন রয়েছে</t>
+          <t>করাটিক স্নায়ুর সংখ্যা কতটি?</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>শর্করা</t>
+          <t>12টি</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>আমিষে</t>
+          <t>84টি</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন</t>
+          <t>48টি</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>আমিষ</t>
+          <t>24টি</t>
         </is>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>শতকরা কতভাগ নাইট্রোজেন থাকে</t>
+          <t>মেলা অলংগাটা থেকে কক করাটিক স্নায়ু উৎপন্ন হয়?</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4 জোড়া</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>৪ জোড়া</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12 জোড়া</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31 জোড়া</t>
         </is>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>গঠন পদ্ধতি অনুসারে শর্করা কত প্রকার?</t>
+          <t>সুষুমা স্নায়ুকোনটিকে গুরুমস্তিষ্ক বলা হয়?</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>দুই প্রকার</t>
+          <t>মেডুলা অবলংগটা</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>চার প্রকার।</t>
+          <t>পনস</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ প্রকার</t>
+          <t>সেরিবেলাম</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>তিন প্রকার</t>
+          <t>সেরিব্রাম</t>
         </is>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>কোন জাতীয় খাদ্য উপাদান কাজ করার শক্তি যাগায়?</t>
+          <t>গরিবেলমের ভিতর দিকে কী থাকে?</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন</t>
+          <t>লাহিত পদার্থ</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>খনিজ লবণ</t>
+          <t>ধূসর পদার্থ</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>পানি</t>
+          <t>কালা পদার্থ</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>শর্করা</t>
+          <t>শ্বেত পদার্থ</t>
         </is>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>শর্করার মৌলিক উপাদান কোনগুলা?</t>
+          <t>মাট করাটিক স্নায় কত জোড়া?</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>কার্বন, ফসফরাস, অক্সিজেন</t>
+          <t>5 জোড়া</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>কার্বন, নাইট্রোজেন, অক্সিজেন</t>
+          <t>2 জোড়া</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন, হাইড্রোজেন, ফসফরাস</t>
+          <t>10 জোড়া</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>কার্বন, হাইড্রোজেন, অক্সিজেন</t>
+          <t>12 জোড়া</t>
         </is>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>কোনটি এক অপুবিশিষ্ট শর্করা?</t>
+          <t>কোনটি মস্তিষ্কের সুরক্ষা প্রদান করে</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>গুকোজ</t>
+          <t>স্কাল</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>গ্লাইকোজেন</t>
+          <t>স্কেলিটন</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>ল্যাকটোজ</t>
+          <t>করাটিকা</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>শ্বেতসার</t>
+          <t>করাটি</t>
         </is>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি ফি-শর্করা?</t>
+          <t>মস্তিষ্ক কয়টি অংশে বিভক্ত?</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>গুকোজ</t>
+          <t>তিনটি</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>শ্বেতসার</t>
+          <t>ছয়টি</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>গ্লাইকোজেন</t>
+          <t>পাঁচটি</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>ল্যাকটোজ</t>
+          <t>চারটি</t>
         </is>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>মানবদেহে শাষণক্ষম শর্করা কোনটি?</t>
+          <t>মেরুরজুতে কী থাকে?</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>শ্বেতসার</t>
+          <t>কালা পদার্থ</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>ল্যাকটোজ</t>
+          <t>কালা পদার্থ,লাল পদার্থ</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>সুক্রোজ</t>
+          <t>ধূসর পদার্থ</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>গ্লুকোজ</t>
+          <t>শ্বেত পদার্থ,ধূসর পদার্থ</t>
         </is>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>কোন জাতীয় খাদ্য পাকস্থলীতে , অনেকক্ষণ থাকে?</t>
+          <t>মেরীয় স্নায়ুর সংখ্যা কত?</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>আমিষ</t>
+          <t>32 জোড়া</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>শর্করা</t>
+          <t>29 জোড়া</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন</t>
+          <t>30 জোড়া</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>স্নেহ</t>
+          <t>31 জোড়া</t>
         </is>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>চর্বি প্রধানত দেহের কোথায় জমা থাকে।</t>
+          <t>নিউরিলেমা পরিবেষ্টিত অ্যাক্সিনকে কী বলে?</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>রক্তে</t>
+          <t>মেরুরজ্জ্ব</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>চুলে</t>
+          <t>অ্যাক্সলেমা</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>হাড়ে</t>
+          <t>মিন্যাপস</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>ত্বকের নিচে</t>
+          <t>স্নায়ুতন্তু</t>
         </is>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>চর্বিতে শর্করা ও আমিষের প্রায় কতগু ক্যালরি থাকে?</t>
+          <t>নিউরিলেমা ও অ্যাজনের প্রত্যক্ষ সংযাগ স্থলের নাম কী?</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>তিন গুণ</t>
+          <t>ব্যানভিয়ার-এর পর্ব</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>চার গুণ</t>
+          <t>রানভিয়ার-এর সংযাগ</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ গুণ</t>
+          <t>ব্যানভিয়ার-এর সংযাগ</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>দুই গুণ</t>
+          <t>রানভিয়ার-এর পর্ব</t>
         </is>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>উৎস অনুযায়ী স্নেহ জাতীয় পদার্থ কয় ধরনের?</t>
+          <t>অ্যাজনের মূল অঙ্কের আবরণটিকে কী বলে?</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>তিন ধরনের</t>
+          <t>নিউরিলেমা</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ ধরনের</t>
+          <t>অ্যাক্সনিমা</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>চার ধরনের</t>
+          <t>মায়ালিন</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>দুই ধরনের</t>
+          <t>অ্যাক্সলেমা</t>
         </is>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>কোনটি প্রাণিদেহে শক্তি মাপার একক।</t>
+          <t>ডেনড্রাইট ও অ্যাক্সিনের সংযাগস্থলকে  কী বলে?</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>বিএমআই</t>
+          <t>অ্যাক্সলেমা</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>মিলিগ্রাম</t>
+          <t>নিউরিলেমা</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>লিটার</t>
+          <t>রানভিয়ার এর পর্ব</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>ক্যালরি</t>
+          <t>সিন্যাপস</t>
         </is>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>একজন সুস্থসবল পূর্ণবয়স্ক লােকের জন্য প্রতিদিন কতটুকু চর্বির প্রয়াজন?</t>
+          <t>সিন্যাপসের মধ্য দিয়ে কোন পদ্ধতিতেস্নায়ু তাড়না প্রবাহিত হয়?</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>30-40 গ্রাম</t>
+          <t>জৈব রাসায়নিক</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>40-50 গ্রাম</t>
+          <t>যান্ত্রিক</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>60-70 গ্রাম</t>
+          <t>বিকিরণ</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>50-60 গ্রাম</t>
+          <t>তড়িৎ রাসায়নিক</t>
         </is>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিনকে কয় শ্রেণিতে বিভক্ত করা</t>
+          <t>প্রতিবর্ত ক্রিয়াকে নিয়ন্ত্রণ করে কোনটি?</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>৩ শ্রেণিতে</t>
+          <t>মস্তিষ্ক</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>৪ শ্রেণিতে</t>
+          <t>হরমান</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>৫ শ্রেণিতে</t>
+          <t>নিউরন</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>২ শ্রেণিতে</t>
+          <t>সুষুলাকাণ্ড</t>
         </is>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>পানিতে দ্রবণীয় ভিটামিন কোনটি</t>
+          <t>ব্যথার উদ্দীপনা গ্রহণ করে কোনটি?</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>এ</t>
+          <t>সুষুমকাণ্ড</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>কে</t>
+          <t>অ্যাক্সন</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>ডি</t>
+          <t>মস্তিষ্ক</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>সি</t>
+          <t>নিউরনের ডেনড্রাইট অ্যাক্সন</t>
         </is>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>কোনটি চর্বিতে দ্রবণীয় ভিটামিন</t>
+          <t>স্নায়ু যাজক টিস্যু কী আৱা গঠিত</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>পনস</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>কর্টেক্স</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>সেরিবেলাম</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>নিউরন</t>
         </is>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়ামের প্রধান উৎস নিচের কোনটি?</t>
+          <t>প্রতিটি নিউরনের কয়টি অংশ।</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>গাজর</t>
+          <t>তিনটি</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>মাংশ</t>
+          <t>ছয়</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>বাদাম</t>
+          <t>পাঁচ</t>
         </is>
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>লাল শাক</t>
+          <t>চারটি</t>
         </is>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>লৌহ সমৃদ্ধ খাদ্য কোনটি?</t>
+          <t>নিউরশের প্রলম্বিত অংশ কয় ধরনের</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>ছাট মাছ</t>
+          <t>পাঁচ ধরনের</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>নানতা খাবার</t>
+          <t>তিন ধরনের</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>শেওলা</t>
+          <t>চার ধরনের</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>শাক</t>
+          <t>দুই ধরনের</t>
         </is>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>কোনটি হতে ফসফরাস পাওয়া যায়?</t>
+          <t>নিউরমের লম্বিত অংশ কোনটি?</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>তাল</t>
+          <t>চৰি</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>আলু</t>
+          <t>চৰি</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>ঢেড়স</t>
+          <t>মাইটোকন্ড্রিয়া</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>বাদাম</t>
+          <t>মাইটোকন্ড্রিয়া</t>
         </is>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>সাডিয়ামের প্রধান উৎস নিচের কোনটি?</t>
+          <t>অ্যাক্সিমেরচারদিকে পাতলা আবরণটি কী?</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>দই</t>
+          <t>পনস</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>তাল</t>
+          <t>মেননজেস</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>আপেল</t>
+          <t>নিলস</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>পনির</t>
+          <t>নিউরিলেমা</t>
         </is>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটিতে পটাসিয়াম পাওয়া যায়?</t>
+          <t>নিউরিলেমা ও অ্যালিনের মধ্যবর্ত অঞ্চলটি কী?</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>পনির</t>
+          <t>মেনিনজেন</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>খাবার লবণ</t>
+          <t>পনস</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>চিপস</t>
+          <t>নিউরিলেমা</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>কলা</t>
+          <t>মায়োলিন</t>
         </is>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>কোনটি হতে ক্লোরিন পাওয়া যায়?</t>
+          <t>স্নায়ুতন্ত্রের গঠন ও কার্যকারিতার একক কী?</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>দই</t>
+          <t>নিউরিলেমা</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>ডাল</t>
+          <t>মেরুর</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>আপেল</t>
+          <t>স্নায়ুর</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>মাছ</t>
+          <t>নিউরন</t>
         </is>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>কোনটি আয়াডিনের উৎস?</t>
+          <t>একটি নিউরনে কতটি ডেন্ধন হতে পারে?</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>ডিমের কুসুম</t>
+          <t>শূন্য থেকে পাঁচ</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>হানা</t>
+          <t>শূন্য থেকে দশ</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>বাদাম</t>
+          <t>শূন্য থেকে একশ</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>মাংস</t>
+          <t>শূন্য থেকে শতাধিক</t>
         </is>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>জীবন রক্ষায় অক্সিজেনের পর কোনটির অবস্থান?</t>
+          <t>অন্য নিউরন থেকে স্নায় তাড়না গ্রহণ করে কোনটি?</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>মাটি</t>
+          <t>নিউক্লিয়াস</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>বায়ু</t>
+          <t>অ্যাক্সন</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>লবণ</t>
+          <t>দেহকোষ</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>পানি</t>
+          <t>ডেনড্রাইট</t>
         </is>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>একজন প্রাপ্তবয়স্ক ব্যক্তি দৈনিক কত লিটার পানি পান করা প্রয়াজন?</t>
+          <t>অ্যাক্সনের চারদিকের পাতলা আবরণটিকে কী বলে?</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>1লিটার</t>
+          <t>মায়ালিন</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>6 লিটার</t>
+          <t>অ্যাক্সলেমা</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>4 লিটার</t>
+          <t>সিন্যাপস</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>2 লিটার</t>
+          <t>নিউরিলেমা</t>
         </is>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেনকে দেহকোষে পৌছানোর কাজে সাহায্য করে কোনটি?</t>
+          <t>দুটি নিউরনের সন্ধিস্থল কোনটি?</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>তরল খাবার</t>
+          <t>মেনিনজেস</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন</t>
+          <t>অ্যাক্সলেমা</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>খনিজ লবণ</t>
+          <t>মায়ালিন</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>পানি</t>
+          <t>সিন্যাপস</t>
         </is>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>একজন পূর্ণবয়স্ক ব্যক্তির দেহের ওজনের কতভাগ পানি?</t>
+          <t>সিন্যাপসে অবস্থিত তরল পদার্থটি ?</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>75-95 ভাগ</t>
+          <t>অ্যাঙ্গলেমা</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>60-70 ভাগ</t>
+          <t>পনস</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>80-9) ভাগ</t>
+          <t>মায়ালিন</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>50-65 ভাগ</t>
+          <t>নিউরােহিউমার</t>
         </is>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>মানবদেহে পানির কাজগুলাকে কয়ভাগে ভাগ করা যায়?</t>
+          <t>সিন্যাপসের মধ্য দিয়ে স্নায় তাড়না  প্রবাহিত হয় কোন পদ্ধতিতে?</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>ছয় ভাগ</t>
+          <t>রাসায়নিক</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>চার ভাগ</t>
+          <t>ভেীত রাসায়নিক</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>পাঁচ ভাগ</t>
+          <t>স্বাভাবিক।</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>তিন ভাগ</t>
+          <t>তড়িৎ রাসায়নিক</t>
         </is>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>পানি মানবদেহে কিরপে কাজ করে?</t>
+          <t>মস্তিষ্ক থেকে উৎপন্ন কোন প্রায় অসের কাজ নিয়াজশ করে?</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>দ্রব</t>
+          <t>মেরুম</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>ক্ষার</t>
+          <t>স্নায়ু</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>দ্রবণ</t>
+          <t>অকশন</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>দ্রাবক</t>
+          <t>করোটিক</t>
         </is>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটি আঁশ জাতীয় খাদ্য?</t>
+          <t>কিন্তু যারা পরিচালিত হয় কোনটি?</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>ডিমের কুসুম</t>
+          <t>কান</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>দুধ</t>
+          <t>জিকা</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>গরুর মাংস</t>
+          <t>পঁত</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>ইসুবগুল</t>
+          <t>অগ্ন্যাশয়</t>
         </is>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>রাফেজযুক্ত খাবার বিষাক্ত বস্তুকে খাদ্যনালি থেকে কী করে?</t>
+          <t>জীপনা বা তার বেশ সেকেতে কত</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>পরিবহন করে</t>
+          <t>পায় 200মিটার</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>পরিচলন করে</t>
+          <t>প্রায় ও প্রায় ১Kমিটার</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>গ্রহণ করে</t>
+          <t>প্রায় 400মিটার</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>পরিশােষণ করে</t>
+          <t>পায় ।Aমিটার</t>
         </is>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>আঁশযুক্ত খাবার আমাদের কোন  উপকারটি করে।</t>
+          <t>নিউরনের সাইটোপ্লাজমের পন পরিবহন করে কোনটি?</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>ক্যান্সার সৃষ্টি করে</t>
+          <t>মেরুমশা</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>ওজন বৃদ্ধি করে।</t>
+          <t>অ্যাক্সন</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>চর্বি জমাতে সাহায্য করে</t>
+          <t>সুকান্ত</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>স্কুলতা হ্রাস করে</t>
+          <t>নিলস সানা</t>
         </is>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>খাদ্য আঁশ উদ্ভিদের কী তৈরি করে?</t>
+          <t>কোনটি থেকে উদ্ভূত প্লয়গুলো অঙ্গ প্রত্যঙ্গ চালনা করে?</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>খাদ্য</t>
+          <t>য়াযুকাও</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>বৃদ্ধি হরমান</t>
+          <t>করাটি</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>ফুল</t>
+          <t>স্নায়ুমজ্জা</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>কাঠামো</t>
+          <t>মেরুর</t>
         </is>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>সেলুলাজ ও রাষ্ণেকী ধরনের শর্করা?</t>
+          <t>কোনটির কার্যকারিতার ওপর মা ও মেরুর কোনা প্রভাব নেই?</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>সরল</t>
+          <t>কেন্দ্রীয় স্নায়ুতন্ত্র</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>সহজপাচ্য</t>
+          <t>পার্শ্বীয় স্নায়ুতন্ত্র</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>এক অণু বিশিষ্ট</t>
+          <t>ঐচ্ছিক পেশ</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>জটিল</t>
+          <t>স্বয়ংক্রিয় স্নায়ুতন্ত্র</t>
         </is>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>বাফেজ মানবদেহের কোন রোগের আশঙ্কা কমায় বলে ধারণা করা হয়</t>
+          <t>তাড়না বা উদ্দীপনা পরিবেশ থেকে মস্তিষ্কে প্রবাহিত হয় কীভাবে?</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>ডায়াবেটিস</t>
+          <t>কণা আকারে</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>ডায়রিয়া</t>
+          <t>রাসায়নিক ভাবে</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>উচ্চরক্তচাপ</t>
+          <t>জৈব উপায়ে</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>ক্যান্সার</t>
+          <t>তরঙ্গাকারে</t>
         </is>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>সুষম খাদ্য তালিকায় কোন খাবারের পরিমাণ সবচেয়ে বেশি উল্লেখ আছে</t>
+          <t>নালিবিহীন ছিৱস কী?</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>আমিষ</t>
+          <t>পিত্তরস</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন</t>
+          <t>এনজাইম</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>স্নেহ</t>
+          <t>অগ্ন্যাশয় রস</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>শর্করা</t>
+          <t>হরমান</t>
         </is>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>আদর্শ খাদ্য পিরামিডের সর্বোত্তরে কোনটি থাকা উচিত?</t>
+          <t>হরমান কোষের কোন কাজটি পরিচালিত করে?</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>আমিষ</t>
+          <t>তড়ি রাসায়নিক কাজ</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>শর্করা</t>
+          <t>রাসায়নিক কাজ</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>খনিজ লবণ</t>
+          <t>জৈবিক কাজ</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>স্নেহ</t>
+          <t>প্রাণরাসায়নিক কাজ</t>
         </is>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>একজন পূর্ণবয়স্ক পরিশ্রমহীন পুরুষের। দৈনিক কত গ্রাম মাছ বা মাংস খাওয়া উচিত?</t>
+          <t>মানবদেহে হরমান উৎপাদনকারী প্রধানগ্রন্থি কোনটি?</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>20 গ্রাম</t>
+          <t>পিনিয়াল</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>25 গ্রাম</t>
+          <t>থাইরয়েড</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>35 গ্রাম</t>
+          <t>থাইমা</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>30 গ্রাম</t>
+          <t>পিটুইটারি</t>
         </is>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>একজন পূর্ণবয়স্ক পরিশ্রমী মহিলার প্রতিদিনের সুষম খাদ্য তালিকায় কত গ্রাম পরিমাণ দুধ থাকা দরকার?</t>
+          <t>কোন গ্রন্থি থেকে নিঃসৃত হরমান সংখ্যায় সবচেয়ে বেশি।</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>100 গ্রাম</t>
+          <t>পিনিয়াল</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>150 গ্রাম</t>
+          <t>থাইমাস</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>250 গ্রাম</t>
+          <t>থাইরয়েড</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>200 গ্রাম</t>
+          <t>পিটুইটারি</t>
         </is>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>কয়টি দিক বিবেচনা করে সুষম খাদ্যের  তালিকা করতে হবে?</t>
+          <t>আকারে সবচেয়ে ক্ষুন্ন স্থটির নাম কী?</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>ছয়টি</t>
+          <t>থাইরয়েও</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>চারটি</t>
+          <t>গানা</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>পাঁচটি</t>
+          <t>এডৱেনা</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>তিনটি</t>
+          <t>পিটুইটারি</t>
         </is>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>প্রতি 100 গ্রাম চালে কত কিলাক্যালরি শক্তি পাওয়া যায়?</t>
+          <t>কোন এস্থিটি টাকিয়ার উপরের অংশে অবস্থিত।</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>320 কিলাক্যালরি</t>
+          <t>থাইমস</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>310 কিলাক্যালরি</t>
+          <t>গোলাজ</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>300 কিলাক্যালরি</t>
+          <t>গোলাজ</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>346 কিলাক্যালরি</t>
+          <t>থাইমস</t>
         </is>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>একজন পরিশ্রমী পূর্ণবয়স্ক পুরুষের দৈনিক কত গ্রাম দুধ খাওয়া উচিত?</t>
+          <t>পরিণত বয়সের লক্ষণসমূহ বিকশিত করতে ভূমিকা রাখে কোন এহি কিত মোনা</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>200 গ্রাম</t>
+          <t>থাইমাস গ্রন্থি</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>18০ গ্রাম</t>
+          <t>পিটুইটারি গ্রহি</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>220 গ্রাম</t>
+          <t>পিনিয়াল গ্রন্থি</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>250 গ্রাম</t>
+          <t>গানাও</t>
         </is>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>কিছু বিশেষ ধরনের চিকিৎসা বিজ্ঞানে | গলগণ্ডকে কী নামে ডাকা হয়?</t>
+          <t>জনন অফে বৃদ্ধিতে সাহায্য করে কোটি</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>টিউমার</t>
+          <t>প্যারাথাইরক্সিন</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>গলাফুলা</t>
+          <t>থাইরক্সিন।</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>টাইফয়েড</t>
+          <t>ইনসুলিন</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>গয়টার</t>
+          <t>থাইমজিন</t>
         </is>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>গলগণ্ড মানুষের কোন গ্রন্থিতে হয়?</t>
+          <t>একেবল এই খেকে নিসৃত হরমােনেম কী?</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>পিটুইটারি</t>
+          <t>থাইরক্সিন</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>লালাগ্রন্থি</t>
+          <t>আইসক্সিন</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>থ্যালামাস</t>
+          <t>পারাথাইরকিন</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>থাইরয়েড</t>
+          <t>এডরেনালিন</t>
         </is>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>কীসের অভাবে গলগণ্ড রাগ হয়?</t>
+          <t>দেহে শর্কর বিপাক নিয়ন্ত্রণ করে কোনটি?</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>অক্সিজেন</t>
+          <t>এডরেনালিন</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>হাইড্রোজেন</t>
+          <t>থাইরয়েড</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>থাইমাস</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>আয়াডিন</t>
+          <t>থাইরয়েড</t>
         </is>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>কোন ভিটামিনের অভাবে রাতকানা রোগ হয়?</t>
+          <t>জনন অঙ্গ থেকে পুরুষে কোন হরমান ক্ষিত হয়</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন ‘ডি’</t>
+          <t>ইস্ট্রোজেন</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন ‘বি’</t>
+          <t>ইনসুলিন</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন ‘সি’</t>
+          <t>এডরেনালিন</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন ‘এ’</t>
+          <t>টেস্টোস্টেরন</t>
         </is>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>জোফথ্যালমিয়ার সর্বনিন্ম মাত্র কোনটি?</t>
+          <t>কোনটিকে মৃগী রোগ বলা হয়?</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>গয়টার</t>
+          <t>প্যারালাইসিস</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>রাতকানা</t>
+          <t>পারকিনসন</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>রক্তশূন্যতা</t>
+          <t>এনসেলাইটিস</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>রিকেটস</t>
+          <t>এপিলেপসি</t>
         </is>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>জেরাঞ্চৰ্যালমিয়ার মাত্রা কয়টি?</t>
+          <t>চোখ বের হয়ে আসা রাগটি হয় কেন?</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>এক থেকে দুইটি</t>
+          <t>প্যারা থাইরয়েড গ্রন্থির প্রভাবে</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>চার থেকে পাঁচটি</t>
+          <t>পিটুইটারি সমস্যার কারণে</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>চৌদ্দটি</t>
+          <t>থাইমাস গ্রন্থির প্রভাবে</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>সাত থেকে আটটি</t>
+          <t>থাইরয়েড গ্রন্থির সমস্যার কারণে</t>
         </is>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>কোন বয়সের শিশুদের মধ্যে রাতকানা রাগ বেশি দেখা যায়?</t>
+          <t>থাইরয়েড গ্রন্থি ফুলে যায় কেন?</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>2-3 বছর</t>
+          <t>আমিষের অভাবে</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>4-3 বছর</t>
+          <t>ভিটামিনের অভাবে</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>3-5 বছর</t>
+          <t>শর্করার অভাবে</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>2-3 বছর</t>
+          <t>আয়াডিনের অভাবে</t>
         </is>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>রিকেটস কিসের অতজনিত রাগ?</t>
+          <t>বাংলাদেশের কোন অঞ্চলে আয়াডিনের অতৰ দেখা যায়?</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন 'এ'</t>
+          <t>পশ্চিম অঞ্চলে</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন বি</t>
+          <t>দক্ষিণ বঙ্গে</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন 'সি'</t>
+          <t>পূর্ববঙ্গে</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন ডি</t>
+          <t>উত্তরবঙ্গে</t>
         </is>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>সূর্যের বেগুনি রশ্মির প্রভাবে মানুষের ত্বকে কোনটি তৈরি হয়?</t>
+          <t>মানবদেহে হরমোন উৎপাদনকারী প্রধান খস্থি?</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>কালচে দাগ</t>
+          <t>থাইরয়েড গ্রন্থি</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>তৈলাক্ত ভাব</t>
+          <t>প্যারাথাইরয়েড গ্রন্থি</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন 'ই'</t>
+          <t>থাইমাস গ্রন্থি</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন ডি</t>
+          <t>পিটুইটারি গ্রন্থি</t>
         </is>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>কোন ভিটামিনের অভাবে রক্তশূন্যতা দেখা দেয়?</t>
+          <t>বিরি খছি থেকে কি হইবানের</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>বি 12</t>
+          <t>হিরেনি</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন ডি</t>
+          <t>হিরেনি</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিন 'ই'</t>
+          <t>হিরেনি</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>তৈলাক্ত ভাব</t>
+          <t>হিরেনি</t>
         </is>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>কোনটির অভাবে রক্তশূন্যতা হতে পারে?</t>
+          <t>সাস্প্যাকটিন হরমোনটি নিঃসৃত হয় কেন খছি থেকে।</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>পটাসিয়াম</t>
+          <t>রেনাল</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>ফসফরাস</t>
+          <t>থাইমাস</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>ক্যালসিয়াম</t>
+          <t>থাইরয়েজ</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>আয়রন</t>
+          <t>পিটুইটারি</t>
         </is>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোন রাগটি আয়াডিনের অভাবে হয়?</t>
+          <t>খাইরুয়েজ এজি থেকে বিশ হয় কোনটি?</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>চোখের ঝাপসা দেখা</t>
+          <t>থাইমাস</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>পা বেঁকে যাওয়া</t>
+          <t>গানাডাট্রপিন</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>পেট ফুলে যাওয়া</t>
+          <t>পিটুইটারি</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>গয়টার</t>
+          <t>থাইরক্সিন</t>
         </is>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>থ্যালাসেমিয়া কেন হয়</t>
+          <t>প্যারাথাইরয়েড গ্রন্থি কোনটির বিপাক নিয়শ করে?</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>পানির অভাবে</t>
+          <t>ক্যালসিয়াম</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>আয়াডিনের অভাবে</t>
+          <t>ম্যাগনেসিয়াম ও আয়রন</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>ভিটামিনের অভাবে</t>
+          <t>ম্যাগনেসিয়াম</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>রক্তস্বল্পতার কারণে</t>
+          <t>ফসফরাস</t>
         </is>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>পুষ্টি উপাদান থেকে নির্গত শক্তি একক কী?</t>
+          <t>প্যারাথাইরয়ে আছি থেকে কোন হরমান নিঃসৃত হয়?</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>মিটার</t>
+          <t>প্রাল্যাকটিন</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>গ্রাম</t>
+          <t>ইনসুলিন</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>ওয়াট</t>
+          <t>থাইরাট্রপিন</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>ক্যালরি</t>
+          <t>প্যারাথাইরক্সিন</t>
         </is>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>এক কিলাগ্রাম পানির উচ্চতা।°cযুক্তি করতে কতটুকু তাপের প্রয়াজন</t>
+          <t>নিচের কোনটি জনন অঙ্গের বৃদ্ধিতে সাহায্য করে?</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>এক জুল</t>
+          <t>গ্যারাথাইরক্সিন</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2 ফুল</t>
+          <t>থাইরাট্রপিন</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>2800 কিলাক্যালরি</t>
+          <t>প্রাল্যাকটিন</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>এক কিলাক্যালরি</t>
+          <t>খাইমস</t>
         </is>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>বিশ্রামরত অবস্থায় যে শক্তি ব্যয় হয় তাকে কী বলে?</t>
+          <t>কঠিন মানসিক চাপ পরিত্রণে সাহায্য করে কোনটি?</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>যান্ত্রিক শক্তি</t>
+          <t>থাইরয়েড</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>যৌগিক শক্তি</t>
+          <t>থাইমাস</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>পেশি শক্তি</t>
+          <t>প্যারাথাইরয়েড</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>মৌলবিপাক শক্তি</t>
+          <t>এডরেনাল</t>
         </is>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>1000 ক্যালরি =?</t>
+          <t>কিটোসিস রাগের কারণ কী?</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>10 জুল</t>
+          <t>হরমানের কার্যকারিতা</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>4.2 জুল</t>
+          <t>প্রাটিনের বিপাক</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>10 জুল</t>
+          <t>শর্করার বিপাক</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>কিলাজুল</t>
+          <t>লিপিডের বিপাক</t>
         </is>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>নিচের কোনটিতে শুধুমাত্র শর্করা পাওয়া</t>
+          <t>আক্রান্ত ব্যক্তির শরীর চুনি ও কাঁপুনি দিতে থাকে কোন রাগে?</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>দুধ</t>
+          <t>পারকিনসন</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>ডিম</t>
+          <t>প্যারালাইসিস</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>খিচুরি</t>
+          <t>স্ট্রোক</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>চিনি</t>
+          <t>এপিলেপসি</t>
         </is>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>একজন পূর্ণবয়স্ক মানুষে দিনে কত ক্যালরি অশ্য কান</t>
+          <t>প্রতি 100 মিলি রক্তে কত মিমি গুকোজ থাকে?</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>220-250  ক্যালরি</t>
+          <t>20-40 মিমি</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Noish) ক্যালরি</t>
+          <t>55- 60 মিমি</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>প্রায় ৭০ ক্যালরি</t>
+          <t>0 0-0 মিলিগ্রাম</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>20NN)-25X) ক্যালরি</t>
+          <t>80-90মিশ্রিাম</t>
         </is>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>15 থাম শর্করায় খাদ্য ক্যালরি</t>
+          <t>কোন ধরনের রাগে আক্রান্ত রোগীদের মৃগী রোগ দেখা যায়</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>30খাদ্য ক্যালরি</t>
+          <t>হেমারিক স্ট্রোক</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>150ক্যালরি</t>
+          <t>ব্রোমাৰিক স্ট্রোক</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>135খাদ্য ক্যালরি</t>
+          <t>এমবলিক স্ট্রোক</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>60খাদ্য ক্যালরি</t>
+          <t>ইসমিক স্ট্রোক</t>
         </is>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>পূর্ণ বিধামরত অবস্থায় মানব শরীরের ব্যবহৃত শনি পরিমাণ নির্দেশ করে</t>
+          <t>কোন একজন ভাঙ্গাবেটিস রাগীর জল মহৌষধরূপ?</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>ও বিএমআই</t>
+          <t>নিয়ন্ত্রিত খাওয়ার অভ্যাস</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>জুল</t>
+          <t>ইনসুলিন ইনঞ্জেকশন</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>ক্যলরি</t>
+          <t>সুশল জীবন ব্যবস্থা</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>ও বিএমআর</t>
+          <t>পরিমিত ঔষধ সেবন</t>
         </is>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>মানবদেহের গড়ন ও চর্বির সূচক কোনটা</t>
+          <t>মস্তিষ্কের রক্তক্ষরণকে কলা হয়?</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>বিএসআর</t>
+          <t>প্যারালাইসিস</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>বিএসটিআই</t>
+          <t>স্ট্রোক</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>ডিএমপি</t>
+          <t>এপিলেপসি</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>বিএমআই</t>
+          <t>পারকিনসন</t>
         </is>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>আমাদের শরীরের কতজগ শক্তি উৎপাদন বিএমআর নিয়ন্ত্রণ করে</t>
+          <t>শরীরে কোন কাজে কে কার্যাবলি নষ্ট হওয়াকে বলে</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>30-45 ভাগ</t>
+          <t>এপিলেপসি</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>40-55 ভাগ</t>
+          <t>স্ট্রোক</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>50-65 ভাগ</t>
+          <t>বহুমূত্র</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>60-75 ভাগ</t>
+          <t>প্যারালাইসিস</t>
         </is>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>খাদ্য গ্রহণে আমাদের শরীর কত শতাংশ শক্তি পায়?</t>
+          <t>গলগণ্ড রাগের অপর নাম</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>40-50%</t>
+          <t>পারকিনসন</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>20-30%</t>
+          <t>রয়টার</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>30-40%</t>
+          <t>এপিলেপসি</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>১0-20%</t>
+          <t>গয়টার</t>
         </is>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>বিএমআই =?</t>
+          <t>স্রাবের সাথে খুঁজে বের ক যাওয়াকে কী বলে?</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>দৈনিক খাদ্য গ্রহণ / ও দেহের উচ্চতা (m)}</t>
+          <t>এপিলেপসি</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>দৈহিক উচ্চতা (m)./দৈনিক খাদ্য গ্রহণ (kg)</t>
+          <t>পারকিনসন</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>দৈহিক ওজন (kg)/দৈহিক উচ্চতা (m)</t>
+          <t>মেলিটাস গয়টার</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>দৈহিক উচ্চতা (kg) /দৈহিক ওজন (m))</t>
+          <t>ডায়াবেটিস</t>
         </is>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>25 মিটার উচ্চতা এবং ৫ কেজি ওজনের একজন ব্যক্তি বিএমআই</t>
+          <t>পারকিনসনের প্রত্যৰে অলপতি অকার্যকর হয়নি ?</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>বয়স কম থাকলে</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>বয়স বাড়ার সাথে সাথে</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>নির্দিষ্ট বয়সে</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>খুব অল্প বয়সে</t>
         </is>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>মেগা =?</t>
+          <t>নিচের কোনটি পারকিনসন রােগের কি</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>100জুল</t>
+          <t>নির্দিষ্ট মাত্রার ঔষধ</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>1000জুল</t>
+          <t>ফিজিওথেরাপি</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>100 কিলাজুল</t>
+          <t>কেমাথেরাপি</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>1000কিলাজুল</t>
+          <t>আকুপাংচার</t>
         </is>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>আতিক সংস্থার মতে, খাদ্যের ব্যবহার করা উচিত</t>
+          <t>নিচের কোনটি নিকোটিনের মড়য়া</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>কিলাক্যালরি</t>
+          <t>লেবুর রস</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>জুল</t>
+          <t>পান</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>মেগাজুল</t>
+          <t>সুপারি</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>কিলাজুল</t>
+          <t>তামাক</t>
         </is>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>শরীরের কর্মক্ষম অষ্ট রাখতে সাহায্য।</t>
+          <t>কোনটি স্নায়ুকোষের কার্যকারিতঃকরে</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>অতিরিক্ত খাদ্য</t>
+          <t>হরমান</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>নিয়মিত বিনাদন</t>
+          <t>এনজাইম</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>বসে কাজ করা</t>
+          <t>আন্ত্রিক রস</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>পরিমিত শরীরচর্চা</t>
+          <t>নিকোটিন</t>
         </is>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>যে সব প্রাণী দিনে বিশ্রাম নেয় কিন্তু বাতে কর্মক্ষম থাকে তাদের কী বলে?</t>
+          <t>নেশ করার কারণে কোনটিয়া</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>কর্মী</t>
+          <t>সৃজনশীল কাজ করা যায়</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>দিবাচর।</t>
+          <t>চিন্তাশক্তি কমে</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>মানসিক উর্ষতা বাড়ে</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>নিশাচর</t>
+          <t>বুদ্ধি বাড়ে</t>
         </is>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>শরীরচর্চার মাধ্যমে নিচের কোন রাগটি থেকে পরিত্রাণ পাওয়া যায়?</t>
+          <t>নিকোটিন গ্রহণে কোনটির কার্যকর নষ্ট হয়?</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>জন্ডিস</t>
+          <t>ফুসফুস</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>হাঁপানি।</t>
+          <t>স্নায়ুকোষ</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>বাতজ্বর</t>
+          <t>কিডনি</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ডায়াবেটিস</t>
+          <t>গলবিল</t>
         </is>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>নিচের কোন পদার্থটি খাদ্য সংরক্ষণে অনুমাদিতভাবে ব্যবহার করা হয়?</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ফরমালিন</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>রঞ্জক পদার্থ</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>ডিডিটি</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>সালফার ডাইঅক্সাইড</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
     </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>বাণিজ্যিক রঙ কোন অঙ্গের কার্যকারিতা। নষ্ট করে দেয়?</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>পাকস্থলী</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>হৃৎপিণ্ড</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>কিডনি</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>ফরমালিন কোন রাগ সৃষ্টি করতে পারে?</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>হৃদরাগ</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>স্ট্রোক</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>উচ্চরক্তচাপ</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>ক্যান্সার</t>
-        </is>
-      </c>
-    </row>
-    <row r="151" ht="15" customHeight="1">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>কোনটি শিশুর মনের বিকাশ বৃদ্ধিতে প্রভাব রাখে?</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ফরমালিন</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>কীটনাশক</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>হেভিমেটাল</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>রঙিন জিনিস</t>
-        </is>
-      </c>
-    </row>
-    <row r="152" ht="15" customHeight="1">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>কোনটি মৎস্য ও পশু খাদ্যে ব্যবহারের ফলে প্রাণীর দেহে জমা হয়?</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>কীটনাশক</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>হেভিমেটাল</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>ফরমালিন</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>এন্টিবায়ােটিক</t>
-        </is>
-      </c>
-    </row>
-    <row r="153" ht="15" customHeight="1">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>কাচা ফল পাকাতে ব্যবহার করা হয়?</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>সরবেট ও ডিডিটি</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>কারবাইড</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>সফট</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>ফরমালিন</t>
-        </is>
-      </c>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>এনার্জি পানীয় জলে ব্যবহার করা হয় কোনটি?</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ফরমালিন</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>ডিডিটি</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>কারবাইড</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>সরবেট</t>
-        </is>
-      </c>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>ফল পাকাতে কোন পদার্থ ব্যবহার করা। যায়?</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>চুন</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>সরবেট</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>এসিটিক এসিড</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>কার্বাইড</t>
-        </is>
-      </c>
-    </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>শুটকি সংরক্ষণে কোন পদার্থটি ব্যবহার। করা হয়?</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>কার্বাইড</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>সরবেট</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>চুন</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>ডিডিটি</t>
-        </is>
-      </c>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>কোন পদার্থটখাদ্য সংরক্ষণে অনুমোদিত ব্যবহার করা হয়?</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ওভিটি</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>ক্যালসিয়াম এপারনেট</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>সাডিয়াম বাইকার্বনেট</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>ক্যালসিয়াম কার্বনেট</t>
-        </is>
-      </c>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>বাণিজ্যিক রং দেহের কোন অঙ্গ কার্যকারিতা নষ্ট করে</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>পাকস্থলী</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>হপিণ্ড</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>অনালি</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>যকৃ</t>
-        </is>
-      </c>
-    </row>
-    <row r="159" ht="15" customHeight="1">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>নিচের কোনটি মাছের কোষের সাথে কাল তৈরি করে?</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>হেভিমেটাল</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>কীটনাশক</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>এন্টিবায়াটিক</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>ফরমালিন</t>
-        </is>
-      </c>
-    </row>
-    <row r="160" ht="15" customHeight="1">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>যে তন্ত্রের সাহায্যে খাদ্যদ্রব্য হে দেহের গ্রহণ উপযােগী উপাদানে পরিণত ও শাষিত হয় তাকে কী বলে</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>পৌষ্টিকনালি</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>শ্বসনতন্ত্র</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>পৌষ্টিকতন্ত্র</t>
-        </is>
-      </c>
-    </row>
-    <row r="161" ht="15" customHeight="1">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>পৌষ্টিকনালির শেষ কোথায়?</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>হৎপিণ্ডে</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>পাকস্থলীতে</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>পায়ে</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>পায়ুতে</t>
-        </is>
-      </c>
-    </row>
-    <row r="162" ht="15" customHeight="1">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>দেহের খাদ্য করবে শাষিত হওয়ার উপযাগী হয়?</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>তিনভাবে</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>চারভাবে</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>পাঁচভাবে</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>দুইভাবে</t>
-        </is>
-      </c>
-    </row>
-    <row r="163" ht="15" customHeight="1">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>রাসায়নিক প্রক্রিয়া পরিপাকের কততম ধাপ?</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>প্রথম</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>চতুর্থ</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>তৃতীয়</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>দ্বিতীয়</t>
-        </is>
-      </c>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>স্বাদ গ্রহণের জন্য কোন অঙ্গটি ব্যবহৃত।</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>হাত</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>জিহ্বা</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>গহ্বরের</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>মুখ</t>
-        </is>
-      </c>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>লাঙ্খছি থেকে কোনট ক্ষরিত হয়?</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>রক্তরস</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>হরমান।</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>প্লাজমা</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>এনজাইম</t>
-        </is>
-      </c>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>কোনটি খাদ্যকে পিচ্ছিল করে। গলধঃকরণের সাহায্যে করে?</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>মলটেজ</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>টায়নি।</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>ট্রিপসিন</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>মিউসিন</t>
-        </is>
-      </c>
-    </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>লালারসে কোন এনজাইম থাকে?</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ট্রিপসিন</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>লাইপেজ</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>টায়ালিন</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>মিউসিন</t>
-        </is>
-      </c>
-    </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>মানবদেহে দাঁত কয়বার গলায়</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>একবার</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>দুবার</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>চারবার</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>তিনবার</t>
-        </is>
-      </c>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>মানুষের মুখে মাট কতটি দীক থাকে।</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>35টি</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>34টি</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>33টি</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>32টি</t>
-        </is>
-      </c>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>মানুষের স্থায়ী দাত কত প্রকার</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>২</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>৩</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>৫</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>৪</t>
-        </is>
-      </c>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>খাদ্য বস্তুকে ছেড়ার কাজ করে কোন দাত ?</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>কর্তন দাঁত</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>পেষণ দাঁত</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>অপেষণ দাঁত</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>ছেদন দাঁত</t>
-        </is>
-      </c>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>সাতের ভেষ্টিনকে আবৃতকারী পাতলা আরশের নাম কী?</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ডেন্টিন</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>এনামেল</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>দন্তমজ্জা</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>সিমেন্ট</t>
-        </is>
-      </c>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>মানবদেহের সবচেয়ে শক্ত অংশ কোনটি?</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>কান।</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>জিহ্বা</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>দাঁত</t>
-        </is>
-      </c>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>দাঁতের কয়টি অংশ থাকে?</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>দুইটি</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>পাঁচটি</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>কীসের মাধ্যমে ডেন্টিন অংশে পুষ্টি ও অক্সিজেন সরবরাহ হয়?</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ডেন্টিন</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>এনামেল</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>সিমেন্ট</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>দন্তমজ্জা</t>
-        </is>
-      </c>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>মুখগহ্বরের পরের অংশ কোনটি?</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>অন্ননালি</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>পাকস্থলী</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>অন্ত্র</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>গলবিল</t>
-        </is>
-      </c>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>মুখগহ্বর থেকে খাদ্যবস্তু কিসের মাধ্যমে নালিতে পেীছে</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>বৃহদান্ত্রের</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>পাকস্থলীর</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>অন্ত্রের</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>গলবিলের</t>
-        </is>
-      </c>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>গলবিল থেকে পাকস্থলী পর্যন্ত বিস্তৃত নালিটির নাম কী?</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>অন্ত্রক</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>গলবিল</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>পাকস্থলী</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>অন্ননালি</t>
-        </is>
-      </c>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>গ্যাস্ট্রিগ্রন্থি থেকে নিঃসৃত রস কীসে সহায়তা করে?</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>কোষ গঠনে</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>খাদ্য পরিবহনে</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>দৈহিক বৃদ্ধিতে</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>খাদ্য পরিপাকে</t>
-        </is>
-      </c>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>অন্ত্রের প্রধান অংশ কয়টি?</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>পাঁচটি</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>দুইটি</t>
-        </is>
-      </c>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>ক্ষুদ্রান্ত্রের অন্তঃপ্রাচীরে অবস্থিত। আঙুলের মতা প্রক্ষেপিত অংশকে কী। বলে?</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>অন্ত্র</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>এনামেল</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>সিমেন্ট</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>ভিলাস</t>
-        </is>
-      </c>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>কোনটি পরিপাককৃত খাদ্য উপাদান শাষণ করে।</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>মুকুট</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>শুল</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>গ্রীবা</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>ভিলাস</t>
-        </is>
-      </c>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>পাকস্থলীর পরের অংশের নাম কী?</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ফুসফুস</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>গলবিল</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>অন্ত্র</t>
-        </is>
-      </c>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>ভ্রা কয়টি অংশে বিভক্ত</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>এক</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>দুই</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>সিকাম কোন অঙ্গের অংশ?</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>যকৃত</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>হৃৎপিও</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>ক্ষুদ্রান্ত</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>বৃহদন্ত্র।</t>
-        </is>
-      </c>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>ইলিয়ামের পর থেকে পা পর্যন্ত বিশ্ব মাটা নলাকৃতির অংশটি কী</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>খুদ্রান্ত</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>পায়</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>গলবিল</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>ব্রিহদান্ত</t>
-        </is>
-      </c>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>কোনটি বৃহপত্রের অন্তর্ভুক্ত</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>লালছি</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>পাকস্থলী</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>কোলন</t>
-        </is>
-      </c>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>যেসৰ স্থির রস খাদ্য পরিপাকে অংশ নেয় তাদেরকে বলো</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>লালাগ্রন্থি</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>ইলিয়াম</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>পৌষ্টিক গ্রন্থি</t>
-        </is>
-      </c>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>মানুষের কয় জোড়া লালাগ্রহি রয়েছে</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>পাঁচ জোড়া</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>চার জোড়া</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>দুই জোড়া</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>তিন জোড়া</t>
-        </is>
-      </c>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>টায়ালিন এনজাইমের সাথে কোন উপাদানটি লালারসে উপস্থিত থাকে</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>কোলেস্টেরল</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>লবণ</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>গুকোজ</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>পানি</t>
-        </is>
-      </c>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>মানবদেহের সবচেয়ে গ্রন্থি কোনটি?</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>হৃদপিণ্ড</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয়</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>ফুসফুস</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>যকৃতের রং কেমন?</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>নীল</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>সবুজ</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>গাঢ় লাল</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>লালচে-খয়েরি</t>
-        </is>
-      </c>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>যকৃতের নিচের অংশে কোনটি থাকে।</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>পিত্তনালি</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>পিত্তথলি</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয়</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>লালাগ্রন্থি</t>
-        </is>
-      </c>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>যকৃৎকয়টি অসম্পূর্ণ খণ্ড নিয়ে গঠিত?</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>দুইটি</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>তিনটি</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>পাঁচটি</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>চারটি</t>
-        </is>
-      </c>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>যকৃতের প্রতিটি খণ্ড কী আরা তৈরি?</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>সিমেন্ট</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>ডেন্টিন</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>এনামেল</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>লাবিউল</t>
-        </is>
-      </c>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>যকৃৎকী তৈরি করে?</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>হরমান</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয় রস</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>পিত্তলবণ</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>পিত্তরস</t>
-        </is>
-      </c>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>পিত্তরসের স্বাদ কেমন?</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>স্বাদহীন</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>মিষ্টি</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>লবণাক্ত</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>তিক্ত</t>
-        </is>
-      </c>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>পিত্তরসের উপাদান কোনটি?</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>হাইড্রোক্লোরিক এসিড</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>ইউরিক এসিড</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>অজৈব লবণ</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>কোলেস্টেরল</t>
-        </is>
-      </c>
-    </row>
-    <row r="199" ht="15" customHeight="1">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>যকৃতের উতৃত্ত গুকোজ কীরূপে সঞ্চয় করে রাখে?</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ল্যাকটোজ রূপে</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>তরল আকারে</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>এনজাইম রূপে</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>গ্লাইকোজেন রূপে</t>
-        </is>
-      </c>
-    </row>
-    <row r="200" ht="15" customHeight="1">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>যকৃতের সঞ্চিত গ্লাইকোজেন রক্তে কোনটির মাত্রা ঠিক রাখে</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>অণুচক্রিকার</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>লাহিত কণিকার</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>শ্বেত কণিকার</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>গ্লুকোজের</t>
-        </is>
-      </c>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>পিত্তরসের রং কেমন?</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>গাঢ় লাল</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>হালকা হলুদ</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>হলুদ</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>গাঢ় সবুজ</t>
-        </is>
-      </c>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>কোনটি খাদ্যের অতৰ প্ৰশমিত করে</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>লালারস</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>যকৃৎ</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>ইলিয়াম</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>পিত্তরস</t>
-        </is>
-      </c>
-    </row>
-    <row r="203" ht="15" customHeight="1">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>পিওস কোথায় জমা থাকো</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>যকৃতে</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>পাকস্থলিতে</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>খুদ্রান্তে</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>পিত্তথলিতে</t>
-        </is>
-      </c>
-    </row>
-    <row r="204" ht="15" customHeight="1">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>যকৃতে অ্যামাইনা এসিড কী জাতীয় পপ শাষণে সাহায্য করে</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>আমিষ</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>শর্করা</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>ভিটামিন</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>স্নেহ</t>
-        </is>
-      </c>
-    </row>
-    <row r="205" ht="15" customHeight="1">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>অগ্নাশয় থেকে নিচের কোটি কি</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>টায়নি</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>ট্রিপসিন</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>রেনিন</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>ইনসুলিন</t>
-        </is>
-      </c>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>অগ্নাশয় কোথায় অস্থান করে?</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>যকৃতের নিচে</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>পাকস্থলীর সামনে</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>যকৃতের উপরে</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>পাকস্থলীর পেছনে</t>
-        </is>
-      </c>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>অগ্নাশয় রস যকৃ-অগ্নাশয় লিলে।</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>ফুসফুসে</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>যকৃতে</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>ডিওডেনামে</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>সকামে</t>
-        </is>
-      </c>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয় থেকে নিসৃত রসের নাম</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>পিত্তরস</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>যকৃৎ রস</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>আন্ত্রিক রস</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয় রস</t>
-        </is>
-      </c>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>গ্যাস্ট্রিক এস্থি কোথায় অবস্থান করে?</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>যকৃতের গায়ে</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয়ে</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>ক্ষুদ্রান্ত্রের ভিলাই-এ</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>পাকস্থলীর প্রাচীরে</t>
-        </is>
-      </c>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>গ্যাস্ট্রিক রসের অপর নাম কী?</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>এনজাইম</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>আন্ত্রিক রস</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয় রস</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>পাচক রস</t>
-        </is>
-      </c>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>আন্ত্রিক গ্রন্থি থেকে নিঃসৃত রসের নাম কী?</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>পিত্তরস</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>অগ্ন্যাশয় রস।</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>পাচক রস</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>আন্ত্রিক রস</t>
-        </is>
-      </c>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>টায়ালিন শ্বেতসারকে কোনটিতে পরিণত করে?</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>ফুক্টোজ</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>গ্ল্যাকটোজ</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>গুকোজ</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>মলটোজ</t>
-        </is>
-      </c>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>কোন প্রক্রিয়ায় খাদ্যদ্রব্য মুখগহ্বর থেকে প্রনালির মধ্যদিয়ে পাকস্থলীতে যায়?</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>মেটালাইসিস</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>হেপাটাইটিস</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>পেপসিনাজনেসিস</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>পেরিস্টানসিস</t>
-        </is>
-      </c>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>হাইড্রোক্লোরিক এসিড নিচের কোনটিকে মেরে ফেলে</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>ভাইরাস</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>ছত্রাক</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>কৃমি</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>ব্যাকটেরিয়া।</t>
-        </is>
-      </c>
-    </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>পেপসিন কী?</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>হরমান</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>গ্লাইকোজেন</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>শর্করা</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>এনজাইম</t>
-        </is>
-      </c>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="A216" t="inlineStr"/>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-    </row>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="167" ht="15" customHeight="1"/>
+    <row r="168" ht="15" customHeight="1"/>
+    <row r="169" ht="15" customHeight="1"/>
+    <row r="170" ht="15" customHeight="1"/>
+    <row r="171" ht="15" customHeight="1"/>
+    <row r="172" ht="15" customHeight="1"/>
+    <row r="173" ht="15" customHeight="1"/>
+    <row r="174" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
+    <row r="176" ht="15" customHeight="1"/>
+    <row r="177" ht="15" customHeight="1"/>
+    <row r="178" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="180" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="1"/>
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="183" ht="15" customHeight="1"/>
+    <row r="184" ht="15" customHeight="1"/>
+    <row r="185" ht="15" customHeight="1"/>
+    <row r="186" ht="15" customHeight="1"/>
+    <row r="187" ht="15" customHeight="1"/>
+    <row r="188" ht="15" customHeight="1"/>
+    <row r="189" ht="15" customHeight="1"/>
+    <row r="190" ht="15" customHeight="1"/>
+    <row r="191" ht="15" customHeight="1"/>
+    <row r="192" ht="15" customHeight="1"/>
+    <row r="193" ht="15" customHeight="1"/>
+    <row r="194" ht="15" customHeight="1"/>
+    <row r="195" ht="15" customHeight="1"/>
+    <row r="196" ht="15" customHeight="1"/>
+    <row r="197" ht="15" customHeight="1"/>
+    <row r="198" ht="15" customHeight="1"/>
+    <row r="199" ht="15" customHeight="1"/>
+    <row r="200" ht="15" customHeight="1"/>
+    <row r="201" ht="15" customHeight="1"/>
+    <row r="202" ht="15" customHeight="1"/>
+    <row r="203" ht="15" customHeight="1"/>
+    <row r="204" ht="15" customHeight="1"/>
+    <row r="205" ht="15" customHeight="1"/>
+    <row r="206" ht="15" customHeight="1"/>
+    <row r="207" ht="15" customHeight="1"/>
+    <row r="208" ht="15" customHeight="1"/>
+    <row r="209" ht="15" customHeight="1"/>
+    <row r="210" ht="15" customHeight="1"/>
+    <row r="211" ht="15" customHeight="1"/>
+    <row r="212" ht="15" customHeight="1"/>
+    <row r="213" ht="15" customHeight="1"/>
+    <row r="214" ht="15" customHeight="1"/>
+    <row r="215" ht="15" customHeight="1"/>
+    <row r="216" ht="15" customHeight="1"/>
     <row r="217" ht="15" customHeight="1"/>
     <row r="218" ht="15" customHeight="1"/>
     <row r="219" ht="15" customHeight="1"/>
